--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Desktop\PROJECTS\MOSIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07FD816E-5C21-42B5-AA28-708798617A0B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB56EFE9-0176-47E8-B717-DB101D4F2C72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="1035">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -11988,9 +11988,6 @@
     <t>This should be an exact match. Let us provide an API and the feature as part of an admin portal. Not needed in the registration client as of now.</t>
   </si>
   <si>
-    <t>The routine that generates the communication should be customizable. We can use internationalization features for getting the relevant content in multiple languages. There might be just a single notification with content in both languages. In cases where MOSIP supports more than two languages the module can be customized to choose the appropriate ones based on some criteria.</t>
-  </si>
-  <si>
     <t>1. Not sure what the question is?
 2. Yes
 3. No change
@@ -12025,6 +12022,23 @@
       </rPr>
       <t>When the EoD process is switched from ON to OFF: What happens to the packets that are already in pending approval state? Do they continue to remain so, or are they automatically approved?</t>
     </r>
+  </si>
+  <si>
+    <t>The choice of language for a notification should be configurable by the Country. The Options provided would include: 
+a) Primary b) Primary and Secondary</t>
+  </si>
+  <si>
+    <t>With respect to the length of TSP ID and User Agency ID, we will override the requirement stated in the trail mail with the requirement stated below:
+TSP ID Length: 2 digits
+AUA ID Length: 3 digits
+This is based on India stats which is: 30 TSPs and 280 AUAs.</t>
+  </si>
+  <si>
+    <t>What is the requirement wrt length of TSP ID and AUA ID? We had earlier concluded to keep it 4 digits. However please note India stats we analyzed and confirm the requirement.
+30 TSPs and 280 AUAs</t>
+  </si>
+  <si>
+    <t>Email dated 29Jan'19</t>
   </si>
 </sst>
 </file>
@@ -21957,11 +21971,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A233" sqref="A233"/>
+      <pane ySplit="2" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -30017,7 +30031,7 @@
       <c r="H221" s="8"/>
       <c r="I221" s="12"/>
       <c r="J221" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K221" s="8"/>
       <c r="L221" s="8"/>
@@ -30155,7 +30169,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>224</v>
       </c>
@@ -30180,13 +30194,13 @@
       <c r="H226" s="8"/>
       <c r="I226" s="12"/>
       <c r="J226" s="11" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="K226" s="8"/>
       <c r="L226" s="8"/>
       <c r="M226" s="11"/>
     </row>
-    <row r="227" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>225</v>
       </c>
@@ -30211,13 +30225,13 @@
       <c r="H227" s="8"/>
       <c r="I227" s="12"/>
       <c r="J227" s="11" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="K227" s="8"/>
       <c r="L227" s="8"/>
       <c r="M227" s="11"/>
     </row>
-    <row r="228" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>226</v>
       </c>
@@ -30242,7 +30256,7 @@
       <c r="H228" s="8"/>
       <c r="I228" s="12"/>
       <c r="J228" s="11" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="8"/>
@@ -30273,7 +30287,7 @@
       <c r="H229" s="8"/>
       <c r="I229" s="12"/>
       <c r="J229" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K229" s="8"/>
       <c r="L229" s="8"/>
@@ -30304,7 +30318,7 @@
       <c r="H230" s="8"/>
       <c r="I230" s="12"/>
       <c r="J230" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K230" s="8"/>
       <c r="L230" s="8"/>
@@ -30335,7 +30349,7 @@
       <c r="H231" s="8"/>
       <c r="I231" s="12"/>
       <c r="J231" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="K231" s="8"/>
       <c r="L231" s="8"/>
@@ -30361,8 +30375,41 @@
         <v>523</v>
       </c>
       <c r="G232" s="45" t="s">
-        <v>1031</v>
-      </c>
+        <v>1030</v>
+      </c>
+      <c r="J232" s="11"/>
+      <c r="K232" s="8"/>
+      <c r="L232" s="8"/>
+      <c r="M232" s="11"/>
+    </row>
+    <row r="233" spans="1:13" ht="114" x14ac:dyDescent="0.25">
+      <c r="A233" s="8">
+        <v>231</v>
+      </c>
+      <c r="B233" s="9">
+        <v>43494</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E233" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="G233" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J233" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K233" s="8"/>
+      <c r="L233" s="8"/>
+      <c r="M233" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M231" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -30606,6 +30653,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -30812,56 +30894,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30884,9 +30920,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB56EFE9-0176-47E8-B717-DB101D4F2C72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61394E2E-3377-47CC-A068-92604F17E040}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12024,10 +12024,6 @@
     </r>
   </si>
   <si>
-    <t>The choice of language for a notification should be configurable by the Country. The Options provided would include: 
-a) Primary b) Primary and Secondary</t>
-  </si>
-  <si>
     <t>With respect to the length of TSP ID and User Agency ID, we will override the requirement stated in the trail mail with the requirement stated below:
 TSP ID Length: 2 digits
 AUA ID Length: 3 digits
@@ -12039,6 +12035,13 @@
   </si>
   <si>
     <t>Email dated 29Jan'19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The choice of language for a notification should be configurable by the Country. The Options provided would include: 
+a) Primary b) Primary and Secondary
+By default the config should be to send the notification in both languages.The Primary and Secondary language referred here is the language as configured by the admin
+The template for SMS notification and/or email notification should comprise of the content in both languages – Basically one SMS and one email notification for both languages.
+</t>
   </si>
 </sst>
 </file>
@@ -30169,7 +30172,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>224</v>
       </c>
@@ -30194,13 +30197,13 @@
       <c r="H226" s="8"/>
       <c r="I226" s="12"/>
       <c r="J226" s="11" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="K226" s="8"/>
       <c r="L226" s="8"/>
       <c r="M226" s="11"/>
     </row>
-    <row r="227" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>225</v>
       </c>
@@ -30225,13 +30228,13 @@
       <c r="H227" s="8"/>
       <c r="I227" s="12"/>
       <c r="J227" s="11" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="K227" s="8"/>
       <c r="L227" s="8"/>
       <c r="M227" s="11"/>
     </row>
-    <row r="228" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>226</v>
       </c>
@@ -30256,7 +30259,7 @@
       <c r="H228" s="8"/>
       <c r="I228" s="12"/>
       <c r="J228" s="11" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="8"/>
@@ -30393,7 +30396,7 @@
         <v>39</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E233" s="11" t="s">
         <v>1019</v>
@@ -30402,10 +30405,10 @@
         <v>776</v>
       </c>
       <c r="G233" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J233" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K233" s="8"/>
       <c r="L233" s="8"/>
@@ -30653,41 +30656,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -30894,10 +30862,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30920,20 +30934,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61394E2E-3377-47CC-A068-92604F17E040}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E8BDC53-F209-43B5-BF7B-203CE234B7C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="1053">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12030,10 +12030,6 @@
 This is based on India stats which is: 30 TSPs and 280 AUAs.</t>
   </si>
   <si>
-    <t>What is the requirement wrt length of TSP ID and AUA ID? We had earlier concluded to keep it 4 digits. However please note India stats we analyzed and confirm the requirement.
-30 TSPs and 280 AUAs</t>
-  </si>
-  <si>
     <t>Email dated 29Jan'19</t>
   </si>
   <si>
@@ -12042,6 +12038,231 @@
 By default the config should be to send the notification in both languages.The Primary and Secondary language referred here is the language as configured by the admin
 The template for SMS notification and/or email notification should comprise of the content in both languages – Basically one SMS and one email notification for both languages.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-registration:
+1. At any given point in time, MOSIP will display only two languages (Primary and Secondary) for selection by the individual
+2. These languages are driven by the admin Config 
+3. The user can choose one as primary and the other one automatically becomes the secondary. The admin sets the default primary but the user can override it, only to facilitate input of data and flow through the pre-reg. process in the preferred language
+4. Transliteration will therefore be supported for these two languages only. Data entered on the LHS will be transliterated and displayed on the RHS. Transliterated data can be updated on the RHS but will not reverse update the original data entered on the LHS
+5. MOSIP will subsequently store the data in the two languages only, along with the language code
+6. On subsequent login, if the individual has existing applications, and the individual selects the primary language to be contradictory to the language chosen during the input of data, MOSIP should consider the language choice made during current login and display the data accordingly (As data is in any case stored in both the languages)
+Registration Client:
+1. At any given point in time, MOSIP will display the demographic form in two languages only (Primary and Secondary)
+2. These languages are driven by the admin Config 
+3. Pre-reg. data download to Reg. Client: 
+a. Reg. Client will identify the data in the packet based on the language code and accordingly render it on the demographic form on the LHS or RHS (Basically, identify if the data is Primary or Secondary based on Language code associated and accordingly display it)  
+4. Transliteration will therefore be supported for these two languages only. Data entered on the LHS will be transliterated and displayed on the RHS. Transliterated data can be updated on the RHS but will not reverse update the original data entered on the LHS.
+</t>
+  </si>
+  <si>
+    <t>Email dated 30Jan'19</t>
+  </si>
+  <si>
+    <t>This needs further analysis.</t>
+  </si>
+  <si>
+    <t>Refer email dated 29Jan'19</t>
+  </si>
+  <si>
+    <t>Refer email dated 17Jan'19</t>
+  </si>
+  <si>
+    <t>Refer email dated 30Jan'19</t>
+  </si>
+  <si>
+    <t>Registration Client</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Multiple Language Support</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+What is the requirement in terms of multiple language support for Pre-registration and Registration Client?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Individual's Consent on Data Sharing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Is there a requirement to seek consent of the individual during pre-registration, as individual's data is being stored and further used for UIN generation?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Individual's Consent on Data Sharing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Is there a requirement for the RO to mark that the individual has provided his/her consent to store his/her data and further use for UIN generation/authentication?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>TSP ID and User Agency ID Length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+What is the requirement wrt length of TSP ID and AUA ID? We had earlier concluded to keep it 4 digits. However please note India stats we analyzed and confirm the requirement.
+30 TSPs and 280 AUAs</t>
+    </r>
+  </si>
+  <si>
+    <t>No. The system is not required to track if a new registration is for the first time or as a result of being notified to re-register. MOSIP should not maintain any link between these packets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Reg. Client is offline, on completion of a registration, notifications cannot be triggered to the individual. In this case, the notifications should be queued and triggered to the individual whenever the Client is online. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Notifications when Reg. Client is offline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. How should notifications be handled, when Reg. Client is offline?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trigger notification to additional recipients</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Is it ok to have this feature of manually entering additional mobile numbers/email IDs to trigger notification to additional recipients, considering the RO can misuse this feature/data being shared through notification?</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes. We should have this feature, as data being shared as part of notification essentially includes the name of the individual and RID only.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Flag to mark an individual as a “Re-registration Application”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. Is there a requirement to flag if a new registration is as a result of being notified to re-register due to failed packet processing?</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes. On initiating a new application, before entering the demographic data, MOSIP should provide an explicit option (Recommend a pop-up with check-box to give consent) to the individual to give his/her consent for storing/utilizing the data as appropriate. This consent should be sought for every applicant.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes. For every registration, MOSIP should provide an option for the RO to mark an individual's consent. This should be provided on the "Preview" page. The options provided shoud be: Yes/No. If the RO marks "No" for a specific registration, this should </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> inhibit issuance of UIN for that individual. Whether the consent is marked as Yes/No should not have any impact on issuance of UIN for that individual and and MOSIP should not execute any validations in this regard during packet processing.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -21974,11 +22195,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M233"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A234" sqref="A234"/>
+      <pane ySplit="2" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -29930,7 +30151,7 @@
         <v>975</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F218" s="11" t="s">
         <v>523</v>
@@ -29943,9 +30164,15 @@
       <c r="J218" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="K218" s="8"/>
-      <c r="L218" s="8"/>
-      <c r="M218" s="11"/>
+      <c r="K218" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L218" s="9">
+        <v>43482</v>
+      </c>
+      <c r="M218" s="11" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="219" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
@@ -29961,7 +30188,7 @@
         <v>975</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F219" s="11" t="s">
         <v>523</v>
@@ -29974,9 +30201,15 @@
       <c r="J219" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="K219" s="8"/>
-      <c r="L219" s="8"/>
-      <c r="M219" s="11"/>
+      <c r="K219" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L219" s="9">
+        <v>43482</v>
+      </c>
+      <c r="M219" s="11" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="220" spans="1:13" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
@@ -29992,7 +30225,7 @@
         <v>975</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F220" s="11" t="s">
         <v>523</v>
@@ -30005,9 +30238,15 @@
       <c r="J220" s="11" t="s">
         <v>1022</v>
       </c>
-      <c r="K220" s="8"/>
-      <c r="L220" s="8"/>
-      <c r="M220" s="11"/>
+      <c r="K220" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L220" s="9">
+        <v>43482</v>
+      </c>
+      <c r="M220" s="11" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="221" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
@@ -30023,7 +30262,7 @@
         <v>975</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F221" s="11" t="s">
         <v>523</v>
@@ -30036,9 +30275,15 @@
       <c r="J221" s="11" t="s">
         <v>1029</v>
       </c>
-      <c r="K221" s="8"/>
-      <c r="L221" s="8"/>
-      <c r="M221" s="11"/>
+      <c r="K221" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L221" s="9">
+        <v>43482</v>
+      </c>
+      <c r="M221" s="11" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="222" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
@@ -30054,7 +30299,7 @@
         <v>975</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F222" s="11" t="s">
         <v>523</v>
@@ -30067,9 +30312,15 @@
       <c r="J222" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="K222" s="8"/>
-      <c r="L222" s="8"/>
-      <c r="M222" s="11"/>
+      <c r="K222" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L222" s="9">
+        <v>43482</v>
+      </c>
+      <c r="M222" s="11" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="223" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
@@ -30085,7 +30336,7 @@
         <v>975</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F223" s="11" t="s">
         <v>523</v>
@@ -30098,9 +30349,15 @@
       <c r="J223" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="K223" s="8"/>
-      <c r="L223" s="8"/>
-      <c r="M223" s="11"/>
+      <c r="K223" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L223" s="9">
+        <v>43482</v>
+      </c>
+      <c r="M223" s="11" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="224" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
@@ -30116,7 +30373,7 @@
         <v>975</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F224" s="11" t="s">
         <v>523</v>
@@ -30129,9 +30386,15 @@
       <c r="J224" s="11" t="s">
         <v>1025</v>
       </c>
-      <c r="K224" s="8"/>
-      <c r="L224" s="8"/>
-      <c r="M224" s="11"/>
+      <c r="K224" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L224" s="9">
+        <v>43482</v>
+      </c>
+      <c r="M224" s="11" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="225" spans="1:13" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="63">
@@ -30186,7 +30449,7 @@
         <v>217</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F226" s="11" t="s">
         <v>779</v>
@@ -30197,11 +30460,17 @@
       <c r="H226" s="8"/>
       <c r="I226" s="12"/>
       <c r="J226" s="11" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K226" s="8"/>
-      <c r="L226" s="8"/>
-      <c r="M226" s="11"/>
+        <v>1033</v>
+      </c>
+      <c r="K226" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L226" s="9">
+        <v>43494</v>
+      </c>
+      <c r="M226" s="11" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="227" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
@@ -30217,7 +30486,7 @@
         <v>217</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F227" s="11" t="s">
         <v>1012</v>
@@ -30228,11 +30497,17 @@
       <c r="H227" s="8"/>
       <c r="I227" s="12"/>
       <c r="J227" s="11" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K227" s="8"/>
-      <c r="L227" s="8"/>
-      <c r="M227" s="11"/>
+        <v>1033</v>
+      </c>
+      <c r="K227" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L227" s="9">
+        <v>43494</v>
+      </c>
+      <c r="M227" s="11" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="228" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
@@ -30248,7 +30523,7 @@
         <v>217</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F228" s="11" t="s">
         <v>523</v>
@@ -30259,11 +30534,17 @@
       <c r="H228" s="8"/>
       <c r="I228" s="12"/>
       <c r="J228" s="11" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K228" s="8"/>
-      <c r="L228" s="8"/>
-      <c r="M228" s="11"/>
+        <v>1033</v>
+      </c>
+      <c r="K228" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L228" s="9">
+        <v>43494</v>
+      </c>
+      <c r="M228" s="11" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="229" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
@@ -30279,7 +30560,7 @@
         <v>986</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F229" s="11" t="s">
         <v>654</v>
@@ -30292,9 +30573,15 @@
       <c r="J229" s="11" t="s">
         <v>1026</v>
       </c>
-      <c r="K229" s="8"/>
-      <c r="L229" s="8"/>
-      <c r="M229" s="11"/>
+      <c r="K229" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L229" s="9">
+        <v>43482</v>
+      </c>
+      <c r="M229" s="11" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="230" spans="1:13" ht="228" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
@@ -30310,7 +30597,7 @@
         <v>986</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>654</v>
@@ -30323,9 +30610,15 @@
       <c r="J230" s="11" t="s">
         <v>1027</v>
       </c>
-      <c r="K230" s="8"/>
-      <c r="L230" s="8"/>
-      <c r="M230" s="11"/>
+      <c r="K230" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L230" s="9">
+        <v>43482</v>
+      </c>
+      <c r="M230" s="11" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="231" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
@@ -30380,7 +30673,9 @@
       <c r="G232" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="J232" s="11"/>
+      <c r="J232" s="11" t="s">
+        <v>1036</v>
+      </c>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
       <c r="M232" s="11"/>
@@ -30396,23 +30691,237 @@
         <v>39</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>776</v>
       </c>
       <c r="G233" s="11" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="J233" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="K233" s="8"/>
-      <c r="L233" s="8"/>
+      <c r="K233" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L233" s="9">
+        <v>43494</v>
+      </c>
       <c r="M233" s="11"/>
+    </row>
+    <row r="234" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="8">
+        <v>232</v>
+      </c>
+      <c r="B234" s="9">
+        <v>43495</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="G234" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J234" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K234" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L234" s="9">
+        <v>43495</v>
+      </c>
+      <c r="M234" s="11" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="8">
+        <v>233</v>
+      </c>
+      <c r="B235" s="9">
+        <v>43495</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F235" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G235" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J235" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K235" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L235" s="9">
+        <v>43495</v>
+      </c>
+      <c r="M235" s="11" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A236" s="8">
+        <v>234</v>
+      </c>
+      <c r="B236" s="9">
+        <v>43495</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F236" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G236" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J236" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K236" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L236" s="9">
+        <v>43495</v>
+      </c>
+      <c r="M236" s="11" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+      <c r="A237" s="8">
+        <v>235</v>
+      </c>
+      <c r="B237" s="9">
+        <v>43495</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D237" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F237" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G237" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J237" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K237" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L237" s="9">
+        <v>43495</v>
+      </c>
+      <c r="M237" s="11" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+      <c r="A238" s="8">
+        <v>236</v>
+      </c>
+      <c r="B238" s="9">
+        <v>43495</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D238" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G238" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J238" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K238" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L238" s="9">
+        <v>43495</v>
+      </c>
+      <c r="M238" s="11" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A239" s="8">
+        <v>237</v>
+      </c>
+      <c r="B239" s="9">
+        <v>43495</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F239" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G239" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J239" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K239" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L239" s="9">
+        <v>43495</v>
+      </c>
+      <c r="M239" s="11" t="s">
+        <v>1039</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:M231" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -30656,6 +31165,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -30862,56 +31406,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30934,9 +31432,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51224C98-91CF-4155-B8C3-9339A9B6AAE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0F1D89-E3A5-45F1-8A73-4BC8DAF376B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8530" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_QueryLog_Internal" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="1091">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12597,6 +12597,34 @@
 - UIN Deactivation or Reactivation list will come to from, a Death Registry or Fraud Agency or Admin Portal with Reason for De-Activation or Re-Activation.
 - MOSIP should be able to have a Tracability of the Request from where it has come from and what is the reason of deactivation.
 - MOSIP should be able to deactivate or reactivate the UIN.</t>
+  </si>
+  <si>
+    <t>Discussion on Resident Services on 4 Mar 19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Retrieve Lost UIN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. What documents should be uploaded for lost UIN? Should it follow the same configuration as a new registration?
+2. Should we capture all biometrics or any one biometric?
+3. Should we mark biometric exceptions and capture exception photo?
+4. Is face photo mandatory?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -13461,25 +13489,25 @@
       <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.36328125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="57" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1"/>
-    <col min="13" max="13" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -13497,7 +13525,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -13541,7 +13569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -13573,7 +13601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="126" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -13615,7 +13643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -13655,7 +13683,7 @@
       </c>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -13695,7 +13723,7 @@
       </c>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -13737,7 +13765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -13777,7 +13805,7 @@
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -13819,7 +13847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -13859,7 +13887,7 @@
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -13899,7 +13927,7 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -13939,7 +13967,7 @@
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -13979,7 +14007,7 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -14017,7 +14045,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -14055,7 +14083,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -14093,7 +14121,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -14131,7 +14159,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -14169,7 +14197,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -14205,7 +14233,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -14243,7 +14271,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -14279,7 +14307,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -14317,7 +14345,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -14355,7 +14383,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -14393,7 +14421,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -14431,7 +14459,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -14469,7 +14497,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -14509,7 +14537,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -14549,7 +14577,7 @@
       </c>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -14587,7 +14615,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -14627,7 +14655,7 @@
       </c>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -14663,7 +14691,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -14701,7 +14729,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -14739,7 +14767,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="1:14" ht="168" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>31</v>
       </c>
@@ -14779,7 +14807,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>32</v>
       </c>
@@ -14817,7 +14845,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>33</v>
       </c>
@@ -14855,7 +14883,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>34</v>
       </c>
@@ -14893,7 +14921,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>35</v>
       </c>
@@ -14933,7 +14961,7 @@
       </c>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>36</v>
       </c>
@@ -14973,7 +15001,7 @@
       </c>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>37</v>
       </c>
@@ -15013,7 +15041,7 @@
       </c>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>38</v>
       </c>
@@ -15053,7 +15081,7 @@
       </c>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>39</v>
       </c>
@@ -15093,7 +15121,7 @@
       </c>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>40</v>
       </c>
@@ -15133,7 +15161,7 @@
       </c>
       <c r="N43" s="11"/>
     </row>
-    <row r="44" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>41</v>
       </c>
@@ -15173,7 +15201,7 @@
       </c>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>42</v>
       </c>
@@ -15213,7 +15241,7 @@
       </c>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>43</v>
       </c>
@@ -15253,7 +15281,7 @@
       </c>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>44</v>
       </c>
@@ -15293,7 +15321,7 @@
       </c>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:14" ht="168" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>45</v>
       </c>
@@ -15333,7 +15361,7 @@
       </c>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>46</v>
       </c>
@@ -15373,7 +15401,7 @@
       </c>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>47</v>
       </c>
@@ -15413,7 +15441,7 @@
       </c>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>48</v>
       </c>
@@ -15453,7 +15481,7 @@
       </c>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>49</v>
       </c>
@@ -15493,7 +15521,7 @@
       </c>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>50</v>
       </c>
@@ -15531,7 +15559,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>51</v>
       </c>
@@ -15571,7 +15599,7 @@
       </c>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>52</v>
       </c>
@@ -15609,7 +15637,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>53</v>
       </c>
@@ -15647,7 +15675,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>54</v>
       </c>
@@ -15685,7 +15713,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>55</v>
       </c>
@@ -15721,7 +15749,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="11"/>
     </row>
-    <row r="59" spans="1:14" ht="168" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>56</v>
       </c>
@@ -15757,7 +15785,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="11"/>
     </row>
-    <row r="60" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>57</v>
       </c>
@@ -15797,7 +15825,7 @@
       </c>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>58</v>
       </c>
@@ -15837,7 +15865,7 @@
       </c>
       <c r="N61" s="11"/>
     </row>
-    <row r="62" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>59</v>
       </c>
@@ -15877,7 +15905,7 @@
       </c>
       <c r="N62" s="11"/>
     </row>
-    <row r="63" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>60</v>
       </c>
@@ -15917,7 +15945,7 @@
       </c>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>61</v>
       </c>
@@ -15957,7 +15985,7 @@
       </c>
       <c r="N64" s="11"/>
     </row>
-    <row r="65" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>62</v>
       </c>
@@ -15997,7 +16025,7 @@
       </c>
       <c r="N65" s="11"/>
     </row>
-    <row r="66" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>63</v>
       </c>
@@ -16037,7 +16065,7 @@
       </c>
       <c r="N66" s="11"/>
     </row>
-    <row r="67" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>64</v>
       </c>
@@ -16077,7 +16105,7 @@
       </c>
       <c r="N67" s="11"/>
     </row>
-    <row r="68" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>65</v>
       </c>
@@ -16117,7 +16145,7 @@
       </c>
       <c r="N68" s="11"/>
     </row>
-    <row r="69" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>66</v>
       </c>
@@ -16157,7 +16185,7 @@
       </c>
       <c r="N69" s="11"/>
     </row>
-    <row r="70" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>67</v>
       </c>
@@ -16197,7 +16225,7 @@
       </c>
       <c r="N70" s="11"/>
     </row>
-    <row r="71" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>68</v>
       </c>
@@ -16237,7 +16265,7 @@
       </c>
       <c r="N71" s="11"/>
     </row>
-    <row r="72" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>69</v>
       </c>
@@ -16277,7 +16305,7 @@
       </c>
       <c r="N72" s="11"/>
     </row>
-    <row r="73" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>70</v>
       </c>
@@ -16317,7 +16345,7 @@
       </c>
       <c r="N73" s="11"/>
     </row>
-    <row r="74" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>71</v>
       </c>
@@ -16357,7 +16385,7 @@
       </c>
       <c r="N74" s="11"/>
     </row>
-    <row r="75" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>72</v>
       </c>
@@ -16397,7 +16425,7 @@
       </c>
       <c r="N75" s="11"/>
     </row>
-    <row r="76" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>73</v>
       </c>
@@ -16435,7 +16463,7 @@
       </c>
       <c r="N76" s="11"/>
     </row>
-    <row r="77" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>74</v>
       </c>
@@ -16475,7 +16503,7 @@
       </c>
       <c r="N77" s="11"/>
     </row>
-    <row r="78" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>75</v>
       </c>
@@ -16515,7 +16543,7 @@
       </c>
       <c r="N78" s="11"/>
     </row>
-    <row r="79" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>76</v>
       </c>
@@ -16555,7 +16583,7 @@
       </c>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>77</v>
       </c>
@@ -16595,7 +16623,7 @@
       </c>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>78</v>
       </c>
@@ -16635,7 +16663,7 @@
       </c>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>79</v>
       </c>
@@ -16675,7 +16703,7 @@
       </c>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>80</v>
       </c>
@@ -16715,7 +16743,7 @@
       </c>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>81</v>
       </c>
@@ -16755,7 +16783,7 @@
       </c>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>82</v>
       </c>
@@ -16795,7 +16823,7 @@
       </c>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>83</v>
       </c>
@@ -16835,7 +16863,7 @@
       </c>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>84</v>
       </c>
@@ -16875,7 +16903,7 @@
       </c>
       <c r="N87" s="11"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>85</v>
       </c>
@@ -16915,7 +16943,7 @@
       </c>
       <c r="N88" s="11"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>86</v>
       </c>
@@ -16955,7 +16983,7 @@
       </c>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>87</v>
       </c>
@@ -16995,7 +17023,7 @@
       </c>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>88</v>
       </c>
@@ -17035,7 +17063,7 @@
       </c>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>89</v>
       </c>
@@ -17075,7 +17103,7 @@
       </c>
       <c r="N92" s="11"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>90</v>
       </c>
@@ -17115,7 +17143,7 @@
       </c>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>91</v>
       </c>
@@ -17155,7 +17183,7 @@
       </c>
       <c r="N94" s="11"/>
     </row>
-    <row r="95" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>92</v>
       </c>
@@ -17195,7 +17223,7 @@
       </c>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>93</v>
       </c>
@@ -17235,7 +17263,7 @@
       </c>
       <c r="N96" s="11"/>
     </row>
-    <row r="97" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>94</v>
       </c>
@@ -17275,7 +17303,7 @@
       </c>
       <c r="N97" s="11"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>95</v>
       </c>
@@ -17315,7 +17343,7 @@
       </c>
       <c r="N98" s="11"/>
     </row>
-    <row r="99" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>96</v>
       </c>
@@ -17355,7 +17383,7 @@
       </c>
       <c r="N99" s="11"/>
     </row>
-    <row r="100" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>97</v>
       </c>
@@ -17395,7 +17423,7 @@
       </c>
       <c r="N100" s="11"/>
     </row>
-    <row r="101" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>98</v>
       </c>
@@ -17435,7 +17463,7 @@
       </c>
       <c r="N101" s="11"/>
     </row>
-    <row r="102" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>99</v>
       </c>
@@ -17475,7 +17503,7 @@
       </c>
       <c r="N102" s="11"/>
     </row>
-    <row r="103" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>100</v>
       </c>
@@ -17515,7 +17543,7 @@
       </c>
       <c r="N103" s="11"/>
     </row>
-    <row r="104" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>101</v>
       </c>
@@ -17555,7 +17583,7 @@
       </c>
       <c r="N104" s="11"/>
     </row>
-    <row r="105" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>102</v>
       </c>
@@ -17595,7 +17623,7 @@
       </c>
       <c r="N105" s="11"/>
     </row>
-    <row r="106" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>103</v>
       </c>
@@ -17635,7 +17663,7 @@
       </c>
       <c r="N106" s="11"/>
     </row>
-    <row r="107" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>104</v>
       </c>
@@ -17675,7 +17703,7 @@
       </c>
       <c r="N107" s="11"/>
     </row>
-    <row r="108" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>105</v>
       </c>
@@ -17715,7 +17743,7 @@
       </c>
       <c r="N108" s="11"/>
     </row>
-    <row r="109" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>106</v>
       </c>
@@ -17755,7 +17783,7 @@
       </c>
       <c r="N109" s="11"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>107</v>
       </c>
@@ -17795,7 +17823,7 @@
       </c>
       <c r="N110" s="11"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>108</v>
       </c>
@@ -17835,7 +17863,7 @@
       </c>
       <c r="N111" s="11"/>
     </row>
-    <row r="112" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>109</v>
       </c>
@@ -17875,7 +17903,7 @@
       </c>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>110</v>
       </c>
@@ -17915,7 +17943,7 @@
       </c>
       <c r="N113" s="11"/>
     </row>
-    <row r="114" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>111</v>
       </c>
@@ -17955,7 +17983,7 @@
       </c>
       <c r="N114" s="11"/>
     </row>
-    <row r="115" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>112</v>
       </c>
@@ -17995,7 +18023,7 @@
       </c>
       <c r="N115" s="11"/>
     </row>
-    <row r="116" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>113</v>
       </c>
@@ -18035,7 +18063,7 @@
       </c>
       <c r="N116" s="11"/>
     </row>
-    <row r="117" spans="1:14" ht="126" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>114</v>
       </c>
@@ -18075,7 +18103,7 @@
       </c>
       <c r="N117" s="11"/>
     </row>
-    <row r="118" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>115</v>
       </c>
@@ -18115,7 +18143,7 @@
       </c>
       <c r="N118" s="11"/>
     </row>
-    <row r="119" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>116</v>
       </c>
@@ -18155,7 +18183,7 @@
       </c>
       <c r="N119" s="11"/>
     </row>
-    <row r="120" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>117</v>
       </c>
@@ -18195,7 +18223,7 @@
       </c>
       <c r="N120" s="11"/>
     </row>
-    <row r="121" spans="1:14" ht="154" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>118</v>
       </c>
@@ -18233,7 +18261,7 @@
       </c>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>119</v>
       </c>
@@ -18273,7 +18301,7 @@
       </c>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>120</v>
       </c>
@@ -18313,7 +18341,7 @@
       </c>
       <c r="N123" s="11"/>
     </row>
-    <row r="124" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>121</v>
       </c>
@@ -18353,7 +18381,7 @@
       </c>
       <c r="N124" s="11"/>
     </row>
-    <row r="125" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>122</v>
       </c>
@@ -18393,7 +18421,7 @@
       </c>
       <c r="N125" s="11"/>
     </row>
-    <row r="126" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>123</v>
       </c>
@@ -18433,7 +18461,7 @@
       </c>
       <c r="N126" s="11"/>
     </row>
-    <row r="127" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>124</v>
       </c>
@@ -18473,7 +18501,7 @@
       </c>
       <c r="N127" s="11"/>
     </row>
-    <row r="128" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>125</v>
       </c>
@@ -18513,7 +18541,7 @@
       </c>
       <c r="N128" s="11"/>
     </row>
-    <row r="129" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>126</v>
       </c>
@@ -18553,7 +18581,7 @@
       </c>
       <c r="N129" s="11"/>
     </row>
-    <row r="130" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>127</v>
       </c>
@@ -18593,7 +18621,7 @@
       </c>
       <c r="N130" s="11"/>
     </row>
-    <row r="131" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>128</v>
       </c>
@@ -18633,7 +18661,7 @@
       </c>
       <c r="N131" s="11"/>
     </row>
-    <row r="132" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>129</v>
       </c>
@@ -18673,7 +18701,7 @@
       </c>
       <c r="N132" s="11"/>
     </row>
-    <row r="133" spans="1:14" ht="154" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>130</v>
       </c>
@@ -18713,7 +18741,7 @@
       </c>
       <c r="N133" s="11"/>
     </row>
-    <row r="134" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>131</v>
       </c>
@@ -18753,7 +18781,7 @@
       </c>
       <c r="N134" s="11"/>
     </row>
-    <row r="135" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>132</v>
       </c>
@@ -18793,7 +18821,7 @@
       </c>
       <c r="N135" s="11"/>
     </row>
-    <row r="136" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>133</v>
       </c>
@@ -18833,7 +18861,7 @@
       </c>
       <c r="N136" s="11"/>
     </row>
-    <row r="137" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>134</v>
       </c>
@@ -18873,7 +18901,7 @@
       </c>
       <c r="N137" s="11"/>
     </row>
-    <row r="138" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>135</v>
       </c>
@@ -18913,7 +18941,7 @@
       </c>
       <c r="N138" s="11"/>
     </row>
-    <row r="139" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>136</v>
       </c>
@@ -18953,7 +18981,7 @@
       </c>
       <c r="N139" s="11"/>
     </row>
-    <row r="140" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>137</v>
       </c>
@@ -18993,7 +19021,7 @@
       </c>
       <c r="N140" s="11"/>
     </row>
-    <row r="141" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>138</v>
       </c>
@@ -19033,7 +19061,7 @@
       </c>
       <c r="N141" s="11"/>
     </row>
-    <row r="142" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>139</v>
       </c>
@@ -19073,7 +19101,7 @@
       </c>
       <c r="N142" s="11"/>
     </row>
-    <row r="143" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>140</v>
       </c>
@@ -19113,7 +19141,7 @@
       </c>
       <c r="N143" s="11"/>
     </row>
-    <row r="144" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>141</v>
       </c>
@@ -19153,7 +19181,7 @@
       </c>
       <c r="N144" s="11"/>
     </row>
-    <row r="145" spans="1:14" ht="140" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" ht="138" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>142</v>
       </c>
@@ -19193,7 +19221,7 @@
       </c>
       <c r="N145" s="11"/>
     </row>
-    <row r="146" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>143</v>
       </c>
@@ -19233,7 +19261,7 @@
       </c>
       <c r="N146" s="11"/>
     </row>
-    <row r="147" spans="1:14" ht="140" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" ht="138" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>144</v>
       </c>
@@ -19273,7 +19301,7 @@
       </c>
       <c r="N147" s="11"/>
     </row>
-    <row r="148" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>145</v>
       </c>
@@ -19313,7 +19341,7 @@
       </c>
       <c r="N148" s="11"/>
     </row>
-    <row r="149" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>146</v>
       </c>
@@ -19353,7 +19381,7 @@
       </c>
       <c r="N149" s="11"/>
     </row>
-    <row r="150" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>147</v>
       </c>
@@ -19393,7 +19421,7 @@
       </c>
       <c r="N150" s="11"/>
     </row>
-    <row r="151" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>148</v>
       </c>
@@ -19433,7 +19461,7 @@
       </c>
       <c r="N151" s="11"/>
     </row>
-    <row r="152" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>149</v>
       </c>
@@ -19473,7 +19501,7 @@
       </c>
       <c r="N152" s="11"/>
     </row>
-    <row r="153" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>150</v>
       </c>
@@ -19513,7 +19541,7 @@
       </c>
       <c r="N153" s="11"/>
     </row>
-    <row r="154" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>151</v>
       </c>
@@ -19553,7 +19581,7 @@
       </c>
       <c r="N154" s="11"/>
     </row>
-    <row r="155" spans="1:14" ht="126" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>152</v>
       </c>
@@ -19587,7 +19615,7 @@
       <c r="M155" s="9"/>
       <c r="N155" s="11"/>
     </row>
-    <row r="156" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>153</v>
       </c>
@@ -19621,7 +19649,7 @@
       <c r="M156" s="9"/>
       <c r="N156" s="11"/>
     </row>
-    <row r="157" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>154</v>
       </c>
@@ -19655,7 +19683,7 @@
       <c r="M157" s="9"/>
       <c r="N157" s="11"/>
     </row>
-    <row r="158" spans="1:14" ht="126" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" ht="138" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>155</v>
       </c>
@@ -19689,7 +19717,7 @@
       <c r="M158" s="9"/>
       <c r="N158" s="11"/>
     </row>
-    <row r="159" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>156</v>
       </c>
@@ -19723,7 +19751,7 @@
       <c r="M159" s="9"/>
       <c r="N159" s="11"/>
     </row>
-    <row r="160" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>157</v>
       </c>
@@ -19757,7 +19785,7 @@
       <c r="M160" s="9"/>
       <c r="N160" s="11"/>
     </row>
-    <row r="161" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>158</v>
       </c>
@@ -19791,7 +19819,7 @@
       <c r="M161" s="9"/>
       <c r="N161" s="11"/>
     </row>
-    <row r="162" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>159</v>
       </c>
@@ -19825,7 +19853,7 @@
       <c r="M162" s="9"/>
       <c r="N162" s="11"/>
     </row>
-    <row r="163" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>160</v>
       </c>
@@ -19863,7 +19891,7 @@
       <c r="M163" s="9"/>
       <c r="N163" s="11"/>
     </row>
-    <row r="164" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>161</v>
       </c>
@@ -19901,7 +19929,7 @@
       <c r="M164" s="9"/>
       <c r="N164" s="11"/>
     </row>
-    <row r="165" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>162</v>
       </c>
@@ -19935,7 +19963,7 @@
       <c r="M165" s="9"/>
       <c r="N165" s="11"/>
     </row>
-    <row r="166" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>163</v>
       </c>
@@ -19969,7 +19997,7 @@
       <c r="M166" s="9"/>
       <c r="N166" s="11"/>
     </row>
-    <row r="167" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>164</v>
       </c>
@@ -20003,7 +20031,7 @@
       <c r="M167" s="9"/>
       <c r="N167" s="11"/>
     </row>
-    <row r="168" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>165</v>
       </c>
@@ -20037,7 +20065,7 @@
       <c r="M168" s="9"/>
       <c r="N168" s="11"/>
     </row>
-    <row r="169" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>166</v>
       </c>
@@ -20071,7 +20099,7 @@
       <c r="M169" s="9"/>
       <c r="N169" s="11"/>
     </row>
-    <row r="170" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>167</v>
       </c>
@@ -20105,7 +20133,7 @@
       <c r="M170" s="9"/>
       <c r="N170" s="11"/>
     </row>
-    <row r="171" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>168</v>
       </c>
@@ -20139,7 +20167,7 @@
       <c r="M171" s="9"/>
       <c r="N171" s="11"/>
     </row>
-    <row r="172" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>169</v>
       </c>
@@ -20173,7 +20201,7 @@
       <c r="M172" s="9"/>
       <c r="N172" s="11"/>
     </row>
-    <row r="173" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>170</v>
       </c>
@@ -20207,7 +20235,7 @@
       <c r="M173" s="9"/>
       <c r="N173" s="11"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>171</v>
       </c>
@@ -20241,7 +20269,7 @@
       <c r="M174" s="9"/>
       <c r="N174" s="11"/>
     </row>
-    <row r="175" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>172</v>
       </c>
@@ -20279,7 +20307,7 @@
       <c r="M175" s="9"/>
       <c r="N175" s="11"/>
     </row>
-    <row r="176" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>173</v>
       </c>
@@ -20313,7 +20341,7 @@
       <c r="M176" s="9"/>
       <c r="N176" s="11"/>
     </row>
-    <row r="177" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>174</v>
       </c>
@@ -20347,7 +20375,7 @@
       <c r="M177" s="9"/>
       <c r="N177" s="11"/>
     </row>
-    <row r="178" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>175</v>
       </c>
@@ -20381,7 +20409,7 @@
       <c r="M178" s="9"/>
       <c r="N178" s="11"/>
     </row>
-    <row r="179" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>176</v>
       </c>
@@ -20415,7 +20443,7 @@
       <c r="M179" s="9"/>
       <c r="N179" s="11"/>
     </row>
-    <row r="180" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>177</v>
       </c>
@@ -20449,7 +20477,7 @@
       <c r="M180" s="9"/>
       <c r="N180" s="11"/>
     </row>
-    <row r="181" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>178</v>
       </c>
@@ -20483,7 +20511,7 @@
       <c r="M181" s="9"/>
       <c r="N181" s="11"/>
     </row>
-    <row r="182" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>179</v>
       </c>
@@ -20521,7 +20549,7 @@
       <c r="M182" s="9"/>
       <c r="N182" s="11"/>
     </row>
-    <row r="183" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>180</v>
       </c>
@@ -20555,7 +20583,7 @@
       <c r="M183" s="9"/>
       <c r="N183" s="11"/>
     </row>
-    <row r="184" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>181</v>
       </c>
@@ -20589,7 +20617,7 @@
       <c r="M184" s="9"/>
       <c r="N184" s="11"/>
     </row>
-    <row r="185" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>182</v>
       </c>
@@ -20623,7 +20651,7 @@
       <c r="M185" s="9"/>
       <c r="N185" s="11"/>
     </row>
-    <row r="186" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>183</v>
       </c>
@@ -20659,7 +20687,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>184</v>
       </c>
@@ -20695,7 +20723,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>185</v>
       </c>
@@ -20727,7 +20755,7 @@
       <c r="M188" s="9"/>
       <c r="N188" s="11"/>
     </row>
-    <row r="189" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>186</v>
       </c>
@@ -20759,7 +20787,7 @@
       <c r="M189" s="9"/>
       <c r="N189" s="11"/>
     </row>
-    <row r="190" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>187</v>
       </c>
@@ -20791,7 +20819,7 @@
       <c r="M190" s="9"/>
       <c r="N190" s="11"/>
     </row>
-    <row r="191" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>188</v>
       </c>
@@ -20823,7 +20851,7 @@
       <c r="M191" s="9"/>
       <c r="N191" s="11"/>
     </row>
-    <row r="192" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>189</v>
       </c>
@@ -20855,7 +20883,7 @@
       <c r="M192" s="9"/>
       <c r="N192" s="11"/>
     </row>
-    <row r="193" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>190</v>
       </c>
@@ -20887,7 +20915,7 @@
       <c r="M193" s="9"/>
       <c r="N193" s="11"/>
     </row>
-    <row r="194" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>191</v>
       </c>
@@ -20919,7 +20947,7 @@
       <c r="M194" s="9"/>
       <c r="N194" s="11"/>
     </row>
-    <row r="195" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>192</v>
       </c>
@@ -20951,7 +20979,7 @@
       <c r="M195" s="9"/>
       <c r="N195" s="11"/>
     </row>
-    <row r="196" spans="1:16" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>193</v>
       </c>
@@ -20983,7 +21011,7 @@
       <c r="M196" s="9"/>
       <c r="N196" s="11"/>
     </row>
-    <row r="197" spans="1:16" s="36" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" s="36" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A197" s="36">
         <v>194</v>
       </c>
@@ -21004,7 +21032,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="36">
         <v>195</v>
       </c>
@@ -21044,7 +21072,7 @@
       <c r="O198" s="37"/>
       <c r="P198" s="36"/>
     </row>
-    <row r="199" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="36">
         <v>196</v>
       </c>
@@ -21084,7 +21112,7 @@
       <c r="O199" s="37"/>
       <c r="P199" s="36"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="36"/>
       <c r="B200" s="37"/>
       <c r="C200" s="36"/>
@@ -21102,7 +21130,7 @@
       <c r="O200" s="37"/>
       <c r="P200" s="36"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="36"/>
       <c r="B201" s="37"/>
       <c r="C201" s="36"/>
@@ -21120,7 +21148,7 @@
       <c r="O201" s="37"/>
       <c r="P201" s="36"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="36"/>
       <c r="B202" s="37"/>
       <c r="C202" s="36"/>
@@ -21138,7 +21166,7 @@
       <c r="O202" s="37"/>
       <c r="P202" s="36"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="36"/>
       <c r="B203" s="37"/>
       <c r="C203" s="36"/>
@@ -21156,7 +21184,7 @@
       <c r="O203" s="37"/>
       <c r="P203" s="36"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="36"/>
       <c r="B204" s="37"/>
       <c r="C204" s="36"/>
@@ -21174,7 +21202,7 @@
       <c r="O204" s="37"/>
       <c r="P204" s="36"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="36"/>
       <c r="B205" s="37"/>
       <c r="C205" s="36"/>
@@ -21192,7 +21220,7 @@
       <c r="O205" s="37"/>
       <c r="P205" s="36"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="36"/>
       <c r="B206" s="37"/>
       <c r="C206" s="36"/>
@@ -21210,7 +21238,7 @@
       <c r="O206" s="37"/>
       <c r="P206" s="36"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="36"/>
       <c r="B207" s="37"/>
       <c r="C207" s="36"/>
@@ -21228,7 +21256,7 @@
       <c r="O207" s="37"/>
       <c r="P207" s="36"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="36"/>
       <c r="B208" s="37"/>
       <c r="C208" s="36"/>
@@ -21246,7 +21274,7 @@
       <c r="O208" s="37"/>
       <c r="P208" s="36"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="36"/>
       <c r="B209" s="37"/>
       <c r="C209" s="36"/>
@@ -21264,7 +21292,7 @@
       <c r="O209" s="37"/>
       <c r="P209" s="36"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="36"/>
       <c r="B210" s="37"/>
       <c r="C210" s="36"/>
@@ -21282,7 +21310,7 @@
       <c r="O210" s="37"/>
       <c r="P210" s="36"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="36"/>
       <c r="B211" s="37"/>
       <c r="C211" s="36"/>
@@ -21300,7 +21328,7 @@
       <c r="O211" s="37"/>
       <c r="P211" s="36"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="36"/>
       <c r="B212" s="37"/>
       <c r="C212" s="36"/>
@@ -21318,7 +21346,7 @@
       <c r="O212" s="37"/>
       <c r="P212" s="36"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="36"/>
       <c r="B213" s="37"/>
       <c r="C213" s="36"/>
@@ -21336,7 +21364,7 @@
       <c r="O213" s="37"/>
       <c r="P213" s="36"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="36"/>
       <c r="B214" s="37"/>
       <c r="C214" s="36"/>
@@ -21354,7 +21382,7 @@
       <c r="O214" s="37"/>
       <c r="P214" s="36"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="36"/>
       <c r="B215" s="37"/>
       <c r="C215" s="36"/>
@@ -21372,7 +21400,7 @@
       <c r="O215" s="37"/>
       <c r="P215" s="36"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="36"/>
       <c r="B216" s="37"/>
       <c r="C216" s="36"/>
@@ -21390,7 +21418,7 @@
       <c r="O216" s="37"/>
       <c r="P216" s="36"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="36"/>
       <c r="B217" s="37"/>
       <c r="C217" s="36"/>
@@ -21408,7 +21436,7 @@
       <c r="O217" s="37"/>
       <c r="P217" s="36"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="36"/>
       <c r="B218" s="37"/>
       <c r="C218" s="36"/>
@@ -21426,7 +21454,7 @@
       <c r="O218" s="37"/>
       <c r="P218" s="36"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="36"/>
       <c r="B219" s="37"/>
       <c r="C219" s="36"/>
@@ -21444,7 +21472,7 @@
       <c r="O219" s="37"/>
       <c r="P219" s="36"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="36"/>
       <c r="B220" s="37"/>
       <c r="C220" s="36"/>
@@ -21462,7 +21490,7 @@
       <c r="O220" s="37"/>
       <c r="P220" s="36"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="36"/>
       <c r="B221" s="37"/>
       <c r="C221" s="36"/>
@@ -21480,7 +21508,7 @@
       <c r="O221" s="37"/>
       <c r="P221" s="36"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="36"/>
       <c r="B222" s="37"/>
       <c r="C222" s="36"/>
@@ -21498,7 +21526,7 @@
       <c r="O222" s="37"/>
       <c r="P222" s="36"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="36"/>
       <c r="B223" s="37"/>
       <c r="C223" s="36"/>
@@ -21516,7 +21544,7 @@
       <c r="O223" s="37"/>
       <c r="P223" s="36"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="36"/>
       <c r="B224" s="37"/>
       <c r="C224" s="36"/>
@@ -21534,7 +21562,7 @@
       <c r="O224" s="37"/>
       <c r="P224" s="36"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="36"/>
       <c r="B225" s="37"/>
       <c r="C225" s="36"/>
@@ -21552,7 +21580,7 @@
       <c r="O225" s="37"/>
       <c r="P225" s="36"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="36"/>
       <c r="B226" s="37"/>
       <c r="C226" s="36"/>
@@ -21570,7 +21598,7 @@
       <c r="O226" s="37"/>
       <c r="P226" s="36"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="36"/>
       <c r="B227" s="37"/>
       <c r="C227" s="36"/>
@@ -21588,7 +21616,7 @@
       <c r="O227" s="37"/>
       <c r="P227" s="36"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="36"/>
       <c r="B228" s="37"/>
       <c r="C228" s="36"/>
@@ -21606,7 +21634,7 @@
       <c r="O228" s="37"/>
       <c r="P228" s="36"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="36"/>
       <c r="B229" s="37"/>
       <c r="C229" s="36"/>
@@ -21624,7 +21652,7 @@
       <c r="O229" s="37"/>
       <c r="P229" s="36"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="36"/>
       <c r="B230" s="37"/>
       <c r="C230" s="36"/>
@@ -21642,7 +21670,7 @@
       <c r="O230" s="37"/>
       <c r="P230" s="36"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="36"/>
       <c r="B231" s="37"/>
       <c r="C231" s="36"/>
@@ -21660,7 +21688,7 @@
       <c r="O231" s="37"/>
       <c r="P231" s="36"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="36"/>
       <c r="B232" s="37"/>
       <c r="C232" s="36"/>
@@ -21678,7 +21706,7 @@
       <c r="O232" s="37"/>
       <c r="P232" s="36"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" s="36"/>
       <c r="B233" s="37"/>
       <c r="C233" s="36"/>
@@ -21696,7 +21724,7 @@
       <c r="O233" s="37"/>
       <c r="P233" s="36"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="36"/>
       <c r="B234" s="37"/>
       <c r="C234" s="36"/>
@@ -21714,7 +21742,7 @@
       <c r="O234" s="37"/>
       <c r="P234" s="36"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" s="36"/>
       <c r="B235" s="37"/>
       <c r="C235" s="36"/>
@@ -21732,7 +21760,7 @@
       <c r="O235" s="37"/>
       <c r="P235" s="36"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="36"/>
       <c r="B236" s="37"/>
       <c r="C236" s="36"/>
@@ -21750,7 +21778,7 @@
       <c r="O236" s="37"/>
       <c r="P236" s="36"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="36"/>
       <c r="B237" s="37"/>
       <c r="C237" s="36"/>
@@ -21768,7 +21796,7 @@
       <c r="O237" s="37"/>
       <c r="P237" s="36"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="36"/>
       <c r="B238" s="37"/>
       <c r="C238" s="36"/>
@@ -21786,7 +21814,7 @@
       <c r="O238" s="37"/>
       <c r="P238" s="36"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="36"/>
       <c r="B239" s="37"/>
       <c r="C239" s="36"/>
@@ -21804,7 +21832,7 @@
       <c r="O239" s="37"/>
       <c r="P239" s="36"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="36"/>
       <c r="B240" s="37"/>
       <c r="C240" s="36"/>
@@ -21822,7 +21850,7 @@
       <c r="O240" s="37"/>
       <c r="P240" s="36"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="36"/>
       <c r="B241" s="37"/>
       <c r="C241" s="36"/>
@@ -21840,7 +21868,7 @@
       <c r="O241" s="37"/>
       <c r="P241" s="36"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="36"/>
       <c r="B242" s="37"/>
       <c r="C242" s="36"/>
@@ -21858,7 +21886,7 @@
       <c r="O242" s="37"/>
       <c r="P242" s="36"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" s="36"/>
       <c r="B243" s="37"/>
       <c r="C243" s="36"/>
@@ -21876,7 +21904,7 @@
       <c r="O243" s="37"/>
       <c r="P243" s="36"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="36"/>
       <c r="B244" s="37"/>
       <c r="C244" s="36"/>
@@ -21894,7 +21922,7 @@
       <c r="O244" s="37"/>
       <c r="P244" s="36"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="36"/>
       <c r="B245" s="37"/>
       <c r="C245" s="36"/>
@@ -21912,7 +21940,7 @@
       <c r="O245" s="37"/>
       <c r="P245" s="36"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="36"/>
       <c r="B246" s="37"/>
       <c r="C246" s="36"/>
@@ -21930,7 +21958,7 @@
       <c r="O246" s="37"/>
       <c r="P246" s="36"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="36"/>
       <c r="B247" s="37"/>
       <c r="C247" s="36"/>
@@ -21948,7 +21976,7 @@
       <c r="O247" s="37"/>
       <c r="P247" s="36"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="36"/>
       <c r="B248" s="37"/>
       <c r="C248" s="36"/>
@@ -21966,7 +21994,7 @@
       <c r="O248" s="37"/>
       <c r="P248" s="36"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="36"/>
       <c r="B249" s="37"/>
       <c r="C249" s="36"/>
@@ -21984,7 +22012,7 @@
       <c r="O249" s="37"/>
       <c r="P249" s="36"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="36"/>
       <c r="B250" s="37"/>
       <c r="C250" s="36"/>
@@ -22002,7 +22030,7 @@
       <c r="O250" s="37"/>
       <c r="P250" s="36"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="36"/>
       <c r="B251" s="37"/>
       <c r="C251" s="36"/>
@@ -22020,7 +22048,7 @@
       <c r="O251" s="37"/>
       <c r="P251" s="36"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="36"/>
       <c r="B252" s="37"/>
       <c r="C252" s="36"/>
@@ -22038,7 +22066,7 @@
       <c r="O252" s="37"/>
       <c r="P252" s="36"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="36"/>
       <c r="B253" s="37"/>
       <c r="C253" s="36"/>
@@ -22056,7 +22084,7 @@
       <c r="O253" s="37"/>
       <c r="P253" s="36"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="36"/>
       <c r="B254" s="37"/>
       <c r="C254" s="36"/>
@@ -22074,7 +22102,7 @@
       <c r="O254" s="37"/>
       <c r="P254" s="36"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="36"/>
       <c r="B255" s="37"/>
       <c r="C255" s="36"/>
@@ -22092,7 +22120,7 @@
       <c r="O255" s="37"/>
       <c r="P255" s="36"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="36"/>
       <c r="B256" s="37"/>
       <c r="C256" s="36"/>
@@ -22110,7 +22138,7 @@
       <c r="O256" s="37"/>
       <c r="P256" s="36"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" s="36"/>
       <c r="B257" s="37"/>
       <c r="C257" s="36"/>
@@ -22128,7 +22156,7 @@
       <c r="O257" s="37"/>
       <c r="P257" s="36"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="36"/>
       <c r="B258" s="37"/>
       <c r="C258" s="36"/>
@@ -22146,7 +22174,7 @@
       <c r="O258" s="37"/>
       <c r="P258" s="36"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" s="36"/>
       <c r="B259" s="37"/>
       <c r="C259" s="36"/>
@@ -22164,352 +22192,352 @@
       <c r="O259" s="37"/>
       <c r="P259" s="36"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D260" s="8"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D261" s="8"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D262" s="8"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D263" s="8"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D264" s="8"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D265" s="8"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D266" s="8"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D267" s="8"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D268" s="8"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D269" s="8"/>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D270" s="8"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D271" s="8"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D272" s="8"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D273" s="8"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D274" s="8"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D275" s="8"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D276" s="8"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D277" s="8"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D278" s="8"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D279" s="8"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D280" s="8"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D281" s="8"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D282" s="8"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D283" s="8"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D284" s="8"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D285" s="8"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D286" s="8"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D287" s="8"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D288" s="8"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D289" s="8"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D290" s="8"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D291" s="8"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D292" s="8"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D293" s="8"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D294" s="8"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D295" s="8"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D296" s="8"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D297" s="8"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D298" s="8"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D299" s="8"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D300" s="8"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D301" s="8"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D302" s="8"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D303" s="8"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D304" s="8"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D305" s="8"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D306" s="8"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D307" s="8"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D308" s="8"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D309" s="8"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D310" s="8"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D311" s="8"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D312" s="8"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D313" s="8"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D315" s="8"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D316" s="8"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D317" s="8"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D318" s="8"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D319" s="8"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D320" s="8"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D321" s="8"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D322" s="8"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D323" s="8"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D324" s="8"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D325" s="8"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D326" s="8"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D327" s="8"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D328" s="8"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D329" s="8"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D330" s="8"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D331" s="8"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D332" s="8"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D333" s="8"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D334" s="8"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D335" s="8"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D336" s="8"/>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D337" s="8"/>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D338" s="8"/>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D339" s="8"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D340" s="8"/>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D341" s="8"/>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D342" s="8"/>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D343" s="8"/>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D344" s="8"/>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D345" s="8"/>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D346" s="8"/>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D347" s="8"/>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D348" s="8"/>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D349" s="8"/>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D350" s="8"/>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D351" s="8"/>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D352" s="8"/>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D353" s="8"/>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D354" s="8"/>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D355" s="8"/>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D356" s="8"/>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D357" s="8"/>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D358" s="8"/>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D359" s="8"/>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D360" s="8"/>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D361" s="8"/>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D362" s="8"/>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D363" s="8"/>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D364" s="8"/>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D365" s="8"/>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D366" s="8"/>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D367" s="8"/>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D368" s="8"/>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D369" s="8"/>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D370" s="8"/>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D371" s="8"/>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D372" s="8"/>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D373" s="8"/>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D374" s="8"/>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D375" s="8"/>
     </row>
   </sheetData>
@@ -22528,32 +22556,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M252"/>
+  <dimension ref="A1:M253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F251" sqref="F251"/>
+      <pane ySplit="2" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.36328125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.90625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" style="47" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="59.54296875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.54296875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.36328125" style="2"/>
-    <col min="13" max="13" width="27.6328125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="20.36328125" style="64"/>
+    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="47" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="59.5546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2"/>
+    <col min="13" max="13" width="27.6640625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="20.33203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>472</v>
       </c>
@@ -22570,7 +22598,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>473</v>
       </c>
@@ -22611,7 +22639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="207" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -22650,7 +22678,7 @@
       </c>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -22689,7 +22717,7 @@
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -22728,7 +22756,7 @@
       </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -22767,7 +22795,7 @@
       </c>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -22802,7 +22830,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -22841,7 +22869,7 @@
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -22880,7 +22908,7 @@
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -22919,7 +22947,7 @@
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -22958,7 +22986,7 @@
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -22997,7 +23025,7 @@
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="392" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="386.4" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -23036,7 +23064,7 @@
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -23075,7 +23103,7 @@
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -23114,7 +23142,7 @@
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -23153,7 +23181,7 @@
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -23192,7 +23220,7 @@
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -23231,7 +23259,7 @@
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -23270,7 +23298,7 @@
       </c>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -23309,7 +23337,7 @@
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="308" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -23348,7 +23376,7 @@
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -23387,7 +23415,7 @@
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -23426,7 +23454,7 @@
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -23465,7 +23493,7 @@
       </c>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -23504,7 +23532,7 @@
       </c>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -23543,7 +23571,7 @@
       </c>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -23582,7 +23610,7 @@
       </c>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -23617,7 +23645,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -23656,7 +23684,7 @@
       </c>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -23695,7 +23723,7 @@
       </c>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -23730,7 +23758,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -23765,7 +23793,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -23804,7 +23832,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -23843,7 +23871,7 @@
       </c>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -23882,7 +23910,7 @@
       </c>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -23917,7 +23945,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -23956,7 +23984,7 @@
       </c>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -23995,7 +24023,7 @@
       </c>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -24034,7 +24062,7 @@
       </c>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -24073,7 +24101,7 @@
       </c>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="4" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -24112,7 +24140,7 @@
       </c>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -24147,7 +24175,7 @@
       <c r="L42" s="9"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" ht="266" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="262.2" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -24186,7 +24214,7 @@
       </c>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -24225,7 +24253,7 @@
       </c>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -24264,7 +24292,7 @@
       </c>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -24303,7 +24331,7 @@
       </c>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -24338,7 +24366,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -24377,7 +24405,7 @@
       </c>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -24416,7 +24444,7 @@
       </c>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -24455,7 +24483,7 @@
       </c>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -24494,7 +24522,7 @@
       </c>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -24533,7 +24561,7 @@
       </c>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -24568,7 +24596,7 @@
       <c r="L53" s="9"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -24607,7 +24635,7 @@
       </c>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -24642,7 +24670,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -24677,7 +24705,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="11"/>
     </row>
-    <row r="57" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -24712,7 +24740,7 @@
       <c r="L57" s="9"/>
       <c r="M57" s="11"/>
     </row>
-    <row r="58" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -24747,7 +24775,7 @@
       <c r="L58" s="9"/>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -24786,7 +24814,7 @@
       </c>
       <c r="M59" s="11"/>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -24825,7 +24853,7 @@
       </c>
       <c r="M60" s="11"/>
     </row>
-    <row r="61" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -24860,7 +24888,7 @@
       <c r="L61" s="9"/>
       <c r="M61" s="11"/>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -24899,7 +24927,7 @@
       </c>
       <c r="M62" s="11"/>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -24938,7 +24966,7 @@
       </c>
       <c r="M63" s="11"/>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -24977,7 +25005,7 @@
       </c>
       <c r="M64" s="11"/>
     </row>
-    <row r="65" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -25012,7 +25040,7 @@
       <c r="L65" s="9"/>
       <c r="M65" s="11"/>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -25051,7 +25079,7 @@
       </c>
       <c r="M66" s="11"/>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -25090,7 +25118,7 @@
       </c>
       <c r="M67" s="11"/>
     </row>
-    <row r="68" spans="1:13" ht="126" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -25125,7 +25153,7 @@
       <c r="L68" s="9"/>
       <c r="M68" s="11"/>
     </row>
-    <row r="69" spans="1:13" ht="126" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -25160,7 +25188,7 @@
       <c r="L69" s="9"/>
       <c r="M69" s="11"/>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -25199,7 +25227,7 @@
       </c>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -25238,7 +25266,7 @@
       </c>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -25277,7 +25305,7 @@
       </c>
       <c r="M72" s="11"/>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -25316,7 +25344,7 @@
       </c>
       <c r="M73" s="11"/>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -25355,7 +25383,7 @@
       </c>
       <c r="M74" s="11"/>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -25394,7 +25422,7 @@
       </c>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -25433,7 +25461,7 @@
       </c>
       <c r="M76" s="11"/>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -25472,7 +25500,7 @@
       </c>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -25511,7 +25539,7 @@
       </c>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -25550,7 +25578,7 @@
       </c>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -25589,7 +25617,7 @@
       </c>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -25624,7 +25652,7 @@
       <c r="L81" s="9"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -25659,7 +25687,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -25694,7 +25722,7 @@
       <c r="L83" s="9"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -25729,7 +25757,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -25768,7 +25796,7 @@
       </c>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -25803,7 +25831,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -25842,7 +25870,7 @@
       </c>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -25877,7 +25905,7 @@
       <c r="L88" s="9"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -25916,7 +25944,7 @@
       </c>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -25951,7 +25979,7 @@
       <c r="L90" s="9"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -25990,7 +26018,7 @@
       </c>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -26029,7 +26057,7 @@
       </c>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -26064,7 +26092,7 @@
       <c r="L93" s="9"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -26103,7 +26131,7 @@
       </c>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -26138,7 +26166,7 @@
       <c r="L95" s="9"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>94</v>
       </c>
@@ -26173,7 +26201,7 @@
       <c r="L96" s="9"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>95</v>
       </c>
@@ -26208,7 +26236,7 @@
       <c r="L97" s="9"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -26247,7 +26275,7 @@
       </c>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>97</v>
       </c>
@@ -26282,7 +26310,7 @@
       <c r="L99" s="9"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>98</v>
       </c>
@@ -26321,7 +26349,7 @@
       </c>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>99</v>
       </c>
@@ -26356,7 +26384,7 @@
       <c r="L101" s="9"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>100</v>
       </c>
@@ -26391,7 +26419,7 @@
       <c r="L102" s="9"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>101</v>
       </c>
@@ -26430,7 +26458,7 @@
       </c>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>102</v>
       </c>
@@ -26469,7 +26497,7 @@
       </c>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>103</v>
       </c>
@@ -26504,7 +26532,7 @@
       <c r="L105" s="8"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>104</v>
       </c>
@@ -26543,7 +26571,7 @@
       </c>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>105</v>
       </c>
@@ -26582,7 +26610,7 @@
       </c>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>106</v>
       </c>
@@ -26621,7 +26649,7 @@
       </c>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>107</v>
       </c>
@@ -26660,7 +26688,7 @@
       </c>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>108</v>
       </c>
@@ -26699,7 +26727,7 @@
       </c>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>109</v>
       </c>
@@ -26738,7 +26766,7 @@
       </c>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>110</v>
       </c>
@@ -26777,7 +26805,7 @@
       </c>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>111</v>
       </c>
@@ -26816,7 +26844,7 @@
       </c>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" ht="308" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" s="1" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>112</v>
       </c>
@@ -26855,7 +26883,7 @@
       </c>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>113</v>
       </c>
@@ -26894,7 +26922,7 @@
       </c>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>114</v>
       </c>
@@ -26933,7 +26961,7 @@
       </c>
       <c r="M116" s="11"/>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>115</v>
       </c>
@@ -26972,7 +27000,7 @@
       </c>
       <c r="M117" s="11"/>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" s="1" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>116</v>
       </c>
@@ -27011,7 +27039,7 @@
       </c>
       <c r="M118" s="11"/>
     </row>
-    <row r="119" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>117</v>
       </c>
@@ -27050,7 +27078,7 @@
       </c>
       <c r="M119" s="11"/>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>118</v>
       </c>
@@ -27089,7 +27117,7 @@
       </c>
       <c r="M120" s="11"/>
     </row>
-    <row r="121" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>119</v>
       </c>
@@ -27128,7 +27156,7 @@
       </c>
       <c r="M121" s="11"/>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>120</v>
       </c>
@@ -27167,7 +27195,7 @@
       </c>
       <c r="M122" s="11"/>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>121</v>
       </c>
@@ -27206,7 +27234,7 @@
       </c>
       <c r="M123" s="11"/>
     </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>122</v>
       </c>
@@ -27245,7 +27273,7 @@
       </c>
       <c r="M124" s="11"/>
     </row>
-    <row r="125" spans="1:13" s="1" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" s="1" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>123</v>
       </c>
@@ -27284,7 +27312,7 @@
       </c>
       <c r="M125" s="11"/>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>124</v>
       </c>
@@ -27319,7 +27347,7 @@
       <c r="L126" s="9"/>
       <c r="M126" s="11"/>
     </row>
-    <row r="127" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>125</v>
       </c>
@@ -27358,7 +27386,7 @@
       </c>
       <c r="M127" s="11"/>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>126</v>
       </c>
@@ -27397,7 +27425,7 @@
       </c>
       <c r="M128" s="11"/>
     </row>
-    <row r="129" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>127</v>
       </c>
@@ -27436,7 +27464,7 @@
       </c>
       <c r="M129" s="11"/>
     </row>
-    <row r="130" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>128</v>
       </c>
@@ -27471,7 +27499,7 @@
       <c r="L130" s="8"/>
       <c r="M130" s="11"/>
     </row>
-    <row r="131" spans="1:13" s="1" customFormat="1" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>129</v>
       </c>
@@ -27510,7 +27538,7 @@
       </c>
       <c r="M131" s="11"/>
     </row>
-    <row r="132" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>130</v>
       </c>
@@ -27549,7 +27577,7 @@
       </c>
       <c r="M132" s="11"/>
     </row>
-    <row r="133" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>131</v>
       </c>
@@ -27588,7 +27616,7 @@
       </c>
       <c r="M133" s="11"/>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>132</v>
       </c>
@@ -27627,7 +27655,7 @@
       </c>
       <c r="M134" s="11"/>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>133</v>
       </c>
@@ -27666,7 +27694,7 @@
       </c>
       <c r="M135" s="11"/>
     </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>134</v>
       </c>
@@ -27705,7 +27733,7 @@
       </c>
       <c r="M136" s="11"/>
     </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>135</v>
       </c>
@@ -27740,7 +27768,7 @@
       <c r="L137" s="8"/>
       <c r="M137" s="11"/>
     </row>
-    <row r="138" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>136</v>
       </c>
@@ -27779,7 +27807,7 @@
       </c>
       <c r="M138" s="11"/>
     </row>
-    <row r="139" spans="1:13" ht="149.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="149.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>137</v>
       </c>
@@ -27814,7 +27842,7 @@
       <c r="L139" s="8"/>
       <c r="M139" s="11"/>
     </row>
-    <row r="140" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>138</v>
       </c>
@@ -27845,7 +27873,7 @@
       <c r="L140" s="8"/>
       <c r="M140" s="11"/>
     </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>139</v>
       </c>
@@ -27876,7 +27904,7 @@
       <c r="L141" s="8"/>
       <c r="M141" s="11"/>
     </row>
-    <row r="142" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>140</v>
       </c>
@@ -27907,7 +27935,7 @@
       <c r="L142" s="8"/>
       <c r="M142" s="11"/>
     </row>
-    <row r="143" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>141</v>
       </c>
@@ -27938,7 +27966,7 @@
       <c r="L143" s="9"/>
       <c r="M143" s="11"/>
     </row>
-    <row r="144" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>142</v>
       </c>
@@ -27969,7 +27997,7 @@
       <c r="L144" s="8"/>
       <c r="M144" s="11"/>
     </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>143</v>
       </c>
@@ -28000,7 +28028,7 @@
       <c r="L145" s="55"/>
       <c r="M145" s="59"/>
     </row>
-    <row r="146" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>144</v>
       </c>
@@ -28035,7 +28063,7 @@
       </c>
       <c r="M146" s="11"/>
     </row>
-    <row r="147" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>145</v>
       </c>
@@ -28070,7 +28098,7 @@
       </c>
       <c r="M147" s="11"/>
     </row>
-    <row r="148" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>146</v>
       </c>
@@ -28105,7 +28133,7 @@
       </c>
       <c r="M148" s="11"/>
     </row>
-    <row r="149" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>147</v>
       </c>
@@ -28140,7 +28168,7 @@
       </c>
       <c r="M149" s="11"/>
     </row>
-    <row r="150" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>148</v>
       </c>
@@ -28175,7 +28203,7 @@
       </c>
       <c r="M150" s="11"/>
     </row>
-    <row r="151" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>149</v>
       </c>
@@ -28209,7 +28237,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>150</v>
       </c>
@@ -28243,7 +28271,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>151</v>
       </c>
@@ -28278,7 +28306,7 @@
       </c>
       <c r="M153" s="11"/>
     </row>
-    <row r="154" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>152</v>
       </c>
@@ -28313,7 +28341,7 @@
       </c>
       <c r="M154" s="11"/>
     </row>
-    <row r="155" spans="1:13" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" s="1" customFormat="1" ht="207" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>153</v>
       </c>
@@ -28344,7 +28372,7 @@
       <c r="L155" s="9"/>
       <c r="M155" s="11"/>
     </row>
-    <row r="156" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>154</v>
       </c>
@@ -28379,7 +28407,7 @@
       </c>
       <c r="M156" s="11"/>
     </row>
-    <row r="157" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>155</v>
       </c>
@@ -28414,7 +28442,7 @@
       </c>
       <c r="M157" s="11"/>
     </row>
-    <row r="158" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>156</v>
       </c>
@@ -28445,7 +28473,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="11"/>
     </row>
-    <row r="159" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>157</v>
       </c>
@@ -28476,7 +28504,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="11"/>
     </row>
-    <row r="160" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>158</v>
       </c>
@@ -28511,7 +28539,7 @@
       </c>
       <c r="M160" s="11"/>
     </row>
-    <row r="161" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>159</v>
       </c>
@@ -28546,7 +28574,7 @@
       </c>
       <c r="M161" s="11"/>
     </row>
-    <row r="162" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>160</v>
       </c>
@@ -28581,7 +28609,7 @@
       </c>
       <c r="M162" s="11"/>
     </row>
-    <row r="163" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>161</v>
       </c>
@@ -28616,7 +28644,7 @@
       </c>
       <c r="M163" s="63"/>
     </row>
-    <row r="164" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>162</v>
       </c>
@@ -28651,7 +28679,7 @@
       </c>
       <c r="M164" s="63"/>
     </row>
-    <row r="165" spans="1:13" ht="70" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="69" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>163</v>
       </c>
@@ -28686,7 +28714,7 @@
       </c>
       <c r="M165" s="63"/>
     </row>
-    <row r="166" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>164</v>
       </c>
@@ -28721,7 +28749,7 @@
       </c>
       <c r="M166" s="63"/>
     </row>
-    <row r="167" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>165</v>
       </c>
@@ -28756,7 +28784,7 @@
       </c>
       <c r="M167" s="63"/>
     </row>
-    <row r="168" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>166</v>
       </c>
@@ -28791,7 +28819,7 @@
       </c>
       <c r="M168" s="63"/>
     </row>
-    <row r="169" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>167</v>
       </c>
@@ -28826,7 +28854,7 @@
       </c>
       <c r="M169" s="63"/>
     </row>
-    <row r="170" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>168</v>
       </c>
@@ -28861,7 +28889,7 @@
       </c>
       <c r="M170" s="63"/>
     </row>
-    <row r="171" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>169</v>
       </c>
@@ -28896,7 +28924,7 @@
       </c>
       <c r="M171" s="63"/>
     </row>
-    <row r="172" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>170</v>
       </c>
@@ -28927,7 +28955,7 @@
       <c r="L172" s="63"/>
       <c r="M172" s="63"/>
     </row>
-    <row r="173" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A173" s="63">
         <v>171</v>
       </c>
@@ -28962,7 +28990,7 @@
       </c>
       <c r="M173" s="63"/>
     </row>
-    <row r="174" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A174" s="63">
         <v>172</v>
       </c>
@@ -28997,7 +29025,7 @@
       </c>
       <c r="M174" s="63"/>
     </row>
-    <row r="175" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A175" s="63">
         <v>173</v>
       </c>
@@ -29032,7 +29060,7 @@
       </c>
       <c r="M175" s="63"/>
     </row>
-    <row r="176" spans="1:13" ht="70" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="69" x14ac:dyDescent="0.25">
       <c r="A176" s="63">
         <v>174</v>
       </c>
@@ -29067,7 +29095,7 @@
       </c>
       <c r="M176" s="63"/>
     </row>
-    <row r="177" spans="1:13" s="24" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>175</v>
       </c>
@@ -29104,7 +29132,7 @@
       </c>
       <c r="M177" s="23"/>
     </row>
-    <row r="178" spans="1:13" s="24" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>176</v>
       </c>
@@ -29141,7 +29169,7 @@
       </c>
       <c r="M178" s="23"/>
     </row>
-    <row r="179" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A179" s="63">
         <v>177</v>
       </c>
@@ -29176,7 +29204,7 @@
       </c>
       <c r="M179" s="63"/>
     </row>
-    <row r="180" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A180" s="70">
         <v>178</v>
       </c>
@@ -29211,7 +29239,7 @@
       </c>
       <c r="M180" s="70"/>
     </row>
-    <row r="181" spans="1:13" ht="28" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A181" s="63">
         <v>179</v>
       </c>
@@ -29246,7 +29274,7 @@
       </c>
       <c r="M181" s="11"/>
     </row>
-    <row r="182" spans="1:13" ht="28" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A182" s="63">
         <v>180</v>
       </c>
@@ -29281,7 +29309,7 @@
       </c>
       <c r="M182" s="11"/>
     </row>
-    <row r="183" spans="1:13" ht="98" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A183" s="63">
         <v>181</v>
       </c>
@@ -29316,7 +29344,7 @@
       </c>
       <c r="M183" s="11"/>
     </row>
-    <row r="184" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A184" s="63">
         <v>182</v>
       </c>
@@ -29351,7 +29379,7 @@
       </c>
       <c r="M184" s="11"/>
     </row>
-    <row r="185" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>183</v>
       </c>
@@ -29386,7 +29414,7 @@
       </c>
       <c r="M185" s="11"/>
     </row>
-    <row r="186" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="63">
         <v>184</v>
       </c>
@@ -29421,7 +29449,7 @@
       </c>
       <c r="M186" s="11"/>
     </row>
-    <row r="187" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A187" s="63">
         <v>185</v>
       </c>
@@ -29454,7 +29482,7 @@
       </c>
       <c r="M187" s="11"/>
     </row>
-    <row r="188" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A188" s="63">
         <v>186</v>
       </c>
@@ -29487,7 +29515,7 @@
       </c>
       <c r="M188" s="11"/>
     </row>
-    <row r="189" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A189" s="63">
         <v>187</v>
       </c>
@@ -29520,7 +29548,7 @@
       </c>
       <c r="M189" s="11"/>
     </row>
-    <row r="190" spans="1:13" ht="140" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="138" x14ac:dyDescent="0.3">
       <c r="A190" s="63">
         <v>188</v>
       </c>
@@ -29555,7 +29583,7 @@
       </c>
       <c r="M190" s="11"/>
     </row>
-    <row r="191" spans="1:13" ht="140" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="138" x14ac:dyDescent="0.3">
       <c r="A191" s="63">
         <v>189</v>
       </c>
@@ -29588,7 +29616,7 @@
       </c>
       <c r="M191" s="11"/>
     </row>
-    <row r="192" spans="1:13" ht="98" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>190</v>
       </c>
@@ -29617,7 +29645,7 @@
       <c r="L192" s="8"/>
       <c r="M192" s="11"/>
     </row>
-    <row r="193" spans="1:13" ht="269" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" ht="268.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="63">
         <v>191</v>
       </c>
@@ -29650,7 +29678,7 @@
       </c>
       <c r="M193" s="11"/>
     </row>
-    <row r="194" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A194" s="63">
         <v>192</v>
       </c>
@@ -29683,7 +29711,7 @@
       </c>
       <c r="M194" s="11"/>
     </row>
-    <row r="195" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A195" s="63">
         <v>193</v>
       </c>
@@ -29716,7 +29744,7 @@
       </c>
       <c r="M195" s="59"/>
     </row>
-    <row r="196" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A196" s="63">
         <v>194</v>
       </c>
@@ -29749,7 +29777,7 @@
       </c>
       <c r="M196" s="11"/>
     </row>
-    <row r="197" spans="1:13" ht="224" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>195</v>
       </c>
@@ -29780,7 +29808,7 @@
       <c r="L197" s="8"/>
       <c r="M197" s="11"/>
     </row>
-    <row r="198" spans="1:13" ht="154" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A198" s="63">
         <v>196</v>
       </c>
@@ -29815,7 +29843,7 @@
       </c>
       <c r="M198" s="11"/>
     </row>
-    <row r="199" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>197</v>
       </c>
@@ -29846,7 +29874,7 @@
       <c r="L199" s="8"/>
       <c r="M199" s="11"/>
     </row>
-    <row r="200" spans="1:13" ht="126" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A200" s="55">
         <v>198</v>
       </c>
@@ -29875,7 +29903,7 @@
       <c r="L200" s="55"/>
       <c r="M200" s="59"/>
     </row>
-    <row r="201" spans="1:13" ht="254" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" ht="253.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="63">
         <v>199</v>
       </c>
@@ -29910,7 +29938,7 @@
       </c>
       <c r="M201" s="11"/>
     </row>
-    <row r="202" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>200</v>
       </c>
@@ -29945,7 +29973,7 @@
       </c>
       <c r="M202" s="11"/>
     </row>
-    <row r="203" spans="1:13" ht="98" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A203" s="63">
         <v>201</v>
       </c>
@@ -29980,7 +30008,7 @@
       </c>
       <c r="M203" s="11"/>
     </row>
-    <row r="204" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A204" s="63">
         <v>202</v>
       </c>
@@ -30015,7 +30043,7 @@
       </c>
       <c r="M204" s="11"/>
     </row>
-    <row r="205" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A205" s="70">
         <v>203</v>
       </c>
@@ -30050,7 +30078,7 @@
       </c>
       <c r="M205" s="11"/>
     </row>
-    <row r="206" spans="1:13" ht="294" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" ht="289.8" x14ac:dyDescent="0.3">
       <c r="A206" s="63">
         <v>204</v>
       </c>
@@ -30085,7 +30113,7 @@
       </c>
       <c r="M206" s="11"/>
     </row>
-    <row r="207" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A207" s="63">
         <v>205</v>
       </c>
@@ -30120,7 +30148,7 @@
       </c>
       <c r="M207" s="11"/>
     </row>
-    <row r="208" spans="1:13" ht="112.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="63">
         <v>206</v>
       </c>
@@ -30155,7 +30183,7 @@
       </c>
       <c r="M208" s="11"/>
     </row>
-    <row r="209" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A209" s="63">
         <v>207</v>
       </c>
@@ -30190,7 +30218,7 @@
       </c>
       <c r="M209" s="11"/>
     </row>
-    <row r="210" spans="1:13" ht="140" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="138" x14ac:dyDescent="0.3">
       <c r="A210" s="63">
         <v>208</v>
       </c>
@@ -30225,7 +30253,7 @@
       </c>
       <c r="M210" s="11"/>
     </row>
-    <row r="211" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A211" s="63">
         <v>209</v>
       </c>
@@ -30260,7 +30288,7 @@
       </c>
       <c r="M211" s="11"/>
     </row>
-    <row r="212" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>210</v>
       </c>
@@ -30289,7 +30317,7 @@
       <c r="L212" s="8"/>
       <c r="M212" s="11"/>
     </row>
-    <row r="213" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A213" s="63">
         <v>211</v>
       </c>
@@ -30322,7 +30350,7 @@
       </c>
       <c r="M213" s="11"/>
     </row>
-    <row r="214" spans="1:13" ht="126" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A214" s="63">
         <v>212</v>
       </c>
@@ -30357,7 +30385,7 @@
       </c>
       <c r="M214" s="11"/>
     </row>
-    <row r="215" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A215" s="63">
         <v>213</v>
       </c>
@@ -30394,7 +30422,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A216" s="63">
         <v>214</v>
       </c>
@@ -30429,7 +30457,7 @@
       </c>
       <c r="M216" s="11"/>
     </row>
-    <row r="217" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>215</v>
       </c>
@@ -30470,7 +30498,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>216</v>
       </c>
@@ -30507,7 +30535,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>217</v>
       </c>
@@ -30544,7 +30572,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="140" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>218</v>
       </c>
@@ -30581,7 +30609,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>219</v>
       </c>
@@ -30618,7 +30646,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>220</v>
       </c>
@@ -30655,7 +30683,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>221</v>
       </c>
@@ -30692,7 +30720,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="195.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>222</v>
       </c>
@@ -30729,7 +30757,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A225" s="63">
         <v>223</v>
       </c>
@@ -30768,7 +30796,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>224</v>
       </c>
@@ -30805,7 +30833,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>225</v>
       </c>
@@ -30842,7 +30870,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>226</v>
       </c>
@@ -30879,7 +30907,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="182" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>227</v>
       </c>
@@ -30916,7 +30944,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="224" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>228</v>
       </c>
@@ -30953,7 +30981,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>229</v>
       </c>
@@ -30984,7 +31012,7 @@
       <c r="L231" s="8"/>
       <c r="M231" s="11"/>
     </row>
-    <row r="232" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>230</v>
       </c>
@@ -31013,7 +31041,7 @@
       <c r="L232" s="8"/>
       <c r="M232" s="11"/>
     </row>
-    <row r="233" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>231</v>
       </c>
@@ -31046,7 +31074,7 @@
       </c>
       <c r="M233" s="11"/>
     </row>
-    <row r="234" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>232</v>
       </c>
@@ -31081,7 +31109,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>233</v>
       </c>
@@ -31116,7 +31144,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>234</v>
       </c>
@@ -31151,7 +31179,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>235</v>
       </c>
@@ -31186,7 +31214,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>236</v>
       </c>
@@ -31221,7 +31249,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>237</v>
       </c>
@@ -31256,7 +31284,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="158" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" ht="157.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="55">
         <v>238</v>
       </c>
@@ -31291,7 +31319,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="154" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>239</v>
       </c>
@@ -31326,7 +31354,7 @@
       </c>
       <c r="M241" s="11"/>
     </row>
-    <row r="242" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>240</v>
       </c>
@@ -31361,7 +31389,7 @@
       </c>
       <c r="M242" s="11"/>
     </row>
-    <row r="243" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>241</v>
       </c>
@@ -31396,7 +31424,7 @@
       </c>
       <c r="M243" s="11"/>
     </row>
-    <row r="244" spans="1:13" ht="241.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" ht="241.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>242</v>
       </c>
@@ -31431,7 +31459,7 @@
       </c>
       <c r="M244" s="11"/>
     </row>
-    <row r="245" spans="1:13" ht="196" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>243</v>
       </c>
@@ -31466,7 +31494,7 @@
       </c>
       <c r="M245" s="11"/>
     </row>
-    <row r="246" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>244</v>
       </c>
@@ -31501,7 +31529,7 @@
       </c>
       <c r="M246" s="11"/>
     </row>
-    <row r="247" spans="1:13" ht="182" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>245</v>
       </c>
@@ -31536,7 +31564,7 @@
       </c>
       <c r="M247" s="11"/>
     </row>
-    <row r="248" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>246</v>
       </c>
@@ -31571,7 +31599,7 @@
       </c>
       <c r="M248" s="11"/>
     </row>
-    <row r="249" spans="1:13" ht="322" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>247</v>
       </c>
@@ -31606,7 +31634,7 @@
       </c>
       <c r="M249" s="11"/>
     </row>
-    <row r="250" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>248</v>
       </c>
@@ -31641,7 +31669,7 @@
       </c>
       <c r="M250" s="11"/>
     </row>
-    <row r="251" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>249</v>
       </c>
@@ -31674,7 +31702,7 @@
       <c r="L251" s="9"/>
       <c r="M251" s="11"/>
     </row>
-    <row r="252" spans="1:13" ht="154" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>250</v>
       </c>
@@ -31702,6 +31730,35 @@
       <c r="K252" s="8"/>
       <c r="L252" s="9"/>
       <c r="M252" s="11"/>
+    </row>
+    <row r="253" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="8">
+        <v>251</v>
+      </c>
+      <c r="B253" s="9">
+        <v>43529</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G253" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H253" s="8"/>
+      <c r="I253" s="12"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="8"/>
+      <c r="L253" s="9"/>
+      <c r="M253" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M251" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -31723,7 +31780,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -31738,20 +31795,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" style="1"/>
-    <col min="2" max="2" width="90.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.36328125" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="90.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="85"/>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>989</v>
       </c>
@@ -31762,7 +31819,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -31773,7 +31830,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -31784,7 +31841,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -31795,7 +31852,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>4</v>
       </c>
@@ -31804,7 +31861,7 @@
       </c>
       <c r="C6" s="30"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>5</v>
       </c>
@@ -31815,7 +31872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>6</v>
       </c>
@@ -31826,7 +31883,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="25"/>
     </row>
   </sheetData>
@@ -31854,14 +31911,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
@@ -31872,12 +31929,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="D4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
@@ -31888,7 +31945,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
@@ -31899,7 +31956,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D7" s="13" t="s">
         <v>1005</v>
       </c>
@@ -31907,27 +31964,27 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F8" s="13" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F9" s="46" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F10" s="46" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F11" s="46" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F12" s="46" t="s">
         <v>466</v>
       </c>

--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0F1D89-E3A5-45F1-8A73-4BC8DAF376B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{98DEB462-89FC-460B-92B6-67E606438035}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_QueryLog_Internal" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="1094">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12625,6 +12625,18 @@
 3. Should we mark biometric exceptions and capture exception photo?
 4. Is face photo mandatory?</t>
     </r>
+  </si>
+  <si>
+    <t>"New Query created for eKYC - IDA" Mail Dated 8th March 2019</t>
+  </si>
+  <si>
+    <t>Date of query: 8 March 19
+For the eKYC service, post successful authentication of the individual demographic details of the individual will be returned as per policy. Currently we are also sending the UIN/masked UIN in the response so that the partner can store the individul’s details against this UIN/masked UIN.
+Is it legally mandatory to send the UIN/masked UIN in the response as the Partner is already in possession of the UIN and is sent in the api request?
+No Discussions yet</t>
+  </si>
+  <si>
+    <t>We should not be sending UIN masked or otherwise. We should be sending a token id that refers to the UIN specifically for the requesting partner</t>
   </si>
 </sst>
 </file>
@@ -13489,25 +13501,25 @@
       <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.33203125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.28515625" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="57" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -13525,7 +13537,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -13569,7 +13581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -13601,7 +13613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -13643,7 +13655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -13683,7 +13695,7 @@
       </c>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -13723,7 +13735,7 @@
       </c>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -13765,7 +13777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -13805,7 +13817,7 @@
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -13847,7 +13859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -13887,7 +13899,7 @@
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -13927,7 +13939,7 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -13967,7 +13979,7 @@
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -14007,7 +14019,7 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -14045,7 +14057,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -14083,7 +14095,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -14121,7 +14133,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -14159,7 +14171,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -14197,7 +14209,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -14233,7 +14245,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -14271,7 +14283,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -14307,7 +14319,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -14345,7 +14357,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -14383,7 +14395,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -14421,7 +14433,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -14459,7 +14471,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -14497,7 +14509,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -14537,7 +14549,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -14577,7 +14589,7 @@
       </c>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -14615,7 +14627,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -14655,7 +14667,7 @@
       </c>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -14691,7 +14703,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -14729,7 +14741,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -14767,7 +14779,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="171" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>31</v>
       </c>
@@ -14807,7 +14819,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>32</v>
       </c>
@@ -14845,7 +14857,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>33</v>
       </c>
@@ -14883,7 +14895,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>34</v>
       </c>
@@ -14921,7 +14933,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>35</v>
       </c>
@@ -14961,7 +14973,7 @@
       </c>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>36</v>
       </c>
@@ -15001,7 +15013,7 @@
       </c>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>37</v>
       </c>
@@ -15041,7 +15053,7 @@
       </c>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>38</v>
       </c>
@@ -15081,7 +15093,7 @@
       </c>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>39</v>
       </c>
@@ -15121,7 +15133,7 @@
       </c>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>40</v>
       </c>
@@ -15161,7 +15173,7 @@
       </c>
       <c r="N43" s="11"/>
     </row>
-    <row r="44" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>41</v>
       </c>
@@ -15201,7 +15213,7 @@
       </c>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>42</v>
       </c>
@@ -15241,7 +15253,7 @@
       </c>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>43</v>
       </c>
@@ -15281,7 +15293,7 @@
       </c>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="114" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>44</v>
       </c>
@@ -15321,7 +15333,7 @@
       </c>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="171" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>45</v>
       </c>
@@ -15361,7 +15373,7 @@
       </c>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>46</v>
       </c>
@@ -15401,7 +15413,7 @@
       </c>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>47</v>
       </c>
@@ -15441,7 +15453,7 @@
       </c>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>48</v>
       </c>
@@ -15481,7 +15493,7 @@
       </c>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>49</v>
       </c>
@@ -15521,7 +15533,7 @@
       </c>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>50</v>
       </c>
@@ -15559,7 +15571,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>51</v>
       </c>
@@ -15599,7 +15611,7 @@
       </c>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>52</v>
       </c>
@@ -15637,7 +15649,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>53</v>
       </c>
@@ -15675,7 +15687,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="114" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>54</v>
       </c>
@@ -15713,7 +15725,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>55</v>
       </c>
@@ -15749,7 +15761,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="11"/>
     </row>
-    <row r="59" spans="1:14" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>56</v>
       </c>
@@ -15785,7 +15797,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="11"/>
     </row>
-    <row r="60" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>57</v>
       </c>
@@ -15825,7 +15837,7 @@
       </c>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>58</v>
       </c>
@@ -15865,7 +15877,7 @@
       </c>
       <c r="N61" s="11"/>
     </row>
-    <row r="62" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>59</v>
       </c>
@@ -15905,7 +15917,7 @@
       </c>
       <c r="N62" s="11"/>
     </row>
-    <row r="63" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>60</v>
       </c>
@@ -15945,7 +15957,7 @@
       </c>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>61</v>
       </c>
@@ -15985,7 +15997,7 @@
       </c>
       <c r="N64" s="11"/>
     </row>
-    <row r="65" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>62</v>
       </c>
@@ -16025,7 +16037,7 @@
       </c>
       <c r="N65" s="11"/>
     </row>
-    <row r="66" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>63</v>
       </c>
@@ -16065,7 +16077,7 @@
       </c>
       <c r="N66" s="11"/>
     </row>
-    <row r="67" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>64</v>
       </c>
@@ -16105,7 +16117,7 @@
       </c>
       <c r="N67" s="11"/>
     </row>
-    <row r="68" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>65</v>
       </c>
@@ -16145,7 +16157,7 @@
       </c>
       <c r="N68" s="11"/>
     </row>
-    <row r="69" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>66</v>
       </c>
@@ -16185,7 +16197,7 @@
       </c>
       <c r="N69" s="11"/>
     </row>
-    <row r="70" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>67</v>
       </c>
@@ -16225,7 +16237,7 @@
       </c>
       <c r="N70" s="11"/>
     </row>
-    <row r="71" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>68</v>
       </c>
@@ -16265,7 +16277,7 @@
       </c>
       <c r="N71" s="11"/>
     </row>
-    <row r="72" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>69</v>
       </c>
@@ -16305,7 +16317,7 @@
       </c>
       <c r="N72" s="11"/>
     </row>
-    <row r="73" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>70</v>
       </c>
@@ -16345,7 +16357,7 @@
       </c>
       <c r="N73" s="11"/>
     </row>
-    <row r="74" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>71</v>
       </c>
@@ -16385,7 +16397,7 @@
       </c>
       <c r="N74" s="11"/>
     </row>
-    <row r="75" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>72</v>
       </c>
@@ -16425,7 +16437,7 @@
       </c>
       <c r="N75" s="11"/>
     </row>
-    <row r="76" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>73</v>
       </c>
@@ -16463,7 +16475,7 @@
       </c>
       <c r="N76" s="11"/>
     </row>
-    <row r="77" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>74</v>
       </c>
@@ -16503,7 +16515,7 @@
       </c>
       <c r="N77" s="11"/>
     </row>
-    <row r="78" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>75</v>
       </c>
@@ -16543,7 +16555,7 @@
       </c>
       <c r="N78" s="11"/>
     </row>
-    <row r="79" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>76</v>
       </c>
@@ -16583,7 +16595,7 @@
       </c>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>77</v>
       </c>
@@ -16623,7 +16635,7 @@
       </c>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>78</v>
       </c>
@@ -16663,7 +16675,7 @@
       </c>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>79</v>
       </c>
@@ -16703,7 +16715,7 @@
       </c>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>80</v>
       </c>
@@ -16743,7 +16755,7 @@
       </c>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>81</v>
       </c>
@@ -16783,7 +16795,7 @@
       </c>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>82</v>
       </c>
@@ -16823,7 +16835,7 @@
       </c>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>83</v>
       </c>
@@ -16863,7 +16875,7 @@
       </c>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>84</v>
       </c>
@@ -16903,7 +16915,7 @@
       </c>
       <c r="N87" s="11"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>85</v>
       </c>
@@ -16943,7 +16955,7 @@
       </c>
       <c r="N88" s="11"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>86</v>
       </c>
@@ -16983,7 +16995,7 @@
       </c>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>87</v>
       </c>
@@ -17023,7 +17035,7 @@
       </c>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>88</v>
       </c>
@@ -17063,7 +17075,7 @@
       </c>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>89</v>
       </c>
@@ -17103,7 +17115,7 @@
       </c>
       <c r="N92" s="11"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>90</v>
       </c>
@@ -17143,7 +17155,7 @@
       </c>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>91</v>
       </c>
@@ -17183,7 +17195,7 @@
       </c>
       <c r="N94" s="11"/>
     </row>
-    <row r="95" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>92</v>
       </c>
@@ -17223,7 +17235,7 @@
       </c>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>93</v>
       </c>
@@ -17263,7 +17275,7 @@
       </c>
       <c r="N96" s="11"/>
     </row>
-    <row r="97" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>94</v>
       </c>
@@ -17303,7 +17315,7 @@
       </c>
       <c r="N97" s="11"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>95</v>
       </c>
@@ -17343,7 +17355,7 @@
       </c>
       <c r="N98" s="11"/>
     </row>
-    <row r="99" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>96</v>
       </c>
@@ -17383,7 +17395,7 @@
       </c>
       <c r="N99" s="11"/>
     </row>
-    <row r="100" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>97</v>
       </c>
@@ -17423,7 +17435,7 @@
       </c>
       <c r="N100" s="11"/>
     </row>
-    <row r="101" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>98</v>
       </c>
@@ -17463,7 +17475,7 @@
       </c>
       <c r="N101" s="11"/>
     </row>
-    <row r="102" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>99</v>
       </c>
@@ -17503,7 +17515,7 @@
       </c>
       <c r="N102" s="11"/>
     </row>
-    <row r="103" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>100</v>
       </c>
@@ -17543,7 +17555,7 @@
       </c>
       <c r="N103" s="11"/>
     </row>
-    <row r="104" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>101</v>
       </c>
@@ -17583,7 +17595,7 @@
       </c>
       <c r="N104" s="11"/>
     </row>
-    <row r="105" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>102</v>
       </c>
@@ -17623,7 +17635,7 @@
       </c>
       <c r="N105" s="11"/>
     </row>
-    <row r="106" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>103</v>
       </c>
@@ -17663,7 +17675,7 @@
       </c>
       <c r="N106" s="11"/>
     </row>
-    <row r="107" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>104</v>
       </c>
@@ -17703,7 +17715,7 @@
       </c>
       <c r="N107" s="11"/>
     </row>
-    <row r="108" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>105</v>
       </c>
@@ -17743,7 +17755,7 @@
       </c>
       <c r="N108" s="11"/>
     </row>
-    <row r="109" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>106</v>
       </c>
@@ -17783,7 +17795,7 @@
       </c>
       <c r="N109" s="11"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>107</v>
       </c>
@@ -17823,7 +17835,7 @@
       </c>
       <c r="N110" s="11"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>108</v>
       </c>
@@ -17863,7 +17875,7 @@
       </c>
       <c r="N111" s="11"/>
     </row>
-    <row r="112" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>109</v>
       </c>
@@ -17903,7 +17915,7 @@
       </c>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>110</v>
       </c>
@@ -17943,7 +17955,7 @@
       </c>
       <c r="N113" s="11"/>
     </row>
-    <row r="114" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>111</v>
       </c>
@@ -17983,7 +17995,7 @@
       </c>
       <c r="N114" s="11"/>
     </row>
-    <row r="115" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>112</v>
       </c>
@@ -18023,7 +18035,7 @@
       </c>
       <c r="N115" s="11"/>
     </row>
-    <row r="116" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>113</v>
       </c>
@@ -18063,7 +18075,7 @@
       </c>
       <c r="N116" s="11"/>
     </row>
-    <row r="117" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>114</v>
       </c>
@@ -18103,7 +18115,7 @@
       </c>
       <c r="N117" s="11"/>
     </row>
-    <row r="118" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>115</v>
       </c>
@@ -18143,7 +18155,7 @@
       </c>
       <c r="N118" s="11"/>
     </row>
-    <row r="119" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>116</v>
       </c>
@@ -18183,7 +18195,7 @@
       </c>
       <c r="N119" s="11"/>
     </row>
-    <row r="120" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>117</v>
       </c>
@@ -18223,7 +18235,7 @@
       </c>
       <c r="N120" s="11"/>
     </row>
-    <row r="121" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>118</v>
       </c>
@@ -18261,7 +18273,7 @@
       </c>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>119</v>
       </c>
@@ -18301,7 +18313,7 @@
       </c>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>120</v>
       </c>
@@ -18341,7 +18353,7 @@
       </c>
       <c r="N123" s="11"/>
     </row>
-    <row r="124" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>121</v>
       </c>
@@ -18381,7 +18393,7 @@
       </c>
       <c r="N124" s="11"/>
     </row>
-    <row r="125" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="114" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>122</v>
       </c>
@@ -18421,7 +18433,7 @@
       </c>
       <c r="N125" s="11"/>
     </row>
-    <row r="126" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>123</v>
       </c>
@@ -18461,7 +18473,7 @@
       </c>
       <c r="N126" s="11"/>
     </row>
-    <row r="127" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>124</v>
       </c>
@@ -18501,7 +18513,7 @@
       </c>
       <c r="N127" s="11"/>
     </row>
-    <row r="128" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>125</v>
       </c>
@@ -18541,7 +18553,7 @@
       </c>
       <c r="N128" s="11"/>
     </row>
-    <row r="129" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>126</v>
       </c>
@@ -18581,7 +18593,7 @@
       </c>
       <c r="N129" s="11"/>
     </row>
-    <row r="130" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>127</v>
       </c>
@@ -18621,7 +18633,7 @@
       </c>
       <c r="N130" s="11"/>
     </row>
-    <row r="131" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>128</v>
       </c>
@@ -18661,7 +18673,7 @@
       </c>
       <c r="N131" s="11"/>
     </row>
-    <row r="132" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>129</v>
       </c>
@@ -18701,7 +18713,7 @@
       </c>
       <c r="N132" s="11"/>
     </row>
-    <row r="133" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>130</v>
       </c>
@@ -18741,7 +18753,7 @@
       </c>
       <c r="N133" s="11"/>
     </row>
-    <row r="134" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>131</v>
       </c>
@@ -18781,7 +18793,7 @@
       </c>
       <c r="N134" s="11"/>
     </row>
-    <row r="135" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>132</v>
       </c>
@@ -18821,7 +18833,7 @@
       </c>
       <c r="N135" s="11"/>
     </row>
-    <row r="136" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>133</v>
       </c>
@@ -18861,7 +18873,7 @@
       </c>
       <c r="N136" s="11"/>
     </row>
-    <row r="137" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>134</v>
       </c>
@@ -18901,7 +18913,7 @@
       </c>
       <c r="N137" s="11"/>
     </row>
-    <row r="138" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>135</v>
       </c>
@@ -18941,7 +18953,7 @@
       </c>
       <c r="N138" s="11"/>
     </row>
-    <row r="139" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>136</v>
       </c>
@@ -18981,7 +18993,7 @@
       </c>
       <c r="N139" s="11"/>
     </row>
-    <row r="140" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>137</v>
       </c>
@@ -19021,7 +19033,7 @@
       </c>
       <c r="N140" s="11"/>
     </row>
-    <row r="141" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>138</v>
       </c>
@@ -19061,7 +19073,7 @@
       </c>
       <c r="N141" s="11"/>
     </row>
-    <row r="142" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>139</v>
       </c>
@@ -19101,7 +19113,7 @@
       </c>
       <c r="N142" s="11"/>
     </row>
-    <row r="143" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>140</v>
       </c>
@@ -19141,7 +19153,7 @@
       </c>
       <c r="N143" s="11"/>
     </row>
-    <row r="144" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>141</v>
       </c>
@@ -19181,7 +19193,7 @@
       </c>
       <c r="N144" s="11"/>
     </row>
-    <row r="145" spans="1:14" ht="138" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>142</v>
       </c>
@@ -19221,7 +19233,7 @@
       </c>
       <c r="N145" s="11"/>
     </row>
-    <row r="146" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>143</v>
       </c>
@@ -19261,7 +19273,7 @@
       </c>
       <c r="N146" s="11"/>
     </row>
-    <row r="147" spans="1:14" ht="138" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>144</v>
       </c>
@@ -19301,7 +19313,7 @@
       </c>
       <c r="N147" s="11"/>
     </row>
-    <row r="148" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>145</v>
       </c>
@@ -19341,7 +19353,7 @@
       </c>
       <c r="N148" s="11"/>
     </row>
-    <row r="149" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>146</v>
       </c>
@@ -19381,7 +19393,7 @@
       </c>
       <c r="N149" s="11"/>
     </row>
-    <row r="150" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>147</v>
       </c>
@@ -19421,7 +19433,7 @@
       </c>
       <c r="N150" s="11"/>
     </row>
-    <row r="151" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>148</v>
       </c>
@@ -19461,7 +19473,7 @@
       </c>
       <c r="N151" s="11"/>
     </row>
-    <row r="152" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>149</v>
       </c>
@@ -19501,7 +19513,7 @@
       </c>
       <c r="N152" s="11"/>
     </row>
-    <row r="153" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>150</v>
       </c>
@@ -19541,7 +19553,7 @@
       </c>
       <c r="N153" s="11"/>
     </row>
-    <row r="154" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>151</v>
       </c>
@@ -19581,7 +19593,7 @@
       </c>
       <c r="N154" s="11"/>
     </row>
-    <row r="155" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>152</v>
       </c>
@@ -19615,7 +19627,7 @@
       <c r="M155" s="9"/>
       <c r="N155" s="11"/>
     </row>
-    <row r="156" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>153</v>
       </c>
@@ -19649,7 +19661,7 @@
       <c r="M156" s="9"/>
       <c r="N156" s="11"/>
     </row>
-    <row r="157" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>154</v>
       </c>
@@ -19683,7 +19695,7 @@
       <c r="M157" s="9"/>
       <c r="N157" s="11"/>
     </row>
-    <row r="158" spans="1:14" ht="138" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" ht="171" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>155</v>
       </c>
@@ -19717,7 +19729,7 @@
       <c r="M158" s="9"/>
       <c r="N158" s="11"/>
     </row>
-    <row r="159" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>156</v>
       </c>
@@ -19751,7 +19763,7 @@
       <c r="M159" s="9"/>
       <c r="N159" s="11"/>
     </row>
-    <row r="160" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>157</v>
       </c>
@@ -19785,7 +19797,7 @@
       <c r="M160" s="9"/>
       <c r="N160" s="11"/>
     </row>
-    <row r="161" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>158</v>
       </c>
@@ -19819,7 +19831,7 @@
       <c r="M161" s="9"/>
       <c r="N161" s="11"/>
     </row>
-    <row r="162" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>159</v>
       </c>
@@ -19853,7 +19865,7 @@
       <c r="M162" s="9"/>
       <c r="N162" s="11"/>
     </row>
-    <row r="163" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>160</v>
       </c>
@@ -19891,7 +19903,7 @@
       <c r="M163" s="9"/>
       <c r="N163" s="11"/>
     </row>
-    <row r="164" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>161</v>
       </c>
@@ -19929,7 +19941,7 @@
       <c r="M164" s="9"/>
       <c r="N164" s="11"/>
     </row>
-    <row r="165" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>162</v>
       </c>
@@ -19963,7 +19975,7 @@
       <c r="M165" s="9"/>
       <c r="N165" s="11"/>
     </row>
-    <row r="166" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>163</v>
       </c>
@@ -19997,7 +20009,7 @@
       <c r="M166" s="9"/>
       <c r="N166" s="11"/>
     </row>
-    <row r="167" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>164</v>
       </c>
@@ -20031,7 +20043,7 @@
       <c r="M167" s="9"/>
       <c r="N167" s="11"/>
     </row>
-    <row r="168" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>165</v>
       </c>
@@ -20065,7 +20077,7 @@
       <c r="M168" s="9"/>
       <c r="N168" s="11"/>
     </row>
-    <row r="169" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" ht="114" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>166</v>
       </c>
@@ -20099,7 +20111,7 @@
       <c r="M169" s="9"/>
       <c r="N169" s="11"/>
     </row>
-    <row r="170" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>167</v>
       </c>
@@ -20133,7 +20145,7 @@
       <c r="M170" s="9"/>
       <c r="N170" s="11"/>
     </row>
-    <row r="171" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>168</v>
       </c>
@@ -20167,7 +20179,7 @@
       <c r="M171" s="9"/>
       <c r="N171" s="11"/>
     </row>
-    <row r="172" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>169</v>
       </c>
@@ -20201,7 +20213,7 @@
       <c r="M172" s="9"/>
       <c r="N172" s="11"/>
     </row>
-    <row r="173" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>170</v>
       </c>
@@ -20235,7 +20247,7 @@
       <c r="M173" s="9"/>
       <c r="N173" s="11"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>171</v>
       </c>
@@ -20269,7 +20281,7 @@
       <c r="M174" s="9"/>
       <c r="N174" s="11"/>
     </row>
-    <row r="175" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>172</v>
       </c>
@@ -20307,7 +20319,7 @@
       <c r="M175" s="9"/>
       <c r="N175" s="11"/>
     </row>
-    <row r="176" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>173</v>
       </c>
@@ -20341,7 +20353,7 @@
       <c r="M176" s="9"/>
       <c r="N176" s="11"/>
     </row>
-    <row r="177" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>174</v>
       </c>
@@ -20375,7 +20387,7 @@
       <c r="M177" s="9"/>
       <c r="N177" s="11"/>
     </row>
-    <row r="178" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>175</v>
       </c>
@@ -20409,7 +20421,7 @@
       <c r="M178" s="9"/>
       <c r="N178" s="11"/>
     </row>
-    <row r="179" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>176</v>
       </c>
@@ -20443,7 +20455,7 @@
       <c r="M179" s="9"/>
       <c r="N179" s="11"/>
     </row>
-    <row r="180" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>177</v>
       </c>
@@ -20477,7 +20489,7 @@
       <c r="M180" s="9"/>
       <c r="N180" s="11"/>
     </row>
-    <row r="181" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>178</v>
       </c>
@@ -20511,7 +20523,7 @@
       <c r="M181" s="9"/>
       <c r="N181" s="11"/>
     </row>
-    <row r="182" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>179</v>
       </c>
@@ -20549,7 +20561,7 @@
       <c r="M182" s="9"/>
       <c r="N182" s="11"/>
     </row>
-    <row r="183" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>180</v>
       </c>
@@ -20583,7 +20595,7 @@
       <c r="M183" s="9"/>
       <c r="N183" s="11"/>
     </row>
-    <row r="184" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>181</v>
       </c>
@@ -20617,7 +20629,7 @@
       <c r="M184" s="9"/>
       <c r="N184" s="11"/>
     </row>
-    <row r="185" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>182</v>
       </c>
@@ -20651,7 +20663,7 @@
       <c r="M185" s="9"/>
       <c r="N185" s="11"/>
     </row>
-    <row r="186" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>183</v>
       </c>
@@ -20687,7 +20699,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>184</v>
       </c>
@@ -20723,7 +20735,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>185</v>
       </c>
@@ -20755,7 +20767,7 @@
       <c r="M188" s="9"/>
       <c r="N188" s="11"/>
     </row>
-    <row r="189" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>186</v>
       </c>
@@ -20787,7 +20799,7 @@
       <c r="M189" s="9"/>
       <c r="N189" s="11"/>
     </row>
-    <row r="190" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>187</v>
       </c>
@@ -20819,7 +20831,7 @@
       <c r="M190" s="9"/>
       <c r="N190" s="11"/>
     </row>
-    <row r="191" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>188</v>
       </c>
@@ -20851,7 +20863,7 @@
       <c r="M191" s="9"/>
       <c r="N191" s="11"/>
     </row>
-    <row r="192" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>189</v>
       </c>
@@ -20883,7 +20895,7 @@
       <c r="M192" s="9"/>
       <c r="N192" s="11"/>
     </row>
-    <row r="193" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>190</v>
       </c>
@@ -20915,7 +20927,7 @@
       <c r="M193" s="9"/>
       <c r="N193" s="11"/>
     </row>
-    <row r="194" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>191</v>
       </c>
@@ -20947,7 +20959,7 @@
       <c r="M194" s="9"/>
       <c r="N194" s="11"/>
     </row>
-    <row r="195" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>192</v>
       </c>
@@ -20979,7 +20991,7 @@
       <c r="M195" s="9"/>
       <c r="N195" s="11"/>
     </row>
-    <row r="196" spans="1:16" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>193</v>
       </c>
@@ -21011,7 +21023,7 @@
       <c r="M196" s="9"/>
       <c r="N196" s="11"/>
     </row>
-    <row r="197" spans="1:16" s="36" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" s="36" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A197" s="36">
         <v>194</v>
       </c>
@@ -21032,7 +21044,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="36">
         <v>195</v>
       </c>
@@ -21072,7 +21084,7 @@
       <c r="O198" s="37"/>
       <c r="P198" s="36"/>
     </row>
-    <row r="199" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="36">
         <v>196</v>
       </c>
@@ -21112,7 +21124,7 @@
       <c r="O199" s="37"/>
       <c r="P199" s="36"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="36"/>
       <c r="B200" s="37"/>
       <c r="C200" s="36"/>
@@ -21130,7 +21142,7 @@
       <c r="O200" s="37"/>
       <c r="P200" s="36"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="36"/>
       <c r="B201" s="37"/>
       <c r="C201" s="36"/>
@@ -21148,7 +21160,7 @@
       <c r="O201" s="37"/>
       <c r="P201" s="36"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="36"/>
       <c r="B202" s="37"/>
       <c r="C202" s="36"/>
@@ -21166,7 +21178,7 @@
       <c r="O202" s="37"/>
       <c r="P202" s="36"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="36"/>
       <c r="B203" s="37"/>
       <c r="C203" s="36"/>
@@ -21184,7 +21196,7 @@
       <c r="O203" s="37"/>
       <c r="P203" s="36"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="36"/>
       <c r="B204" s="37"/>
       <c r="C204" s="36"/>
@@ -21202,7 +21214,7 @@
       <c r="O204" s="37"/>
       <c r="P204" s="36"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="36"/>
       <c r="B205" s="37"/>
       <c r="C205" s="36"/>
@@ -21220,7 +21232,7 @@
       <c r="O205" s="37"/>
       <c r="P205" s="36"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="36"/>
       <c r="B206" s="37"/>
       <c r="C206" s="36"/>
@@ -21238,7 +21250,7 @@
       <c r="O206" s="37"/>
       <c r="P206" s="36"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="36"/>
       <c r="B207" s="37"/>
       <c r="C207" s="36"/>
@@ -21256,7 +21268,7 @@
       <c r="O207" s="37"/>
       <c r="P207" s="36"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="36"/>
       <c r="B208" s="37"/>
       <c r="C208" s="36"/>
@@ -21274,7 +21286,7 @@
       <c r="O208" s="37"/>
       <c r="P208" s="36"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="36"/>
       <c r="B209" s="37"/>
       <c r="C209" s="36"/>
@@ -21292,7 +21304,7 @@
       <c r="O209" s="37"/>
       <c r="P209" s="36"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="36"/>
       <c r="B210" s="37"/>
       <c r="C210" s="36"/>
@@ -21310,7 +21322,7 @@
       <c r="O210" s="37"/>
       <c r="P210" s="36"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="36"/>
       <c r="B211" s="37"/>
       <c r="C211" s="36"/>
@@ -21328,7 +21340,7 @@
       <c r="O211" s="37"/>
       <c r="P211" s="36"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="36"/>
       <c r="B212" s="37"/>
       <c r="C212" s="36"/>
@@ -21346,7 +21358,7 @@
       <c r="O212" s="37"/>
       <c r="P212" s="36"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="36"/>
       <c r="B213" s="37"/>
       <c r="C213" s="36"/>
@@ -21364,7 +21376,7 @@
       <c r="O213" s="37"/>
       <c r="P213" s="36"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="36"/>
       <c r="B214" s="37"/>
       <c r="C214" s="36"/>
@@ -21382,7 +21394,7 @@
       <c r="O214" s="37"/>
       <c r="P214" s="36"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="36"/>
       <c r="B215" s="37"/>
       <c r="C215" s="36"/>
@@ -21400,7 +21412,7 @@
       <c r="O215" s="37"/>
       <c r="P215" s="36"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="36"/>
       <c r="B216" s="37"/>
       <c r="C216" s="36"/>
@@ -21418,7 +21430,7 @@
       <c r="O216" s="37"/>
       <c r="P216" s="36"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="36"/>
       <c r="B217" s="37"/>
       <c r="C217" s="36"/>
@@ -21436,7 +21448,7 @@
       <c r="O217" s="37"/>
       <c r="P217" s="36"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="36"/>
       <c r="B218" s="37"/>
       <c r="C218" s="36"/>
@@ -21454,7 +21466,7 @@
       <c r="O218" s="37"/>
       <c r="P218" s="36"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="36"/>
       <c r="B219" s="37"/>
       <c r="C219" s="36"/>
@@ -21472,7 +21484,7 @@
       <c r="O219" s="37"/>
       <c r="P219" s="36"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="36"/>
       <c r="B220" s="37"/>
       <c r="C220" s="36"/>
@@ -21490,7 +21502,7 @@
       <c r="O220" s="37"/>
       <c r="P220" s="36"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="36"/>
       <c r="B221" s="37"/>
       <c r="C221" s="36"/>
@@ -21508,7 +21520,7 @@
       <c r="O221" s="37"/>
       <c r="P221" s="36"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="36"/>
       <c r="B222" s="37"/>
       <c r="C222" s="36"/>
@@ -21526,7 +21538,7 @@
       <c r="O222" s="37"/>
       <c r="P222" s="36"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="36"/>
       <c r="B223" s="37"/>
       <c r="C223" s="36"/>
@@ -21544,7 +21556,7 @@
       <c r="O223" s="37"/>
       <c r="P223" s="36"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="36"/>
       <c r="B224" s="37"/>
       <c r="C224" s="36"/>
@@ -21562,7 +21574,7 @@
       <c r="O224" s="37"/>
       <c r="P224" s="36"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="36"/>
       <c r="B225" s="37"/>
       <c r="C225" s="36"/>
@@ -21580,7 +21592,7 @@
       <c r="O225" s="37"/>
       <c r="P225" s="36"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="36"/>
       <c r="B226" s="37"/>
       <c r="C226" s="36"/>
@@ -21598,7 +21610,7 @@
       <c r="O226" s="37"/>
       <c r="P226" s="36"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="36"/>
       <c r="B227" s="37"/>
       <c r="C227" s="36"/>
@@ -21616,7 +21628,7 @@
       <c r="O227" s="37"/>
       <c r="P227" s="36"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="36"/>
       <c r="B228" s="37"/>
       <c r="C228" s="36"/>
@@ -21634,7 +21646,7 @@
       <c r="O228" s="37"/>
       <c r="P228" s="36"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="36"/>
       <c r="B229" s="37"/>
       <c r="C229" s="36"/>
@@ -21652,7 +21664,7 @@
       <c r="O229" s="37"/>
       <c r="P229" s="36"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="36"/>
       <c r="B230" s="37"/>
       <c r="C230" s="36"/>
@@ -21670,7 +21682,7 @@
       <c r="O230" s="37"/>
       <c r="P230" s="36"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="36"/>
       <c r="B231" s="37"/>
       <c r="C231" s="36"/>
@@ -21688,7 +21700,7 @@
       <c r="O231" s="37"/>
       <c r="P231" s="36"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="36"/>
       <c r="B232" s="37"/>
       <c r="C232" s="36"/>
@@ -21706,7 +21718,7 @@
       <c r="O232" s="37"/>
       <c r="P232" s="36"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="36"/>
       <c r="B233" s="37"/>
       <c r="C233" s="36"/>
@@ -21724,7 +21736,7 @@
       <c r="O233" s="37"/>
       <c r="P233" s="36"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="36"/>
       <c r="B234" s="37"/>
       <c r="C234" s="36"/>
@@ -21742,7 +21754,7 @@
       <c r="O234" s="37"/>
       <c r="P234" s="36"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="36"/>
       <c r="B235" s="37"/>
       <c r="C235" s="36"/>
@@ -21760,7 +21772,7 @@
       <c r="O235" s="37"/>
       <c r="P235" s="36"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="36"/>
       <c r="B236" s="37"/>
       <c r="C236" s="36"/>
@@ -21778,7 +21790,7 @@
       <c r="O236" s="37"/>
       <c r="P236" s="36"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="36"/>
       <c r="B237" s="37"/>
       <c r="C237" s="36"/>
@@ -21796,7 +21808,7 @@
       <c r="O237" s="37"/>
       <c r="P237" s="36"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="36"/>
       <c r="B238" s="37"/>
       <c r="C238" s="36"/>
@@ -21814,7 +21826,7 @@
       <c r="O238" s="37"/>
       <c r="P238" s="36"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="36"/>
       <c r="B239" s="37"/>
       <c r="C239" s="36"/>
@@ -21832,7 +21844,7 @@
       <c r="O239" s="37"/>
       <c r="P239" s="36"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="36"/>
       <c r="B240" s="37"/>
       <c r="C240" s="36"/>
@@ -21850,7 +21862,7 @@
       <c r="O240" s="37"/>
       <c r="P240" s="36"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="36"/>
       <c r="B241" s="37"/>
       <c r="C241" s="36"/>
@@ -21868,7 +21880,7 @@
       <c r="O241" s="37"/>
       <c r="P241" s="36"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="36"/>
       <c r="B242" s="37"/>
       <c r="C242" s="36"/>
@@ -21886,7 +21898,7 @@
       <c r="O242" s="37"/>
       <c r="P242" s="36"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="36"/>
       <c r="B243" s="37"/>
       <c r="C243" s="36"/>
@@ -21904,7 +21916,7 @@
       <c r="O243" s="37"/>
       <c r="P243" s="36"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="36"/>
       <c r="B244" s="37"/>
       <c r="C244" s="36"/>
@@ -21922,7 +21934,7 @@
       <c r="O244" s="37"/>
       <c r="P244" s="36"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="36"/>
       <c r="B245" s="37"/>
       <c r="C245" s="36"/>
@@ -21940,7 +21952,7 @@
       <c r="O245" s="37"/>
       <c r="P245" s="36"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="36"/>
       <c r="B246" s="37"/>
       <c r="C246" s="36"/>
@@ -21958,7 +21970,7 @@
       <c r="O246" s="37"/>
       <c r="P246" s="36"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="36"/>
       <c r="B247" s="37"/>
       <c r="C247" s="36"/>
@@ -21976,7 +21988,7 @@
       <c r="O247" s="37"/>
       <c r="P247" s="36"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="36"/>
       <c r="B248" s="37"/>
       <c r="C248" s="36"/>
@@ -21994,7 +22006,7 @@
       <c r="O248" s="37"/>
       <c r="P248" s="36"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="36"/>
       <c r="B249" s="37"/>
       <c r="C249" s="36"/>
@@ -22012,7 +22024,7 @@
       <c r="O249" s="37"/>
       <c r="P249" s="36"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="36"/>
       <c r="B250" s="37"/>
       <c r="C250" s="36"/>
@@ -22030,7 +22042,7 @@
       <c r="O250" s="37"/>
       <c r="P250" s="36"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="36"/>
       <c r="B251" s="37"/>
       <c r="C251" s="36"/>
@@ -22048,7 +22060,7 @@
       <c r="O251" s="37"/>
       <c r="P251" s="36"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="36"/>
       <c r="B252" s="37"/>
       <c r="C252" s="36"/>
@@ -22066,7 +22078,7 @@
       <c r="O252" s="37"/>
       <c r="P252" s="36"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="36"/>
       <c r="B253" s="37"/>
       <c r="C253" s="36"/>
@@ -22084,7 +22096,7 @@
       <c r="O253" s="37"/>
       <c r="P253" s="36"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="36"/>
       <c r="B254" s="37"/>
       <c r="C254" s="36"/>
@@ -22102,7 +22114,7 @@
       <c r="O254" s="37"/>
       <c r="P254" s="36"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="36"/>
       <c r="B255" s="37"/>
       <c r="C255" s="36"/>
@@ -22120,7 +22132,7 @@
       <c r="O255" s="37"/>
       <c r="P255" s="36"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="36"/>
       <c r="B256" s="37"/>
       <c r="C256" s="36"/>
@@ -22138,7 +22150,7 @@
       <c r="O256" s="37"/>
       <c r="P256" s="36"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="36"/>
       <c r="B257" s="37"/>
       <c r="C257" s="36"/>
@@ -22156,7 +22168,7 @@
       <c r="O257" s="37"/>
       <c r="P257" s="36"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="36"/>
       <c r="B258" s="37"/>
       <c r="C258" s="36"/>
@@ -22174,7 +22186,7 @@
       <c r="O258" s="37"/>
       <c r="P258" s="36"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="36"/>
       <c r="B259" s="37"/>
       <c r="C259" s="36"/>
@@ -22192,352 +22204,352 @@
       <c r="O259" s="37"/>
       <c r="P259" s="36"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D260" s="8"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D261" s="8"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D262" s="8"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D263" s="8"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D264" s="8"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D265" s="8"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D266" s="8"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D267" s="8"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D268" s="8"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D269" s="8"/>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D270" s="8"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D271" s="8"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D272" s="8"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" s="8"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" s="8"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" s="8"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" s="8"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" s="8"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" s="8"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" s="8"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" s="8"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" s="8"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" s="8"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" s="8"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" s="8"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" s="8"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" s="8"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" s="8"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" s="8"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D289" s="8"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D290" s="8"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D291" s="8"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D292" s="8"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D293" s="8"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D294" s="8"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D295" s="8"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D296" s="8"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D297" s="8"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D298" s="8"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D299" s="8"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D300" s="8"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D301" s="8"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D302" s="8"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D303" s="8"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D304" s="8"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D305" s="8"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D306" s="8"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D307" s="8"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D308" s="8"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D309" s="8"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D310" s="8"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D311" s="8"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D312" s="8"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D313" s="8"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D315" s="8"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D316" s="8"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D317" s="8"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D318" s="8"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D319" s="8"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D320" s="8"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D321" s="8"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D322" s="8"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D323" s="8"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D324" s="8"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D325" s="8"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D326" s="8"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D327" s="8"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D328" s="8"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D329" s="8"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D330" s="8"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D331" s="8"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D332" s="8"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D333" s="8"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D334" s="8"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D335" s="8"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D336" s="8"/>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D337" s="8"/>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D338" s="8"/>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D339" s="8"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D340" s="8"/>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D341" s="8"/>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D342" s="8"/>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D343" s="8"/>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D344" s="8"/>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D345" s="8"/>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D346" s="8"/>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D347" s="8"/>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D348" s="8"/>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D349" s="8"/>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D350" s="8"/>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D351" s="8"/>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D352" s="8"/>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D353" s="8"/>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D354" s="8"/>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D355" s="8"/>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D356" s="8"/>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D357" s="8"/>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D358" s="8"/>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D359" s="8"/>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D360" s="8"/>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D361" s="8"/>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D362" s="8"/>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D363" s="8"/>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D364" s="8"/>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D365" s="8"/>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D366" s="8"/>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D367" s="8"/>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D368" s="8"/>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D369" s="8"/>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D370" s="8"/>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D371" s="8"/>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D372" s="8"/>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D373" s="8"/>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D374" s="8"/>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D375" s="8"/>
     </row>
   </sheetData>
@@ -22556,32 +22568,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="47" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="59.5546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="2"/>
-    <col min="13" max="13" width="27.6640625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="20.33203125" style="64"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="47" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="59.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="2"/>
+    <col min="13" max="13" width="27.7109375" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="20.28515625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>472</v>
       </c>
@@ -22598,7 +22610,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>473</v>
       </c>
@@ -22639,7 +22651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -22678,7 +22690,7 @@
       </c>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -22717,7 +22729,7 @@
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -22756,7 +22768,7 @@
       </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -22795,7 +22807,7 @@
       </c>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -22830,7 +22842,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -22869,7 +22881,7 @@
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -22908,7 +22920,7 @@
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -22947,7 +22959,7 @@
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -22986,7 +22998,7 @@
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -23025,7 +23037,7 @@
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="386.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="399" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -23064,7 +23076,7 @@
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -23103,7 +23115,7 @@
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -23142,7 +23154,7 @@
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -23181,7 +23193,7 @@
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -23220,7 +23232,7 @@
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -23259,7 +23271,7 @@
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -23298,7 +23310,7 @@
       </c>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -23337,7 +23349,7 @@
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -23376,7 +23388,7 @@
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -23415,7 +23427,7 @@
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -23454,7 +23466,7 @@
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -23493,7 +23505,7 @@
       </c>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -23532,7 +23544,7 @@
       </c>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -23571,7 +23583,7 @@
       </c>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -23610,7 +23622,7 @@
       </c>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -23645,7 +23657,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -23684,7 +23696,7 @@
       </c>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -23723,7 +23735,7 @@
       </c>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -23758,7 +23770,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -23793,7 +23805,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -23832,7 +23844,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -23871,7 +23883,7 @@
       </c>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -23910,7 +23922,7 @@
       </c>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -23945,7 +23957,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -23984,7 +23996,7 @@
       </c>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -24023,7 +24035,7 @@
       </c>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -24062,7 +24074,7 @@
       </c>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -24101,7 +24113,7 @@
       </c>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="1:13" s="4" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -24140,7 +24152,7 @@
       </c>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -24175,7 +24187,7 @@
       <c r="L42" s="9"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" ht="262.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -24214,7 +24226,7 @@
       </c>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -24253,7 +24265,7 @@
       </c>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -24292,7 +24304,7 @@
       </c>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -24331,7 +24343,7 @@
       </c>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -24366,7 +24378,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -24405,7 +24417,7 @@
       </c>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -24444,7 +24456,7 @@
       </c>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -24483,7 +24495,7 @@
       </c>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -24522,7 +24534,7 @@
       </c>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -24561,7 +24573,7 @@
       </c>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -24596,7 +24608,7 @@
       <c r="L53" s="9"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -24635,7 +24647,7 @@
       </c>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -24670,7 +24682,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -24705,7 +24717,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="11"/>
     </row>
-    <row r="57" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -24740,7 +24752,7 @@
       <c r="L57" s="9"/>
       <c r="M57" s="11"/>
     </row>
-    <row r="58" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -24775,7 +24787,7 @@
       <c r="L58" s="9"/>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -24814,7 +24826,7 @@
       </c>
       <c r="M59" s="11"/>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -24853,7 +24865,7 @@
       </c>
       <c r="M60" s="11"/>
     </row>
-    <row r="61" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -24888,7 +24900,7 @@
       <c r="L61" s="9"/>
       <c r="M61" s="11"/>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -24927,7 +24939,7 @@
       </c>
       <c r="M62" s="11"/>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -24966,7 +24978,7 @@
       </c>
       <c r="M63" s="11"/>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -25005,7 +25017,7 @@
       </c>
       <c r="M64" s="11"/>
     </row>
-    <row r="65" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="114" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -25040,7 +25052,7 @@
       <c r="L65" s="9"/>
       <c r="M65" s="11"/>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -25079,7 +25091,7 @@
       </c>
       <c r="M66" s="11"/>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="171" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -25118,7 +25130,7 @@
       </c>
       <c r="M67" s="11"/>
     </row>
-    <row r="68" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -25153,7 +25165,7 @@
       <c r="L68" s="9"/>
       <c r="M68" s="11"/>
     </row>
-    <row r="69" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -25188,7 +25200,7 @@
       <c r="L69" s="9"/>
       <c r="M69" s="11"/>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -25227,7 +25239,7 @@
       </c>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -25266,7 +25278,7 @@
       </c>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -25305,7 +25317,7 @@
       </c>
       <c r="M72" s="11"/>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -25344,7 +25356,7 @@
       </c>
       <c r="M73" s="11"/>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -25383,7 +25395,7 @@
       </c>
       <c r="M74" s="11"/>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -25422,7 +25434,7 @@
       </c>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -25461,7 +25473,7 @@
       </c>
       <c r="M76" s="11"/>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -25500,7 +25512,7 @@
       </c>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -25539,7 +25551,7 @@
       </c>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -25578,7 +25590,7 @@
       </c>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -25617,7 +25629,7 @@
       </c>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -25652,7 +25664,7 @@
       <c r="L81" s="9"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -25687,7 +25699,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -25722,7 +25734,7 @@
       <c r="L83" s="9"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -25757,7 +25769,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -25796,7 +25808,7 @@
       </c>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -25831,7 +25843,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -25870,7 +25882,7 @@
       </c>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -25905,7 +25917,7 @@
       <c r="L88" s="9"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -25944,7 +25956,7 @@
       </c>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -25979,7 +25991,7 @@
       <c r="L90" s="9"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -26018,7 +26030,7 @@
       </c>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -26057,7 +26069,7 @@
       </c>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -26092,7 +26104,7 @@
       <c r="L93" s="9"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -26131,7 +26143,7 @@
       </c>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -26166,7 +26178,7 @@
       <c r="L95" s="9"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>94</v>
       </c>
@@ -26201,7 +26213,7 @@
       <c r="L96" s="9"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>95</v>
       </c>
@@ -26236,7 +26248,7 @@
       <c r="L97" s="9"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -26275,7 +26287,7 @@
       </c>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>97</v>
       </c>
@@ -26310,7 +26322,7 @@
       <c r="L99" s="9"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>98</v>
       </c>
@@ -26349,7 +26361,7 @@
       </c>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>99</v>
       </c>
@@ -26384,7 +26396,7 @@
       <c r="L101" s="9"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>100</v>
       </c>
@@ -26419,7 +26431,7 @@
       <c r="L102" s="9"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>101</v>
       </c>
@@ -26458,7 +26470,7 @@
       </c>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>102</v>
       </c>
@@ -26497,7 +26509,7 @@
       </c>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="171" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>103</v>
       </c>
@@ -26532,7 +26544,7 @@
       <c r="L105" s="8"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>104</v>
       </c>
@@ -26571,7 +26583,7 @@
       </c>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>105</v>
       </c>
@@ -26610,7 +26622,7 @@
       </c>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>106</v>
       </c>
@@ -26649,7 +26661,7 @@
       </c>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>107</v>
       </c>
@@ -26688,7 +26700,7 @@
       </c>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>108</v>
       </c>
@@ -26727,7 +26739,7 @@
       </c>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>109</v>
       </c>
@@ -26766,7 +26778,7 @@
       </c>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>110</v>
       </c>
@@ -26805,7 +26817,7 @@
       </c>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>111</v>
       </c>
@@ -26844,7 +26856,7 @@
       </c>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" s="1" customFormat="1" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>112</v>
       </c>
@@ -26883,7 +26895,7 @@
       </c>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>113</v>
       </c>
@@ -26922,7 +26934,7 @@
       </c>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>114</v>
       </c>
@@ -26961,7 +26973,7 @@
       </c>
       <c r="M116" s="11"/>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>115</v>
       </c>
@@ -27000,7 +27012,7 @@
       </c>
       <c r="M117" s="11"/>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="1" customFormat="1" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>116</v>
       </c>
@@ -27039,7 +27051,7 @@
       </c>
       <c r="M118" s="11"/>
     </row>
-    <row r="119" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>117</v>
       </c>
@@ -27078,7 +27090,7 @@
       </c>
       <c r="M119" s="11"/>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>118</v>
       </c>
@@ -27117,7 +27129,7 @@
       </c>
       <c r="M120" s="11"/>
     </row>
-    <row r="121" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>119</v>
       </c>
@@ -27156,7 +27168,7 @@
       </c>
       <c r="M121" s="11"/>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>120</v>
       </c>
@@ -27195,7 +27207,7 @@
       </c>
       <c r="M122" s="11"/>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>121</v>
       </c>
@@ -27234,7 +27246,7 @@
       </c>
       <c r="M123" s="11"/>
     </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>122</v>
       </c>
@@ -27273,7 +27285,7 @@
       </c>
       <c r="M124" s="11"/>
     </row>
-    <row r="125" spans="1:13" s="1" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" s="1" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>123</v>
       </c>
@@ -27312,7 +27324,7 @@
       </c>
       <c r="M125" s="11"/>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>124</v>
       </c>
@@ -27347,7 +27359,7 @@
       <c r="L126" s="9"/>
       <c r="M126" s="11"/>
     </row>
-    <row r="127" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>125</v>
       </c>
@@ -27386,7 +27398,7 @@
       </c>
       <c r="M127" s="11"/>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>126</v>
       </c>
@@ -27425,7 +27437,7 @@
       </c>
       <c r="M128" s="11"/>
     </row>
-    <row r="129" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>127</v>
       </c>
@@ -27464,7 +27476,7 @@
       </c>
       <c r="M129" s="11"/>
     </row>
-    <row r="130" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>128</v>
       </c>
@@ -27499,7 +27511,7 @@
       <c r="L130" s="8"/>
       <c r="M130" s="11"/>
     </row>
-    <row r="131" spans="1:13" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>129</v>
       </c>
@@ -27538,7 +27550,7 @@
       </c>
       <c r="M131" s="11"/>
     </row>
-    <row r="132" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>130</v>
       </c>
@@ -27577,7 +27589,7 @@
       </c>
       <c r="M132" s="11"/>
     </row>
-    <row r="133" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>131</v>
       </c>
@@ -27616,7 +27628,7 @@
       </c>
       <c r="M133" s="11"/>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>132</v>
       </c>
@@ -27655,7 +27667,7 @@
       </c>
       <c r="M134" s="11"/>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>133</v>
       </c>
@@ -27694,7 +27706,7 @@
       </c>
       <c r="M135" s="11"/>
     </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>134</v>
       </c>
@@ -27733,7 +27745,7 @@
       </c>
       <c r="M136" s="11"/>
     </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>135</v>
       </c>
@@ -27768,7 +27780,7 @@
       <c r="L137" s="8"/>
       <c r="M137" s="11"/>
     </row>
-    <row r="138" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>136</v>
       </c>
@@ -27807,7 +27819,7 @@
       </c>
       <c r="M138" s="11"/>
     </row>
-    <row r="139" spans="1:13" ht="149.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="149.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>137</v>
       </c>
@@ -27842,7 +27854,7 @@
       <c r="L139" s="8"/>
       <c r="M139" s="11"/>
     </row>
-    <row r="140" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>138</v>
       </c>
@@ -27873,7 +27885,7 @@
       <c r="L140" s="8"/>
       <c r="M140" s="11"/>
     </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>139</v>
       </c>
@@ -27904,7 +27916,7 @@
       <c r="L141" s="8"/>
       <c r="M141" s="11"/>
     </row>
-    <row r="142" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>140</v>
       </c>
@@ -27935,7 +27947,7 @@
       <c r="L142" s="8"/>
       <c r="M142" s="11"/>
     </row>
-    <row r="143" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>141</v>
       </c>
@@ -27966,7 +27978,7 @@
       <c r="L143" s="9"/>
       <c r="M143" s="11"/>
     </row>
-    <row r="144" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>142</v>
       </c>
@@ -27997,7 +28009,7 @@
       <c r="L144" s="8"/>
       <c r="M144" s="11"/>
     </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>143</v>
       </c>
@@ -28028,7 +28040,7 @@
       <c r="L145" s="55"/>
       <c r="M145" s="59"/>
     </row>
-    <row r="146" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>144</v>
       </c>
@@ -28063,7 +28075,7 @@
       </c>
       <c r="M146" s="11"/>
     </row>
-    <row r="147" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>145</v>
       </c>
@@ -28098,7 +28110,7 @@
       </c>
       <c r="M147" s="11"/>
     </row>
-    <row r="148" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>146</v>
       </c>
@@ -28133,7 +28145,7 @@
       </c>
       <c r="M148" s="11"/>
     </row>
-    <row r="149" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>147</v>
       </c>
@@ -28168,7 +28180,7 @@
       </c>
       <c r="M149" s="11"/>
     </row>
-    <row r="150" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>148</v>
       </c>
@@ -28203,7 +28215,7 @@
       </c>
       <c r="M150" s="11"/>
     </row>
-    <row r="151" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>149</v>
       </c>
@@ -28237,7 +28249,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>150</v>
       </c>
@@ -28271,7 +28283,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>151</v>
       </c>
@@ -28306,7 +28318,7 @@
       </c>
       <c r="M153" s="11"/>
     </row>
-    <row r="154" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>152</v>
       </c>
@@ -28341,7 +28353,7 @@
       </c>
       <c r="M154" s="11"/>
     </row>
-    <row r="155" spans="1:13" s="1" customFormat="1" ht="207" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>153</v>
       </c>
@@ -28372,7 +28384,7 @@
       <c r="L155" s="9"/>
       <c r="M155" s="11"/>
     </row>
-    <row r="156" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>154</v>
       </c>
@@ -28407,7 +28419,7 @@
       </c>
       <c r="M156" s="11"/>
     </row>
-    <row r="157" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>155</v>
       </c>
@@ -28442,7 +28454,7 @@
       </c>
       <c r="M157" s="11"/>
     </row>
-    <row r="158" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>156</v>
       </c>
@@ -28473,7 +28485,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="11"/>
     </row>
-    <row r="159" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>157</v>
       </c>
@@ -28504,7 +28516,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="11"/>
     </row>
-    <row r="160" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>158</v>
       </c>
@@ -28539,7 +28551,7 @@
       </c>
       <c r="M160" s="11"/>
     </row>
-    <row r="161" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>159</v>
       </c>
@@ -28574,7 +28586,7 @@
       </c>
       <c r="M161" s="11"/>
     </row>
-    <row r="162" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>160</v>
       </c>
@@ -28609,7 +28621,7 @@
       </c>
       <c r="M162" s="11"/>
     </row>
-    <row r="163" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>161</v>
       </c>
@@ -28644,7 +28656,7 @@
       </c>
       <c r="M163" s="63"/>
     </row>
-    <row r="164" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>162</v>
       </c>
@@ -28679,7 +28691,7 @@
       </c>
       <c r="M164" s="63"/>
     </row>
-    <row r="165" spans="1:13" ht="69" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>163</v>
       </c>
@@ -28714,7 +28726,7 @@
       </c>
       <c r="M165" s="63"/>
     </row>
-    <row r="166" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>164</v>
       </c>
@@ -28749,7 +28761,7 @@
       </c>
       <c r="M166" s="63"/>
     </row>
-    <row r="167" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>165</v>
       </c>
@@ -28784,7 +28796,7 @@
       </c>
       <c r="M167" s="63"/>
     </row>
-    <row r="168" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>166</v>
       </c>
@@ -28819,7 +28831,7 @@
       </c>
       <c r="M168" s="63"/>
     </row>
-    <row r="169" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>167</v>
       </c>
@@ -28854,7 +28866,7 @@
       </c>
       <c r="M169" s="63"/>
     </row>
-    <row r="170" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>168</v>
       </c>
@@ -28889,7 +28901,7 @@
       </c>
       <c r="M170" s="63"/>
     </row>
-    <row r="171" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>169</v>
       </c>
@@ -28924,7 +28936,7 @@
       </c>
       <c r="M171" s="63"/>
     </row>
-    <row r="172" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>170</v>
       </c>
@@ -28955,7 +28967,7 @@
       <c r="L172" s="63"/>
       <c r="M172" s="63"/>
     </row>
-    <row r="173" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A173" s="63">
         <v>171</v>
       </c>
@@ -28990,7 +29002,7 @@
       </c>
       <c r="M173" s="63"/>
     </row>
-    <row r="174" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A174" s="63">
         <v>172</v>
       </c>
@@ -29025,7 +29037,7 @@
       </c>
       <c r="M174" s="63"/>
     </row>
-    <row r="175" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A175" s="63">
         <v>173</v>
       </c>
@@ -29060,7 +29072,7 @@
       </c>
       <c r="M175" s="63"/>
     </row>
-    <row r="176" spans="1:13" ht="69" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A176" s="63">
         <v>174</v>
       </c>
@@ -29095,7 +29107,7 @@
       </c>
       <c r="M176" s="63"/>
     </row>
-    <row r="177" spans="1:13" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" s="24" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A177" s="23">
         <v>175</v>
       </c>
@@ -29132,7 +29144,7 @@
       </c>
       <c r="M177" s="23"/>
     </row>
-    <row r="178" spans="1:13" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" s="24" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A178" s="23">
         <v>176</v>
       </c>
@@ -29169,7 +29181,7 @@
       </c>
       <c r="M178" s="23"/>
     </row>
-    <row r="179" spans="1:13" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A179" s="63">
         <v>177</v>
       </c>
@@ -29204,7 +29216,7 @@
       </c>
       <c r="M179" s="63"/>
     </row>
-    <row r="180" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A180" s="70">
         <v>178</v>
       </c>
@@ -29239,7 +29251,7 @@
       </c>
       <c r="M180" s="70"/>
     </row>
-    <row r="181" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A181" s="63">
         <v>179</v>
       </c>
@@ -29274,7 +29286,7 @@
       </c>
       <c r="M181" s="11"/>
     </row>
-    <row r="182" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A182" s="63">
         <v>180</v>
       </c>
@@ -29309,7 +29321,7 @@
       </c>
       <c r="M182" s="11"/>
     </row>
-    <row r="183" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A183" s="63">
         <v>181</v>
       </c>
@@ -29344,7 +29356,7 @@
       </c>
       <c r="M183" s="11"/>
     </row>
-    <row r="184" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A184" s="63">
         <v>182</v>
       </c>
@@ -29379,7 +29391,7 @@
       </c>
       <c r="M184" s="11"/>
     </row>
-    <row r="185" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>183</v>
       </c>
@@ -29414,7 +29426,7 @@
       </c>
       <c r="M185" s="11"/>
     </row>
-    <row r="186" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="63">
         <v>184</v>
       </c>
@@ -29449,7 +29461,7 @@
       </c>
       <c r="M186" s="11"/>
     </row>
-    <row r="187" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A187" s="63">
         <v>185</v>
       </c>
@@ -29482,7 +29494,7 @@
       </c>
       <c r="M187" s="11"/>
     </row>
-    <row r="188" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A188" s="63">
         <v>186</v>
       </c>
@@ -29515,7 +29527,7 @@
       </c>
       <c r="M188" s="11"/>
     </row>
-    <row r="189" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A189" s="63">
         <v>187</v>
       </c>
@@ -29548,7 +29560,7 @@
       </c>
       <c r="M189" s="11"/>
     </row>
-    <row r="190" spans="1:13" ht="138" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A190" s="63">
         <v>188</v>
       </c>
@@ -29583,7 +29595,7 @@
       </c>
       <c r="M190" s="11"/>
     </row>
-    <row r="191" spans="1:13" ht="138" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A191" s="63">
         <v>189</v>
       </c>
@@ -29616,7 +29628,7 @@
       </c>
       <c r="M191" s="11"/>
     </row>
-    <row r="192" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>190</v>
       </c>
@@ -29645,7 +29657,7 @@
       <c r="L192" s="8"/>
       <c r="M192" s="11"/>
     </row>
-    <row r="193" spans="1:13" ht="268.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" ht="268.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="63">
         <v>191</v>
       </c>
@@ -29678,7 +29690,7 @@
       </c>
       <c r="M193" s="11"/>
     </row>
-    <row r="194" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A194" s="63">
         <v>192</v>
       </c>
@@ -29711,7 +29723,7 @@
       </c>
       <c r="M194" s="11"/>
     </row>
-    <row r="195" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="114" x14ac:dyDescent="0.25">
       <c r="A195" s="63">
         <v>193</v>
       </c>
@@ -29744,7 +29756,7 @@
       </c>
       <c r="M195" s="59"/>
     </row>
-    <row r="196" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A196" s="63">
         <v>194</v>
       </c>
@@ -29777,7 +29789,7 @@
       </c>
       <c r="M196" s="11"/>
     </row>
-    <row r="197" spans="1:13" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="228" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>195</v>
       </c>
@@ -29808,7 +29820,7 @@
       <c r="L197" s="8"/>
       <c r="M197" s="11"/>
     </row>
-    <row r="198" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A198" s="63">
         <v>196</v>
       </c>
@@ -29843,7 +29855,7 @@
       </c>
       <c r="M198" s="11"/>
     </row>
-    <row r="199" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>197</v>
       </c>
@@ -29874,7 +29886,7 @@
       <c r="L199" s="8"/>
       <c r="M199" s="11"/>
     </row>
-    <row r="200" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A200" s="55">
         <v>198</v>
       </c>
@@ -29903,7 +29915,7 @@
       <c r="L200" s="55"/>
       <c r="M200" s="59"/>
     </row>
-    <row r="201" spans="1:13" ht="253.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="253.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="63">
         <v>199</v>
       </c>
@@ -29938,7 +29950,7 @@
       </c>
       <c r="M201" s="11"/>
     </row>
-    <row r="202" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>200</v>
       </c>
@@ -29973,7 +29985,7 @@
       </c>
       <c r="M202" s="11"/>
     </row>
-    <row r="203" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A203" s="63">
         <v>201</v>
       </c>
@@ -30008,7 +30020,7 @@
       </c>
       <c r="M203" s="11"/>
     </row>
-    <row r="204" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A204" s="63">
         <v>202</v>
       </c>
@@ -30043,7 +30055,7 @@
       </c>
       <c r="M204" s="11"/>
     </row>
-    <row r="205" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A205" s="70">
         <v>203</v>
       </c>
@@ -30078,7 +30090,7 @@
       </c>
       <c r="M205" s="11"/>
     </row>
-    <row r="206" spans="1:13" ht="289.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A206" s="63">
         <v>204</v>
       </c>
@@ -30113,7 +30125,7 @@
       </c>
       <c r="M206" s="11"/>
     </row>
-    <row r="207" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A207" s="63">
         <v>205</v>
       </c>
@@ -30148,7 +30160,7 @@
       </c>
       <c r="M207" s="11"/>
     </row>
-    <row r="208" spans="1:13" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="63">
         <v>206</v>
       </c>
@@ -30183,7 +30195,7 @@
       </c>
       <c r="M208" s="11"/>
     </row>
-    <row r="209" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A209" s="63">
         <v>207</v>
       </c>
@@ -30218,7 +30230,7 @@
       </c>
       <c r="M209" s="11"/>
     </row>
-    <row r="210" spans="1:13" ht="138" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A210" s="63">
         <v>208</v>
       </c>
@@ -30253,7 +30265,7 @@
       </c>
       <c r="M210" s="11"/>
     </row>
-    <row r="211" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A211" s="63">
         <v>209</v>
       </c>
@@ -30288,7 +30300,7 @@
       </c>
       <c r="M211" s="11"/>
     </row>
-    <row r="212" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>210</v>
       </c>
@@ -30317,7 +30329,7 @@
       <c r="L212" s="8"/>
       <c r="M212" s="11"/>
     </row>
-    <row r="213" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A213" s="63">
         <v>211</v>
       </c>
@@ -30350,7 +30362,7 @@
       </c>
       <c r="M213" s="11"/>
     </row>
-    <row r="214" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A214" s="63">
         <v>212</v>
       </c>
@@ -30385,7 +30397,7 @@
       </c>
       <c r="M214" s="11"/>
     </row>
-    <row r="215" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A215" s="63">
         <v>213</v>
       </c>
@@ -30422,7 +30434,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A216" s="63">
         <v>214</v>
       </c>
@@ -30457,7 +30469,7 @@
       </c>
       <c r="M216" s="11"/>
     </row>
-    <row r="217" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>215</v>
       </c>
@@ -30498,7 +30510,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>216</v>
       </c>
@@ -30535,7 +30547,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>217</v>
       </c>
@@ -30572,7 +30584,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>218</v>
       </c>
@@ -30609,7 +30621,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>219</v>
       </c>
@@ -30646,7 +30658,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>220</v>
       </c>
@@ -30683,7 +30695,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>221</v>
       </c>
@@ -30720,7 +30732,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>222</v>
       </c>
@@ -30757,7 +30769,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A225" s="63">
         <v>223</v>
       </c>
@@ -30796,7 +30808,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="171" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>224</v>
       </c>
@@ -30833,7 +30845,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="171" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>225</v>
       </c>
@@ -30870,7 +30882,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="171" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>226</v>
       </c>
@@ -30907,7 +30919,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>227</v>
       </c>
@@ -30944,7 +30956,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="228" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>228</v>
       </c>
@@ -30981,7 +30993,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>229</v>
       </c>
@@ -31012,7 +31024,7 @@
       <c r="L231" s="8"/>
       <c r="M231" s="11"/>
     </row>
-    <row r="232" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>230</v>
       </c>
@@ -31041,7 +31053,7 @@
       <c r="L232" s="8"/>
       <c r="M232" s="11"/>
     </row>
-    <row r="233" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="114" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>231</v>
       </c>
@@ -31074,7 +31086,7 @@
       </c>
       <c r="M233" s="11"/>
     </row>
-    <row r="234" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>232</v>
       </c>
@@ -31109,7 +31121,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>233</v>
       </c>
@@ -31144,7 +31156,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="114" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>234</v>
       </c>
@@ -31179,7 +31191,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>235</v>
       </c>
@@ -31214,7 +31226,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>236</v>
       </c>
@@ -31249,7 +31261,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>237</v>
       </c>
@@ -31284,7 +31296,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="157.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" ht="157.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="55">
         <v>238</v>
       </c>
@@ -31319,7 +31331,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>239</v>
       </c>
@@ -31354,7 +31366,7 @@
       </c>
       <c r="M241" s="11"/>
     </row>
-    <row r="242" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>240</v>
       </c>
@@ -31389,7 +31401,7 @@
       </c>
       <c r="M242" s="11"/>
     </row>
-    <row r="243" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>241</v>
       </c>
@@ -31424,7 +31436,7 @@
       </c>
       <c r="M243" s="11"/>
     </row>
-    <row r="244" spans="1:13" ht="241.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" ht="241.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>242</v>
       </c>
@@ -31459,7 +31471,7 @@
       </c>
       <c r="M244" s="11"/>
     </row>
-    <row r="245" spans="1:13" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>243</v>
       </c>
@@ -31494,7 +31506,7 @@
       </c>
       <c r="M245" s="11"/>
     </row>
-    <row r="246" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" ht="171" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>244</v>
       </c>
@@ -31529,7 +31541,7 @@
       </c>
       <c r="M246" s="11"/>
     </row>
-    <row r="247" spans="1:13" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>245</v>
       </c>
@@ -31564,7 +31576,7 @@
       </c>
       <c r="M247" s="11"/>
     </row>
-    <row r="248" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>246</v>
       </c>
@@ -31599,7 +31611,7 @@
       </c>
       <c r="M248" s="11"/>
     </row>
-    <row r="249" spans="1:13" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="327.75" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>247</v>
       </c>
@@ -31634,7 +31646,7 @@
       </c>
       <c r="M249" s="11"/>
     </row>
-    <row r="250" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>248</v>
       </c>
@@ -31669,7 +31681,7 @@
       </c>
       <c r="M250" s="11"/>
     </row>
-    <row r="251" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" ht="114" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>249</v>
       </c>
@@ -31702,7 +31714,7 @@
       <c r="L251" s="9"/>
       <c r="M251" s="11"/>
     </row>
-    <row r="252" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>250</v>
       </c>
@@ -31731,7 +31743,7 @@
       <c r="L252" s="9"/>
       <c r="M252" s="11"/>
     </row>
-    <row r="253" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>251</v>
       </c>
@@ -31759,6 +31771,41 @@
       <c r="K253" s="8"/>
       <c r="L253" s="9"/>
       <c r="M253" s="11"/>
+    </row>
+    <row r="254" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="8">
+        <v>252</v>
+      </c>
+      <c r="B254" s="9">
+        <v>43532</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H254" s="8"/>
+      <c r="I254" s="12"/>
+      <c r="J254" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K254" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L254" s="9">
+        <v>43532</v>
+      </c>
+      <c r="M254" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M251" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -31780,7 +31827,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -31795,20 +31842,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="90.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="90.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="85"/>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>989</v>
       </c>
@@ -31819,7 +31866,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -31830,7 +31877,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -31841,7 +31888,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -31852,7 +31899,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
         <v>4</v>
       </c>
@@ -31861,7 +31908,7 @@
       </c>
       <c r="C6" s="30"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
         <v>5</v>
       </c>
@@ -31872,7 +31919,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>6</v>
       </c>
@@ -31883,7 +31930,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
     </row>
   </sheetData>
@@ -31911,14 +31958,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
@@ -31929,12 +31976,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="D4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
@@ -31945,7 +31992,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
@@ -31956,7 +32003,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
         <v>1005</v>
       </c>
@@ -31964,27 +32011,27 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F8" s="13" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F9" s="46" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F10" s="46" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F11" s="46" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F12" s="46" t="s">
         <v>466</v>
       </c>
@@ -31996,41 +32043,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -32237,10 +32249,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32263,20 +32321,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip_new_master\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{98DEB462-89FC-460B-92B6-67E606438035}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D3143A-DFAA-4B27-ABED-512DD73405FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_QueryLog_Internal" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1096">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12637,6 +12637,26 @@
   </si>
   <si>
     <t>We should not be sending UIN masked or otherwise. We should be sending a token id that refers to the UIN specifically for the requesting partner</t>
+  </si>
+  <si>
+    <t>Email Dated -11th Mar 2018 - RE: MoM - Retrieval of Lost UIN through Reg. Client - 08 Mar 19</t>
+  </si>
+  <si>
+    <t>Process Flow for Lost UIN in Registration Processor:
+a.	Perform the structural validations and other Sanity checks
+b.	Since biometrics is mandatory to be captured, perform a Biometric Dedupe (In new registration we perform demo dedupe before bio dedupe. In the Lost UIN flow, it will be vice-versa)
+a.	If one match found for bio dedupe and demo data is available, perform 1:1 demo data match with the identified matched record 
+i.	If demo data matched, pass the packet to print queue
+ii.	If demo data not matched, send for manual adjudication/reject packet?
+b.	If one match found for bio dedupe and demo data is not available
+i.	Pass the packet to print queue
+c.	If multiple matches found for bio dedupe and demo data available, perform 1:1 match with the identified records
+i.	If matched with one packet, pass the packet to print queue
+ii.	If demo data matched with multiple packets, send for manual adjudication/reject packet?
+iii.	If demo data not matched, send for manual adjudication/reject packet?
+d.	If multiple matches found for bio dedupe and demo data not available
+i.	Reject the packet
+e.	If no match found for bio dedupe, reject packet</t>
   </si>
 </sst>
 </file>
@@ -13501,25 +13521,25 @@
       <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.28515625" style="60" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.26953125" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="57" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -13537,7 +13557,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -13581,7 +13601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -13613,7 +13633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="126" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -13655,7 +13675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -13695,7 +13715,7 @@
       </c>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -13735,7 +13755,7 @@
       </c>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" ht="114" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -13777,7 +13797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -13817,7 +13837,7 @@
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -13859,7 +13879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -13899,7 +13919,7 @@
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -13939,7 +13959,7 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -13979,7 +13999,7 @@
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -14019,7 +14039,7 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -14057,7 +14077,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -14095,7 +14115,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -14133,7 +14153,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -14171,7 +14191,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -14209,7 +14229,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -14245,7 +14265,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -14283,7 +14303,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -14319,7 +14339,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -14357,7 +14377,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -14395,7 +14415,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -14433,7 +14453,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -14471,7 +14491,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -14509,7 +14529,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -14549,7 +14569,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -14589,7 +14609,7 @@
       </c>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -14627,7 +14647,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -14667,7 +14687,7 @@
       </c>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -14703,7 +14723,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -14741,7 +14761,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -14779,7 +14799,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="1:14" ht="171" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="168" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>31</v>
       </c>
@@ -14819,7 +14839,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>32</v>
       </c>
@@ -14857,7 +14877,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>33</v>
       </c>
@@ -14895,7 +14915,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>34</v>
       </c>
@@ -14933,7 +14953,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>35</v>
       </c>
@@ -14973,7 +14993,7 @@
       </c>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>36</v>
       </c>
@@ -15013,7 +15033,7 @@
       </c>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>37</v>
       </c>
@@ -15053,7 +15073,7 @@
       </c>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>38</v>
       </c>
@@ -15093,7 +15113,7 @@
       </c>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>39</v>
       </c>
@@ -15133,7 +15153,7 @@
       </c>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>40</v>
       </c>
@@ -15173,7 +15193,7 @@
       </c>
       <c r="N43" s="11"/>
     </row>
-    <row r="44" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>41</v>
       </c>
@@ -15213,7 +15233,7 @@
       </c>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>42</v>
       </c>
@@ -15253,7 +15273,7 @@
       </c>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>43</v>
       </c>
@@ -15293,7 +15313,7 @@
       </c>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="1:14" ht="114" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>44</v>
       </c>
@@ -15333,7 +15353,7 @@
       </c>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:14" ht="171" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="168" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>45</v>
       </c>
@@ -15373,7 +15393,7 @@
       </c>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>46</v>
       </c>
@@ -15413,7 +15433,7 @@
       </c>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>47</v>
       </c>
@@ -15453,7 +15473,7 @@
       </c>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="1:14" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>48</v>
       </c>
@@ -15493,7 +15513,7 @@
       </c>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>49</v>
       </c>
@@ -15533,7 +15553,7 @@
       </c>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>50</v>
       </c>
@@ -15571,7 +15591,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>51</v>
       </c>
@@ -15611,7 +15631,7 @@
       </c>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>52</v>
       </c>
@@ -15649,7 +15669,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>53</v>
       </c>
@@ -15687,7 +15707,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" spans="1:14" ht="114" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>54</v>
       </c>
@@ -15725,7 +15745,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>55</v>
       </c>
@@ -15761,7 +15781,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="11"/>
     </row>
-    <row r="59" spans="1:14" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="168" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>56</v>
       </c>
@@ -15797,7 +15817,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="11"/>
     </row>
-    <row r="60" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>57</v>
       </c>
@@ -15837,7 +15857,7 @@
       </c>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>58</v>
       </c>
@@ -15877,7 +15897,7 @@
       </c>
       <c r="N61" s="11"/>
     </row>
-    <row r="62" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>59</v>
       </c>
@@ -15917,7 +15937,7 @@
       </c>
       <c r="N62" s="11"/>
     </row>
-    <row r="63" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>60</v>
       </c>
@@ -15957,7 +15977,7 @@
       </c>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>61</v>
       </c>
@@ -15997,7 +16017,7 @@
       </c>
       <c r="N64" s="11"/>
     </row>
-    <row r="65" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>62</v>
       </c>
@@ -16037,7 +16057,7 @@
       </c>
       <c r="N65" s="11"/>
     </row>
-    <row r="66" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <v>63</v>
       </c>
@@ -16077,7 +16097,7 @@
       </c>
       <c r="N66" s="11"/>
     </row>
-    <row r="67" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A67" s="8">
         <v>64</v>
       </c>
@@ -16117,7 +16137,7 @@
       </c>
       <c r="N67" s="11"/>
     </row>
-    <row r="68" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A68" s="8">
         <v>65</v>
       </c>
@@ -16157,7 +16177,7 @@
       </c>
       <c r="N68" s="11"/>
     </row>
-    <row r="69" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>66</v>
       </c>
@@ -16197,7 +16217,7 @@
       </c>
       <c r="N69" s="11"/>
     </row>
-    <row r="70" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <v>67</v>
       </c>
@@ -16237,7 +16257,7 @@
       </c>
       <c r="N70" s="11"/>
     </row>
-    <row r="71" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A71" s="8">
         <v>68</v>
       </c>
@@ -16277,7 +16297,7 @@
       </c>
       <c r="N71" s="11"/>
     </row>
-    <row r="72" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>69</v>
       </c>
@@ -16317,7 +16337,7 @@
       </c>
       <c r="N72" s="11"/>
     </row>
-    <row r="73" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>70</v>
       </c>
@@ -16357,7 +16377,7 @@
       </c>
       <c r="N73" s="11"/>
     </row>
-    <row r="74" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>71</v>
       </c>
@@ -16397,7 +16417,7 @@
       </c>
       <c r="N74" s="11"/>
     </row>
-    <row r="75" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>72</v>
       </c>
@@ -16437,7 +16457,7 @@
       </c>
       <c r="N75" s="11"/>
     </row>
-    <row r="76" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>73</v>
       </c>
@@ -16475,7 +16495,7 @@
       </c>
       <c r="N76" s="11"/>
     </row>
-    <row r="77" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>74</v>
       </c>
@@ -16515,7 +16535,7 @@
       </c>
       <c r="N77" s="11"/>
     </row>
-    <row r="78" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>75</v>
       </c>
@@ -16555,7 +16575,7 @@
       </c>
       <c r="N78" s="11"/>
     </row>
-    <row r="79" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
         <v>76</v>
       </c>
@@ -16595,7 +16615,7 @@
       </c>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>77</v>
       </c>
@@ -16635,7 +16655,7 @@
       </c>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>78</v>
       </c>
@@ -16675,7 +16695,7 @@
       </c>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
         <v>79</v>
       </c>
@@ -16715,7 +16735,7 @@
       </c>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
         <v>80</v>
       </c>
@@ -16755,7 +16775,7 @@
       </c>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>81</v>
       </c>
@@ -16795,7 +16815,7 @@
       </c>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
         <v>82</v>
       </c>
@@ -16835,7 +16855,7 @@
       </c>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <v>83</v>
       </c>
@@ -16875,7 +16895,7 @@
       </c>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
         <v>84</v>
       </c>
@@ -16915,7 +16935,7 @@
       </c>
       <c r="N87" s="11"/>
     </row>
-    <row r="88" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>85</v>
       </c>
@@ -16955,7 +16975,7 @@
       </c>
       <c r="N88" s="11"/>
     </row>
-    <row r="89" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
         <v>86</v>
       </c>
@@ -16995,7 +17015,7 @@
       </c>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>87</v>
       </c>
@@ -17035,7 +17055,7 @@
       </c>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="8">
         <v>88</v>
       </c>
@@ -17075,7 +17095,7 @@
       </c>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>89</v>
       </c>
@@ -17115,7 +17135,7 @@
       </c>
       <c r="N92" s="11"/>
     </row>
-    <row r="93" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
         <v>90</v>
       </c>
@@ -17155,7 +17175,7 @@
       </c>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>91</v>
       </c>
@@ -17195,7 +17215,7 @@
       </c>
       <c r="N94" s="11"/>
     </row>
-    <row r="95" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
         <v>92</v>
       </c>
@@ -17235,7 +17255,7 @@
       </c>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="8">
         <v>93</v>
       </c>
@@ -17275,7 +17295,7 @@
       </c>
       <c r="N96" s="11"/>
     </row>
-    <row r="97" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A97" s="8">
         <v>94</v>
       </c>
@@ -17315,7 +17335,7 @@
       </c>
       <c r="N97" s="11"/>
     </row>
-    <row r="98" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="8">
         <v>95</v>
       </c>
@@ -17355,7 +17375,7 @@
       </c>
       <c r="N98" s="11"/>
     </row>
-    <row r="99" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A99" s="8">
         <v>96</v>
       </c>
@@ -17395,7 +17415,7 @@
       </c>
       <c r="N99" s="11"/>
     </row>
-    <row r="100" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A100" s="8">
         <v>97</v>
       </c>
@@ -17435,7 +17455,7 @@
       </c>
       <c r="N100" s="11"/>
     </row>
-    <row r="101" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A101" s="8">
         <v>98</v>
       </c>
@@ -17475,7 +17495,7 @@
       </c>
       <c r="N101" s="11"/>
     </row>
-    <row r="102" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
         <v>99</v>
       </c>
@@ -17515,7 +17535,7 @@
       </c>
       <c r="N102" s="11"/>
     </row>
-    <row r="103" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A103" s="8">
         <v>100</v>
       </c>
@@ -17555,7 +17575,7 @@
       </c>
       <c r="N103" s="11"/>
     </row>
-    <row r="104" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A104" s="8">
         <v>101</v>
       </c>
@@ -17595,7 +17615,7 @@
       </c>
       <c r="N104" s="11"/>
     </row>
-    <row r="105" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A105" s="8">
         <v>102</v>
       </c>
@@ -17635,7 +17655,7 @@
       </c>
       <c r="N105" s="11"/>
     </row>
-    <row r="106" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A106" s="8">
         <v>103</v>
       </c>
@@ -17675,7 +17695,7 @@
       </c>
       <c r="N106" s="11"/>
     </row>
-    <row r="107" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A107" s="8">
         <v>104</v>
       </c>
@@ -17715,7 +17735,7 @@
       </c>
       <c r="N107" s="11"/>
     </row>
-    <row r="108" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A108" s="8">
         <v>105</v>
       </c>
@@ -17755,7 +17775,7 @@
       </c>
       <c r="N108" s="11"/>
     </row>
-    <row r="109" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A109" s="8">
         <v>106</v>
       </c>
@@ -17795,7 +17815,7 @@
       </c>
       <c r="N109" s="11"/>
     </row>
-    <row r="110" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="8">
         <v>107</v>
       </c>
@@ -17835,7 +17855,7 @@
       </c>
       <c r="N110" s="11"/>
     </row>
-    <row r="111" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="8">
         <v>108</v>
       </c>
@@ -17875,7 +17895,7 @@
       </c>
       <c r="N111" s="11"/>
     </row>
-    <row r="112" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A112" s="8">
         <v>109</v>
       </c>
@@ -17915,7 +17935,7 @@
       </c>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A113" s="8">
         <v>110</v>
       </c>
@@ -17955,7 +17975,7 @@
       </c>
       <c r="N113" s="11"/>
     </row>
-    <row r="114" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A114" s="8">
         <v>111</v>
       </c>
@@ -17995,7 +18015,7 @@
       </c>
       <c r="N114" s="11"/>
     </row>
-    <row r="115" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A115" s="8">
         <v>112</v>
       </c>
@@ -18035,7 +18055,7 @@
       </c>
       <c r="N115" s="11"/>
     </row>
-    <row r="116" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A116" s="8">
         <v>113</v>
       </c>
@@ -18075,7 +18095,7 @@
       </c>
       <c r="N116" s="11"/>
     </row>
-    <row r="117" spans="1:14" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="126" x14ac:dyDescent="0.35">
       <c r="A117" s="8">
         <v>114</v>
       </c>
@@ -18115,7 +18135,7 @@
       </c>
       <c r="N117" s="11"/>
     </row>
-    <row r="118" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A118" s="8">
         <v>115</v>
       </c>
@@ -18155,7 +18175,7 @@
       </c>
       <c r="N118" s="11"/>
     </row>
-    <row r="119" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A119" s="8">
         <v>116</v>
       </c>
@@ -18195,7 +18215,7 @@
       </c>
       <c r="N119" s="11"/>
     </row>
-    <row r="120" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A120" s="8">
         <v>117</v>
       </c>
@@ -18235,7 +18255,7 @@
       </c>
       <c r="N120" s="11"/>
     </row>
-    <row r="121" spans="1:14" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="154" x14ac:dyDescent="0.35">
       <c r="A121" s="8">
         <v>118</v>
       </c>
@@ -18273,7 +18293,7 @@
       </c>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A122" s="8">
         <v>119</v>
       </c>
@@ -18313,7 +18333,7 @@
       </c>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A123" s="8">
         <v>120</v>
       </c>
@@ -18353,7 +18373,7 @@
       </c>
       <c r="N123" s="11"/>
     </row>
-    <row r="124" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
         <v>121</v>
       </c>
@@ -18393,7 +18413,7 @@
       </c>
       <c r="N124" s="11"/>
     </row>
-    <row r="125" spans="1:14" ht="114" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A125" s="8">
         <v>122</v>
       </c>
@@ -18433,7 +18453,7 @@
       </c>
       <c r="N125" s="11"/>
     </row>
-    <row r="126" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A126" s="8">
         <v>123</v>
       </c>
@@ -18473,7 +18493,7 @@
       </c>
       <c r="N126" s="11"/>
     </row>
-    <row r="127" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A127" s="8">
         <v>124</v>
       </c>
@@ -18513,7 +18533,7 @@
       </c>
       <c r="N127" s="11"/>
     </row>
-    <row r="128" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
         <v>125</v>
       </c>
@@ -18553,7 +18573,7 @@
       </c>
       <c r="N128" s="11"/>
     </row>
-    <row r="129" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A129" s="8">
         <v>126</v>
       </c>
@@ -18593,7 +18613,7 @@
       </c>
       <c r="N129" s="11"/>
     </row>
-    <row r="130" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
         <v>127</v>
       </c>
@@ -18633,7 +18653,7 @@
       </c>
       <c r="N130" s="11"/>
     </row>
-    <row r="131" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A131" s="8">
         <v>128</v>
       </c>
@@ -18673,7 +18693,7 @@
       </c>
       <c r="N131" s="11"/>
     </row>
-    <row r="132" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
         <v>129</v>
       </c>
@@ -18713,7 +18733,7 @@
       </c>
       <c r="N132" s="11"/>
     </row>
-    <row r="133" spans="1:14" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="154" x14ac:dyDescent="0.35">
       <c r="A133" s="8">
         <v>130</v>
       </c>
@@ -18753,7 +18773,7 @@
       </c>
       <c r="N133" s="11"/>
     </row>
-    <row r="134" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <v>131</v>
       </c>
@@ -18793,7 +18813,7 @@
       </c>
       <c r="N134" s="11"/>
     </row>
-    <row r="135" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A135" s="8">
         <v>132</v>
       </c>
@@ -18833,7 +18853,7 @@
       </c>
       <c r="N135" s="11"/>
     </row>
-    <row r="136" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A136" s="8">
         <v>133</v>
       </c>
@@ -18873,7 +18893,7 @@
       </c>
       <c r="N136" s="11"/>
     </row>
-    <row r="137" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A137" s="8">
         <v>134</v>
       </c>
@@ -18913,7 +18933,7 @@
       </c>
       <c r="N137" s="11"/>
     </row>
-    <row r="138" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
         <v>135</v>
       </c>
@@ -18953,7 +18973,7 @@
       </c>
       <c r="N138" s="11"/>
     </row>
-    <row r="139" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
         <v>136</v>
       </c>
@@ -18993,7 +19013,7 @@
       </c>
       <c r="N139" s="11"/>
     </row>
-    <row r="140" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A140" s="8">
         <v>137</v>
       </c>
@@ -19033,7 +19053,7 @@
       </c>
       <c r="N140" s="11"/>
     </row>
-    <row r="141" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A141" s="8">
         <v>138</v>
       </c>
@@ -19073,7 +19093,7 @@
       </c>
       <c r="N141" s="11"/>
     </row>
-    <row r="142" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
         <v>139</v>
       </c>
@@ -19113,7 +19133,7 @@
       </c>
       <c r="N142" s="11"/>
     </row>
-    <row r="143" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
         <v>140</v>
       </c>
@@ -19153,7 +19173,7 @@
       </c>
       <c r="N143" s="11"/>
     </row>
-    <row r="144" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
         <v>141</v>
       </c>
@@ -19193,7 +19213,7 @@
       </c>
       <c r="N144" s="11"/>
     </row>
-    <row r="145" spans="1:14" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="140" x14ac:dyDescent="0.35">
       <c r="A145" s="8">
         <v>142</v>
       </c>
@@ -19233,7 +19253,7 @@
       </c>
       <c r="N145" s="11"/>
     </row>
-    <row r="146" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A146" s="8">
         <v>143</v>
       </c>
@@ -19273,7 +19293,7 @@
       </c>
       <c r="N146" s="11"/>
     </row>
-    <row r="147" spans="1:14" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="140" x14ac:dyDescent="0.35">
       <c r="A147" s="8">
         <v>144</v>
       </c>
@@ -19313,7 +19333,7 @@
       </c>
       <c r="N147" s="11"/>
     </row>
-    <row r="148" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A148" s="8">
         <v>145</v>
       </c>
@@ -19353,7 +19373,7 @@
       </c>
       <c r="N148" s="11"/>
     </row>
-    <row r="149" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A149" s="8">
         <v>146</v>
       </c>
@@ -19393,7 +19413,7 @@
       </c>
       <c r="N149" s="11"/>
     </row>
-    <row r="150" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A150" s="8">
         <v>147</v>
       </c>
@@ -19433,7 +19453,7 @@
       </c>
       <c r="N150" s="11"/>
     </row>
-    <row r="151" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A151" s="8">
         <v>148</v>
       </c>
@@ -19473,7 +19493,7 @@
       </c>
       <c r="N151" s="11"/>
     </row>
-    <row r="152" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A152" s="8">
         <v>149</v>
       </c>
@@ -19513,7 +19533,7 @@
       </c>
       <c r="N152" s="11"/>
     </row>
-    <row r="153" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A153" s="8">
         <v>150</v>
       </c>
@@ -19553,7 +19573,7 @@
       </c>
       <c r="N153" s="11"/>
     </row>
-    <row r="154" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A154" s="8">
         <v>151</v>
       </c>
@@ -19593,7 +19613,7 @@
       </c>
       <c r="N154" s="11"/>
     </row>
-    <row r="155" spans="1:14" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" ht="126" x14ac:dyDescent="0.35">
       <c r="A155" s="8">
         <v>152</v>
       </c>
@@ -19627,7 +19647,7 @@
       <c r="M155" s="9"/>
       <c r="N155" s="11"/>
     </row>
-    <row r="156" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A156" s="8">
         <v>153</v>
       </c>
@@ -19661,7 +19681,7 @@
       <c r="M156" s="9"/>
       <c r="N156" s="11"/>
     </row>
-    <row r="157" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A157" s="8">
         <v>154</v>
       </c>
@@ -19695,7 +19715,7 @@
       <c r="M157" s="9"/>
       <c r="N157" s="11"/>
     </row>
-    <row r="158" spans="1:14" ht="171" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" ht="126" x14ac:dyDescent="0.35">
       <c r="A158" s="8">
         <v>155</v>
       </c>
@@ -19729,7 +19749,7 @@
       <c r="M158" s="9"/>
       <c r="N158" s="11"/>
     </row>
-    <row r="159" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A159" s="8">
         <v>156</v>
       </c>
@@ -19763,7 +19783,7 @@
       <c r="M159" s="9"/>
       <c r="N159" s="11"/>
     </row>
-    <row r="160" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A160" s="8">
         <v>157</v>
       </c>
@@ -19797,7 +19817,7 @@
       <c r="M160" s="9"/>
       <c r="N160" s="11"/>
     </row>
-    <row r="161" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A161" s="8">
         <v>158</v>
       </c>
@@ -19831,7 +19851,7 @@
       <c r="M161" s="9"/>
       <c r="N161" s="11"/>
     </row>
-    <row r="162" spans="1:14" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A162" s="8">
         <v>159</v>
       </c>
@@ -19865,7 +19885,7 @@
       <c r="M162" s="9"/>
       <c r="N162" s="11"/>
     </row>
-    <row r="163" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A163" s="8">
         <v>160</v>
       </c>
@@ -19903,7 +19923,7 @@
       <c r="M163" s="9"/>
       <c r="N163" s="11"/>
     </row>
-    <row r="164" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A164" s="8">
         <v>161</v>
       </c>
@@ -19941,7 +19961,7 @@
       <c r="M164" s="9"/>
       <c r="N164" s="11"/>
     </row>
-    <row r="165" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A165" s="8">
         <v>162</v>
       </c>
@@ -19975,7 +19995,7 @@
       <c r="M165" s="9"/>
       <c r="N165" s="11"/>
     </row>
-    <row r="166" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A166" s="8">
         <v>163</v>
       </c>
@@ -20009,7 +20029,7 @@
       <c r="M166" s="9"/>
       <c r="N166" s="11"/>
     </row>
-    <row r="167" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A167" s="8">
         <v>164</v>
       </c>
@@ -20043,7 +20063,7 @@
       <c r="M167" s="9"/>
       <c r="N167" s="11"/>
     </row>
-    <row r="168" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A168" s="8">
         <v>165</v>
       </c>
@@ -20077,7 +20097,7 @@
       <c r="M168" s="9"/>
       <c r="N168" s="11"/>
     </row>
-    <row r="169" spans="1:14" ht="114" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A169" s="8">
         <v>166</v>
       </c>
@@ -20111,7 +20131,7 @@
       <c r="M169" s="9"/>
       <c r="N169" s="11"/>
     </row>
-    <row r="170" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>167</v>
       </c>
@@ -20145,7 +20165,7 @@
       <c r="M170" s="9"/>
       <c r="N170" s="11"/>
     </row>
-    <row r="171" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
         <v>168</v>
       </c>
@@ -20179,7 +20199,7 @@
       <c r="M171" s="9"/>
       <c r="N171" s="11"/>
     </row>
-    <row r="172" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
         <v>169</v>
       </c>
@@ -20213,7 +20233,7 @@
       <c r="M172" s="9"/>
       <c r="N172" s="11"/>
     </row>
-    <row r="173" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A173" s="8">
         <v>170</v>
       </c>
@@ -20247,7 +20267,7 @@
       <c r="M173" s="9"/>
       <c r="N173" s="11"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
         <v>171</v>
       </c>
@@ -20281,7 +20301,7 @@
       <c r="M174" s="9"/>
       <c r="N174" s="11"/>
     </row>
-    <row r="175" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A175" s="8">
         <v>172</v>
       </c>
@@ -20319,7 +20339,7 @@
       <c r="M175" s="9"/>
       <c r="N175" s="11"/>
     </row>
-    <row r="176" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A176" s="8">
         <v>173</v>
       </c>
@@ -20353,7 +20373,7 @@
       <c r="M176" s="9"/>
       <c r="N176" s="11"/>
     </row>
-    <row r="177" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A177" s="8">
         <v>174</v>
       </c>
@@ -20387,7 +20407,7 @@
       <c r="M177" s="9"/>
       <c r="N177" s="11"/>
     </row>
-    <row r="178" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
         <v>175</v>
       </c>
@@ -20421,7 +20441,7 @@
       <c r="M178" s="9"/>
       <c r="N178" s="11"/>
     </row>
-    <row r="179" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A179" s="8">
         <v>176</v>
       </c>
@@ -20455,7 +20475,7 @@
       <c r="M179" s="9"/>
       <c r="N179" s="11"/>
     </row>
-    <row r="180" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
         <v>177</v>
       </c>
@@ -20489,7 +20509,7 @@
       <c r="M180" s="9"/>
       <c r="N180" s="11"/>
     </row>
-    <row r="181" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A181" s="8">
         <v>178</v>
       </c>
@@ -20523,7 +20543,7 @@
       <c r="M181" s="9"/>
       <c r="N181" s="11"/>
     </row>
-    <row r="182" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A182" s="8">
         <v>179</v>
       </c>
@@ -20561,7 +20581,7 @@
       <c r="M182" s="9"/>
       <c r="N182" s="11"/>
     </row>
-    <row r="183" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A183" s="8">
         <v>180</v>
       </c>
@@ -20595,7 +20615,7 @@
       <c r="M183" s="9"/>
       <c r="N183" s="11"/>
     </row>
-    <row r="184" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
         <v>181</v>
       </c>
@@ -20629,7 +20649,7 @@
       <c r="M184" s="9"/>
       <c r="N184" s="11"/>
     </row>
-    <row r="185" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
         <v>182</v>
       </c>
@@ -20663,7 +20683,7 @@
       <c r="M185" s="9"/>
       <c r="N185" s="11"/>
     </row>
-    <row r="186" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
         <v>183</v>
       </c>
@@ -20699,7 +20719,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A187" s="8">
         <v>184</v>
       </c>
@@ -20735,7 +20755,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <v>185</v>
       </c>
@@ -20767,7 +20787,7 @@
       <c r="M188" s="9"/>
       <c r="N188" s="11"/>
     </row>
-    <row r="189" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="8">
         <v>186</v>
       </c>
@@ -20799,7 +20819,7 @@
       <c r="M189" s="9"/>
       <c r="N189" s="11"/>
     </row>
-    <row r="190" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="8">
         <v>187</v>
       </c>
@@ -20831,7 +20851,7 @@
       <c r="M190" s="9"/>
       <c r="N190" s="11"/>
     </row>
-    <row r="191" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8">
         <v>188</v>
       </c>
@@ -20863,7 +20883,7 @@
       <c r="M191" s="9"/>
       <c r="N191" s="11"/>
     </row>
-    <row r="192" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>189</v>
       </c>
@@ -20895,7 +20915,7 @@
       <c r="M192" s="9"/>
       <c r="N192" s="11"/>
     </row>
-    <row r="193" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="8">
         <v>190</v>
       </c>
@@ -20927,7 +20947,7 @@
       <c r="M193" s="9"/>
       <c r="N193" s="11"/>
     </row>
-    <row r="194" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="8">
         <v>191</v>
       </c>
@@ -20959,7 +20979,7 @@
       <c r="M194" s="9"/>
       <c r="N194" s="11"/>
     </row>
-    <row r="195" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="8">
         <v>192</v>
       </c>
@@ -20991,7 +21011,7 @@
       <c r="M195" s="9"/>
       <c r="N195" s="11"/>
     </row>
-    <row r="196" spans="1:16" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="8">
         <v>193</v>
       </c>
@@ -21023,7 +21043,7 @@
       <c r="M196" s="9"/>
       <c r="N196" s="11"/>
     </row>
-    <row r="197" spans="1:16" s="36" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" s="36" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A197" s="36">
         <v>194</v>
       </c>
@@ -21044,7 +21064,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A198" s="36">
         <v>195</v>
       </c>
@@ -21084,7 +21104,7 @@
       <c r="O198" s="37"/>
       <c r="P198" s="36"/>
     </row>
-    <row r="199" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="36">
         <v>196</v>
       </c>
@@ -21124,7 +21144,7 @@
       <c r="O199" s="37"/>
       <c r="P199" s="36"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" s="36"/>
       <c r="B200" s="37"/>
       <c r="C200" s="36"/>
@@ -21142,7 +21162,7 @@
       <c r="O200" s="37"/>
       <c r="P200" s="36"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" s="36"/>
       <c r="B201" s="37"/>
       <c r="C201" s="36"/>
@@ -21160,7 +21180,7 @@
       <c r="O201" s="37"/>
       <c r="P201" s="36"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" s="36"/>
       <c r="B202" s="37"/>
       <c r="C202" s="36"/>
@@ -21178,7 +21198,7 @@
       <c r="O202" s="37"/>
       <c r="P202" s="36"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" s="36"/>
       <c r="B203" s="37"/>
       <c r="C203" s="36"/>
@@ -21196,7 +21216,7 @@
       <c r="O203" s="37"/>
       <c r="P203" s="36"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" s="36"/>
       <c r="B204" s="37"/>
       <c r="C204" s="36"/>
@@ -21214,7 +21234,7 @@
       <c r="O204" s="37"/>
       <c r="P204" s="36"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" s="36"/>
       <c r="B205" s="37"/>
       <c r="C205" s="36"/>
@@ -21232,7 +21252,7 @@
       <c r="O205" s="37"/>
       <c r="P205" s="36"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="36"/>
       <c r="B206" s="37"/>
       <c r="C206" s="36"/>
@@ -21250,7 +21270,7 @@
       <c r="O206" s="37"/>
       <c r="P206" s="36"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="36"/>
       <c r="B207" s="37"/>
       <c r="C207" s="36"/>
@@ -21268,7 +21288,7 @@
       <c r="O207" s="37"/>
       <c r="P207" s="36"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" s="36"/>
       <c r="B208" s="37"/>
       <c r="C208" s="36"/>
@@ -21286,7 +21306,7 @@
       <c r="O208" s="37"/>
       <c r="P208" s="36"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="36"/>
       <c r="B209" s="37"/>
       <c r="C209" s="36"/>
@@ -21304,7 +21324,7 @@
       <c r="O209" s="37"/>
       <c r="P209" s="36"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="36"/>
       <c r="B210" s="37"/>
       <c r="C210" s="36"/>
@@ -21322,7 +21342,7 @@
       <c r="O210" s="37"/>
       <c r="P210" s="36"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="36"/>
       <c r="B211" s="37"/>
       <c r="C211" s="36"/>
@@ -21340,7 +21360,7 @@
       <c r="O211" s="37"/>
       <c r="P211" s="36"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="36"/>
       <c r="B212" s="37"/>
       <c r="C212" s="36"/>
@@ -21358,7 +21378,7 @@
       <c r="O212" s="37"/>
       <c r="P212" s="36"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="36"/>
       <c r="B213" s="37"/>
       <c r="C213" s="36"/>
@@ -21376,7 +21396,7 @@
       <c r="O213" s="37"/>
       <c r="P213" s="36"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="36"/>
       <c r="B214" s="37"/>
       <c r="C214" s="36"/>
@@ -21394,7 +21414,7 @@
       <c r="O214" s="37"/>
       <c r="P214" s="36"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" s="36"/>
       <c r="B215" s="37"/>
       <c r="C215" s="36"/>
@@ -21412,7 +21432,7 @@
       <c r="O215" s="37"/>
       <c r="P215" s="36"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="36"/>
       <c r="B216" s="37"/>
       <c r="C216" s="36"/>
@@ -21430,7 +21450,7 @@
       <c r="O216" s="37"/>
       <c r="P216" s="36"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="36"/>
       <c r="B217" s="37"/>
       <c r="C217" s="36"/>
@@ -21448,7 +21468,7 @@
       <c r="O217" s="37"/>
       <c r="P217" s="36"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="36"/>
       <c r="B218" s="37"/>
       <c r="C218" s="36"/>
@@ -21466,7 +21486,7 @@
       <c r="O218" s="37"/>
       <c r="P218" s="36"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="36"/>
       <c r="B219" s="37"/>
       <c r="C219" s="36"/>
@@ -21484,7 +21504,7 @@
       <c r="O219" s="37"/>
       <c r="P219" s="36"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="36"/>
       <c r="B220" s="37"/>
       <c r="C220" s="36"/>
@@ -21502,7 +21522,7 @@
       <c r="O220" s="37"/>
       <c r="P220" s="36"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="36"/>
       <c r="B221" s="37"/>
       <c r="C221" s="36"/>
@@ -21520,7 +21540,7 @@
       <c r="O221" s="37"/>
       <c r="P221" s="36"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="36"/>
       <c r="B222" s="37"/>
       <c r="C222" s="36"/>
@@ -21538,7 +21558,7 @@
       <c r="O222" s="37"/>
       <c r="P222" s="36"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="36"/>
       <c r="B223" s="37"/>
       <c r="C223" s="36"/>
@@ -21556,7 +21576,7 @@
       <c r="O223" s="37"/>
       <c r="P223" s="36"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" s="36"/>
       <c r="B224" s="37"/>
       <c r="C224" s="36"/>
@@ -21574,7 +21594,7 @@
       <c r="O224" s="37"/>
       <c r="P224" s="36"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" s="36"/>
       <c r="B225" s="37"/>
       <c r="C225" s="36"/>
@@ -21592,7 +21612,7 @@
       <c r="O225" s="37"/>
       <c r="P225" s="36"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" s="36"/>
       <c r="B226" s="37"/>
       <c r="C226" s="36"/>
@@ -21610,7 +21630,7 @@
       <c r="O226" s="37"/>
       <c r="P226" s="36"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" s="36"/>
       <c r="B227" s="37"/>
       <c r="C227" s="36"/>
@@ -21628,7 +21648,7 @@
       <c r="O227" s="37"/>
       <c r="P227" s="36"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" s="36"/>
       <c r="B228" s="37"/>
       <c r="C228" s="36"/>
@@ -21646,7 +21666,7 @@
       <c r="O228" s="37"/>
       <c r="P228" s="36"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" s="36"/>
       <c r="B229" s="37"/>
       <c r="C229" s="36"/>
@@ -21664,7 +21684,7 @@
       <c r="O229" s="37"/>
       <c r="P229" s="36"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" s="36"/>
       <c r="B230" s="37"/>
       <c r="C230" s="36"/>
@@ -21682,7 +21702,7 @@
       <c r="O230" s="37"/>
       <c r="P230" s="36"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" s="36"/>
       <c r="B231" s="37"/>
       <c r="C231" s="36"/>
@@ -21700,7 +21720,7 @@
       <c r="O231" s="37"/>
       <c r="P231" s="36"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" s="36"/>
       <c r="B232" s="37"/>
       <c r="C232" s="36"/>
@@ -21718,7 +21738,7 @@
       <c r="O232" s="37"/>
       <c r="P232" s="36"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" s="36"/>
       <c r="B233" s="37"/>
       <c r="C233" s="36"/>
@@ -21736,7 +21756,7 @@
       <c r="O233" s="37"/>
       <c r="P233" s="36"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" s="36"/>
       <c r="B234" s="37"/>
       <c r="C234" s="36"/>
@@ -21754,7 +21774,7 @@
       <c r="O234" s="37"/>
       <c r="P234" s="36"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" s="36"/>
       <c r="B235" s="37"/>
       <c r="C235" s="36"/>
@@ -21772,7 +21792,7 @@
       <c r="O235" s="37"/>
       <c r="P235" s="36"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" s="36"/>
       <c r="B236" s="37"/>
       <c r="C236" s="36"/>
@@ -21790,7 +21810,7 @@
       <c r="O236" s="37"/>
       <c r="P236" s="36"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" s="36"/>
       <c r="B237" s="37"/>
       <c r="C237" s="36"/>
@@ -21808,7 +21828,7 @@
       <c r="O237" s="37"/>
       <c r="P237" s="36"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" s="36"/>
       <c r="B238" s="37"/>
       <c r="C238" s="36"/>
@@ -21826,7 +21846,7 @@
       <c r="O238" s="37"/>
       <c r="P238" s="36"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" s="36"/>
       <c r="B239" s="37"/>
       <c r="C239" s="36"/>
@@ -21844,7 +21864,7 @@
       <c r="O239" s="37"/>
       <c r="P239" s="36"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" s="36"/>
       <c r="B240" s="37"/>
       <c r="C240" s="36"/>
@@ -21862,7 +21882,7 @@
       <c r="O240" s="37"/>
       <c r="P240" s="36"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" s="36"/>
       <c r="B241" s="37"/>
       <c r="C241" s="36"/>
@@ -21880,7 +21900,7 @@
       <c r="O241" s="37"/>
       <c r="P241" s="36"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" s="36"/>
       <c r="B242" s="37"/>
       <c r="C242" s="36"/>
@@ -21898,7 +21918,7 @@
       <c r="O242" s="37"/>
       <c r="P242" s="36"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" s="36"/>
       <c r="B243" s="37"/>
       <c r="C243" s="36"/>
@@ -21916,7 +21936,7 @@
       <c r="O243" s="37"/>
       <c r="P243" s="36"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" s="36"/>
       <c r="B244" s="37"/>
       <c r="C244" s="36"/>
@@ -21934,7 +21954,7 @@
       <c r="O244" s="37"/>
       <c r="P244" s="36"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" s="36"/>
       <c r="B245" s="37"/>
       <c r="C245" s="36"/>
@@ -21952,7 +21972,7 @@
       <c r="O245" s="37"/>
       <c r="P245" s="36"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" s="36"/>
       <c r="B246" s="37"/>
       <c r="C246" s="36"/>
@@ -21970,7 +21990,7 @@
       <c r="O246" s="37"/>
       <c r="P246" s="36"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" s="36"/>
       <c r="B247" s="37"/>
       <c r="C247" s="36"/>
@@ -21988,7 +22008,7 @@
       <c r="O247" s="37"/>
       <c r="P247" s="36"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" s="36"/>
       <c r="B248" s="37"/>
       <c r="C248" s="36"/>
@@ -22006,7 +22026,7 @@
       <c r="O248" s="37"/>
       <c r="P248" s="36"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" s="36"/>
       <c r="B249" s="37"/>
       <c r="C249" s="36"/>
@@ -22024,7 +22044,7 @@
       <c r="O249" s="37"/>
       <c r="P249" s="36"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" s="36"/>
       <c r="B250" s="37"/>
       <c r="C250" s="36"/>
@@ -22042,7 +22062,7 @@
       <c r="O250" s="37"/>
       <c r="P250" s="36"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" s="36"/>
       <c r="B251" s="37"/>
       <c r="C251" s="36"/>
@@ -22060,7 +22080,7 @@
       <c r="O251" s="37"/>
       <c r="P251" s="36"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" s="36"/>
       <c r="B252" s="37"/>
       <c r="C252" s="36"/>
@@ -22078,7 +22098,7 @@
       <c r="O252" s="37"/>
       <c r="P252" s="36"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" s="36"/>
       <c r="B253" s="37"/>
       <c r="C253" s="36"/>
@@ -22096,7 +22116,7 @@
       <c r="O253" s="37"/>
       <c r="P253" s="36"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" s="36"/>
       <c r="B254" s="37"/>
       <c r="C254" s="36"/>
@@ -22114,7 +22134,7 @@
       <c r="O254" s="37"/>
       <c r="P254" s="36"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" s="36"/>
       <c r="B255" s="37"/>
       <c r="C255" s="36"/>
@@ -22132,7 +22152,7 @@
       <c r="O255" s="37"/>
       <c r="P255" s="36"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" s="36"/>
       <c r="B256" s="37"/>
       <c r="C256" s="36"/>
@@ -22150,7 +22170,7 @@
       <c r="O256" s="37"/>
       <c r="P256" s="36"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" s="36"/>
       <c r="B257" s="37"/>
       <c r="C257" s="36"/>
@@ -22168,7 +22188,7 @@
       <c r="O257" s="37"/>
       <c r="P257" s="36"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="36"/>
       <c r="B258" s="37"/>
       <c r="C258" s="36"/>
@@ -22186,7 +22206,7 @@
       <c r="O258" s="37"/>
       <c r="P258" s="36"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" s="36"/>
       <c r="B259" s="37"/>
       <c r="C259" s="36"/>
@@ -22204,352 +22224,352 @@
       <c r="O259" s="37"/>
       <c r="P259" s="36"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D260" s="8"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D261" s="8"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D262" s="8"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D263" s="8"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D264" s="8"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D265" s="8"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D266" s="8"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D267" s="8"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D268" s="8"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D269" s="8"/>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D270" s="8"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D271" s="8"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D272" s="8"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D273" s="8"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D274" s="8"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D275" s="8"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D276" s="8"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D277" s="8"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D278" s="8"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D279" s="8"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D280" s="8"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D281" s="8"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D282" s="8"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D283" s="8"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D284" s="8"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D285" s="8"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D286" s="8"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D287" s="8"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D288" s="8"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D289" s="8"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D290" s="8"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D291" s="8"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D292" s="8"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D293" s="8"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D294" s="8"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D295" s="8"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D296" s="8"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D297" s="8"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D298" s="8"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D299" s="8"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D300" s="8"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D301" s="8"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D302" s="8"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D303" s="8"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D304" s="8"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D305" s="8"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D306" s="8"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D307" s="8"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D308" s="8"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D309" s="8"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D310" s="8"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D311" s="8"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D312" s="8"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D313" s="8"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D315" s="8"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D316" s="8"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D317" s="8"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D318" s="8"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D319" s="8"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D320" s="8"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D321" s="8"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D322" s="8"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D323" s="8"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D324" s="8"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D325" s="8"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D326" s="8"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D327" s="8"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D328" s="8"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D329" s="8"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D330" s="8"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D331" s="8"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D332" s="8"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D333" s="8"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D334" s="8"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D335" s="8"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D336" s="8"/>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D337" s="8"/>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D338" s="8"/>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D339" s="8"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D340" s="8"/>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D341" s="8"/>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D342" s="8"/>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D343" s="8"/>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D344" s="8"/>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D345" s="8"/>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D346" s="8"/>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D347" s="8"/>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D348" s="8"/>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D349" s="8"/>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D350" s="8"/>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D351" s="8"/>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D352" s="8"/>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D353" s="8"/>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D354" s="8"/>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D355" s="8"/>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D356" s="8"/>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D357" s="8"/>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D358" s="8"/>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D359" s="8"/>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D360" s="8"/>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D361" s="8"/>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D362" s="8"/>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D363" s="8"/>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D364" s="8"/>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D365" s="8"/>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D366" s="8"/>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D367" s="8"/>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D368" s="8"/>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D369" s="8"/>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D370" s="8"/>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D371" s="8"/>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D372" s="8"/>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D373" s="8"/>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D374" s="8"/>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D375" s="8"/>
     </row>
   </sheetData>
@@ -22568,32 +22588,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G254" sqref="G254"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="47" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="59.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="2"/>
-    <col min="13" max="13" width="27.7109375" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="20.28515625" style="64"/>
+    <col min="1" max="1" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="47" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="59.54296875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.26953125" style="2"/>
+    <col min="13" max="13" width="27.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="20.26953125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
         <v>472</v>
       </c>
@@ -22610,7 +22630,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>473</v>
       </c>
@@ -22651,7 +22671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -22690,7 +22710,7 @@
       </c>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -22729,7 +22749,7 @@
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -22768,7 +22788,7 @@
       </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -22807,7 +22827,7 @@
       </c>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -22842,7 +22862,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -22881,7 +22901,7 @@
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -22920,7 +22940,7 @@
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -22959,7 +22979,7 @@
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -22998,7 +23018,7 @@
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -23037,7 +23057,7 @@
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="399" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="392" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -23076,7 +23096,7 @@
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -23115,7 +23135,7 @@
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -23154,7 +23174,7 @@
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -23193,7 +23213,7 @@
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -23232,7 +23252,7 @@
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -23271,7 +23291,7 @@
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -23310,7 +23330,7 @@
       </c>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -23349,7 +23369,7 @@
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="308" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -23388,7 +23408,7 @@
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -23427,7 +23447,7 @@
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -23466,7 +23486,7 @@
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -23505,7 +23525,7 @@
       </c>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -23544,7 +23564,7 @@
       </c>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -23583,7 +23603,7 @@
       </c>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -23622,7 +23642,7 @@
       </c>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -23657,7 +23677,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -23696,7 +23716,7 @@
       </c>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -23735,7 +23755,7 @@
       </c>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -23770,7 +23790,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -23805,7 +23825,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -23844,7 +23864,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -23883,7 +23903,7 @@
       </c>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -23922,7 +23942,7 @@
       </c>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -23957,7 +23977,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -23996,7 +24016,7 @@
       </c>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -24035,7 +24055,7 @@
       </c>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -24074,7 +24094,7 @@
       </c>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -24113,7 +24133,7 @@
       </c>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="1:13" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -24152,7 +24172,7 @@
       </c>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="1:13" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -24187,7 +24207,7 @@
       <c r="L42" s="9"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="266" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -24226,7 +24246,7 @@
       </c>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -24265,7 +24285,7 @@
       </c>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -24304,7 +24324,7 @@
       </c>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -24343,7 +24363,7 @@
       </c>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -24378,7 +24398,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -24417,7 +24437,7 @@
       </c>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -24456,7 +24476,7 @@
       </c>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -24495,7 +24515,7 @@
       </c>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -24534,7 +24554,7 @@
       </c>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -24573,7 +24593,7 @@
       </c>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -24608,7 +24628,7 @@
       <c r="L53" s="9"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -24647,7 +24667,7 @@
       </c>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -24682,7 +24702,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -24717,7 +24737,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="11"/>
     </row>
-    <row r="57" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -24752,7 +24772,7 @@
       <c r="L57" s="9"/>
       <c r="M57" s="11"/>
     </row>
-    <row r="58" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -24787,7 +24807,7 @@
       <c r="L58" s="9"/>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -24826,7 +24846,7 @@
       </c>
       <c r="M59" s="11"/>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -24865,7 +24885,7 @@
       </c>
       <c r="M60" s="11"/>
     </row>
-    <row r="61" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -24900,7 +24920,7 @@
       <c r="L61" s="9"/>
       <c r="M61" s="11"/>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -24939,7 +24959,7 @@
       </c>
       <c r="M62" s="11"/>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -24978,7 +24998,7 @@
       </c>
       <c r="M63" s="11"/>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -25017,7 +25037,7 @@
       </c>
       <c r="M64" s="11"/>
     </row>
-    <row r="65" spans="1:13" ht="114" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -25052,7 +25072,7 @@
       <c r="L65" s="9"/>
       <c r="M65" s="11"/>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -25091,7 +25111,7 @@
       </c>
       <c r="M66" s="11"/>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -25130,7 +25150,7 @@
       </c>
       <c r="M67" s="11"/>
     </row>
-    <row r="68" spans="1:13" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="126" x14ac:dyDescent="0.35">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -25165,7 +25185,7 @@
       <c r="L68" s="9"/>
       <c r="M68" s="11"/>
     </row>
-    <row r="69" spans="1:13" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="126" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -25200,7 +25220,7 @@
       <c r="L69" s="9"/>
       <c r="M69" s="11"/>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -25239,7 +25259,7 @@
       </c>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -25278,7 +25298,7 @@
       </c>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -25317,7 +25337,7 @@
       </c>
       <c r="M72" s="11"/>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -25356,7 +25376,7 @@
       </c>
       <c r="M73" s="11"/>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -25395,7 +25415,7 @@
       </c>
       <c r="M74" s="11"/>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -25434,7 +25454,7 @@
       </c>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -25473,7 +25493,7 @@
       </c>
       <c r="M76" s="11"/>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -25512,7 +25532,7 @@
       </c>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -25551,7 +25571,7 @@
       </c>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -25590,7 +25610,7 @@
       </c>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -25629,7 +25649,7 @@
       </c>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -25664,7 +25684,7 @@
       <c r="L81" s="9"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -25699,7 +25719,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -25734,7 +25754,7 @@
       <c r="L83" s="9"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -25769,7 +25789,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -25808,7 +25828,7 @@
       </c>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -25843,7 +25863,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -25882,7 +25902,7 @@
       </c>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -25917,7 +25937,7 @@
       <c r="L88" s="9"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -25956,7 +25976,7 @@
       </c>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -25991,7 +26011,7 @@
       <c r="L90" s="9"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -26030,7 +26050,7 @@
       </c>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -26069,7 +26089,7 @@
       </c>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -26104,7 +26124,7 @@
       <c r="L93" s="9"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -26143,7 +26163,7 @@
       </c>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -26178,7 +26198,7 @@
       <c r="L95" s="9"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>94</v>
       </c>
@@ -26213,7 +26233,7 @@
       <c r="L96" s="9"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>95</v>
       </c>
@@ -26248,7 +26268,7 @@
       <c r="L97" s="9"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -26287,7 +26307,7 @@
       </c>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>97</v>
       </c>
@@ -26322,7 +26342,7 @@
       <c r="L99" s="9"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>98</v>
       </c>
@@ -26361,7 +26381,7 @@
       </c>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>99</v>
       </c>
@@ -26396,7 +26416,7 @@
       <c r="L101" s="9"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>100</v>
       </c>
@@ -26431,7 +26451,7 @@
       <c r="L102" s="9"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>101</v>
       </c>
@@ -26470,7 +26490,7 @@
       </c>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>102</v>
       </c>
@@ -26509,7 +26529,7 @@
       </c>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>103</v>
       </c>
@@ -26544,7 +26564,7 @@
       <c r="L105" s="8"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>104</v>
       </c>
@@ -26583,7 +26603,7 @@
       </c>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>105</v>
       </c>
@@ -26622,7 +26642,7 @@
       </c>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>106</v>
       </c>
@@ -26661,7 +26681,7 @@
       </c>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>107</v>
       </c>
@@ -26700,7 +26720,7 @@
       </c>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>108</v>
       </c>
@@ -26739,7 +26759,7 @@
       </c>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>109</v>
       </c>
@@ -26778,7 +26798,7 @@
       </c>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>110</v>
       </c>
@@ -26817,7 +26837,7 @@
       </c>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>111</v>
       </c>
@@ -26856,7 +26876,7 @@
       </c>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" ht="327.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" s="1" customFormat="1" ht="308" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>112</v>
       </c>
@@ -26895,7 +26915,7 @@
       </c>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>113</v>
       </c>
@@ -26934,7 +26954,7 @@
       </c>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>114</v>
       </c>
@@ -26973,7 +26993,7 @@
       </c>
       <c r="M116" s="11"/>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>115</v>
       </c>
@@ -27012,7 +27032,7 @@
       </c>
       <c r="M117" s="11"/>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>116</v>
       </c>
@@ -27051,7 +27071,7 @@
       </c>
       <c r="M118" s="11"/>
     </row>
-    <row r="119" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>117</v>
       </c>
@@ -27090,7 +27110,7 @@
       </c>
       <c r="M119" s="11"/>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>118</v>
       </c>
@@ -27129,7 +27149,7 @@
       </c>
       <c r="M120" s="11"/>
     </row>
-    <row r="121" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>119</v>
       </c>
@@ -27168,7 +27188,7 @@
       </c>
       <c r="M121" s="11"/>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>120</v>
       </c>
@@ -27207,7 +27227,7 @@
       </c>
       <c r="M122" s="11"/>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>121</v>
       </c>
@@ -27246,7 +27266,7 @@
       </c>
       <c r="M123" s="11"/>
     </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>122</v>
       </c>
@@ -27285,7 +27305,7 @@
       </c>
       <c r="M124" s="11"/>
     </row>
-    <row r="125" spans="1:13" s="1" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" s="1" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>123</v>
       </c>
@@ -27324,7 +27344,7 @@
       </c>
       <c r="M125" s="11"/>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>124</v>
       </c>
@@ -27359,7 +27379,7 @@
       <c r="L126" s="9"/>
       <c r="M126" s="11"/>
     </row>
-    <row r="127" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>125</v>
       </c>
@@ -27398,7 +27418,7 @@
       </c>
       <c r="M127" s="11"/>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>126</v>
       </c>
@@ -27437,7 +27457,7 @@
       </c>
       <c r="M128" s="11"/>
     </row>
-    <row r="129" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>127</v>
       </c>
@@ -27476,7 +27496,7 @@
       </c>
       <c r="M129" s="11"/>
     </row>
-    <row r="130" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
         <v>128</v>
       </c>
@@ -27511,7 +27531,7 @@
       <c r="L130" s="8"/>
       <c r="M130" s="11"/>
     </row>
-    <row r="131" spans="1:13" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" s="1" customFormat="1" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>129</v>
       </c>
@@ -27550,7 +27570,7 @@
       </c>
       <c r="M131" s="11"/>
     </row>
-    <row r="132" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
         <v>130</v>
       </c>
@@ -27589,7 +27609,7 @@
       </c>
       <c r="M132" s="11"/>
     </row>
-    <row r="133" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>131</v>
       </c>
@@ -27628,7 +27648,7 @@
       </c>
       <c r="M133" s="11"/>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>132</v>
       </c>
@@ -27667,7 +27687,7 @@
       </c>
       <c r="M134" s="11"/>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>133</v>
       </c>
@@ -27706,7 +27726,7 @@
       </c>
       <c r="M135" s="11"/>
     </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>134</v>
       </c>
@@ -27745,7 +27765,7 @@
       </c>
       <c r="M136" s="11"/>
     </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>135</v>
       </c>
@@ -27780,7 +27800,7 @@
       <c r="L137" s="8"/>
       <c r="M137" s="11"/>
     </row>
-    <row r="138" spans="1:13" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>136</v>
       </c>
@@ -27819,7 +27839,7 @@
       </c>
       <c r="M138" s="11"/>
     </row>
-    <row r="139" spans="1:13" ht="149.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="149.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
         <v>137</v>
       </c>
@@ -27854,7 +27874,7 @@
       <c r="L139" s="8"/>
       <c r="M139" s="11"/>
     </row>
-    <row r="140" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>138</v>
       </c>
@@ -27885,7 +27905,7 @@
       <c r="L140" s="8"/>
       <c r="M140" s="11"/>
     </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>139</v>
       </c>
@@ -27916,7 +27936,7 @@
       <c r="L141" s="8"/>
       <c r="M141" s="11"/>
     </row>
-    <row r="142" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>140</v>
       </c>
@@ -27947,7 +27967,7 @@
       <c r="L142" s="8"/>
       <c r="M142" s="11"/>
     </row>
-    <row r="143" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
         <v>141</v>
       </c>
@@ -27978,7 +27998,7 @@
       <c r="L143" s="9"/>
       <c r="M143" s="11"/>
     </row>
-    <row r="144" spans="1:13" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>142</v>
       </c>
@@ -28009,7 +28029,7 @@
       <c r="L144" s="8"/>
       <c r="M144" s="11"/>
     </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>143</v>
       </c>
@@ -28040,7 +28060,7 @@
       <c r="L145" s="55"/>
       <c r="M145" s="59"/>
     </row>
-    <row r="146" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>144</v>
       </c>
@@ -28075,7 +28095,7 @@
       </c>
       <c r="M146" s="11"/>
     </row>
-    <row r="147" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>145</v>
       </c>
@@ -28110,7 +28130,7 @@
       </c>
       <c r="M147" s="11"/>
     </row>
-    <row r="148" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>146</v>
       </c>
@@ -28145,7 +28165,7 @@
       </c>
       <c r="M148" s="11"/>
     </row>
-    <row r="149" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8">
         <v>147</v>
       </c>
@@ -28180,7 +28200,7 @@
       </c>
       <c r="M149" s="11"/>
     </row>
-    <row r="150" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>148</v>
       </c>
@@ -28215,7 +28235,7 @@
       </c>
       <c r="M150" s="11"/>
     </row>
-    <row r="151" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>149</v>
       </c>
@@ -28249,7 +28269,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>150</v>
       </c>
@@ -28283,7 +28303,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>151</v>
       </c>
@@ -28318,7 +28338,7 @@
       </c>
       <c r="M153" s="11"/>
     </row>
-    <row r="154" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>152</v>
       </c>
@@ -28353,7 +28373,7 @@
       </c>
       <c r="M154" s="11"/>
     </row>
-    <row r="155" spans="1:13" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>153</v>
       </c>
@@ -28384,7 +28404,7 @@
       <c r="L155" s="9"/>
       <c r="M155" s="11"/>
     </row>
-    <row r="156" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>154</v>
       </c>
@@ -28419,7 +28439,7 @@
       </c>
       <c r="M156" s="11"/>
     </row>
-    <row r="157" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>155</v>
       </c>
@@ -28454,7 +28474,7 @@
       </c>
       <c r="M157" s="11"/>
     </row>
-    <row r="158" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>156</v>
       </c>
@@ -28485,7 +28505,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="11"/>
     </row>
-    <row r="159" spans="1:13" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>157</v>
       </c>
@@ -28516,7 +28536,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="11"/>
     </row>
-    <row r="160" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>158</v>
       </c>
@@ -28551,7 +28571,7 @@
       </c>
       <c r="M160" s="11"/>
     </row>
-    <row r="161" spans="1:13" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>159</v>
       </c>
@@ -28586,7 +28606,7 @@
       </c>
       <c r="M161" s="11"/>
     </row>
-    <row r="162" spans="1:13" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>160</v>
       </c>
@@ -28621,7 +28641,7 @@
       </c>
       <c r="M162" s="11"/>
     </row>
-    <row r="163" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>161</v>
       </c>
@@ -28656,7 +28676,7 @@
       </c>
       <c r="M163" s="63"/>
     </row>
-    <row r="164" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>162</v>
       </c>
@@ -28691,7 +28711,7 @@
       </c>
       <c r="M164" s="63"/>
     </row>
-    <row r="165" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="70" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>163</v>
       </c>
@@ -28726,7 +28746,7 @@
       </c>
       <c r="M165" s="63"/>
     </row>
-    <row r="166" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>164</v>
       </c>
@@ -28761,7 +28781,7 @@
       </c>
       <c r="M166" s="63"/>
     </row>
-    <row r="167" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="84" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>165</v>
       </c>
@@ -28796,7 +28816,7 @@
       </c>
       <c r="M167" s="63"/>
     </row>
-    <row r="168" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>166</v>
       </c>
@@ -28831,7 +28851,7 @@
       </c>
       <c r="M168" s="63"/>
     </row>
-    <row r="169" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>167</v>
       </c>
@@ -28866,7 +28886,7 @@
       </c>
       <c r="M169" s="63"/>
     </row>
-    <row r="170" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>168</v>
       </c>
@@ -28901,7 +28921,7 @@
       </c>
       <c r="M170" s="63"/>
     </row>
-    <row r="171" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>169</v>
       </c>
@@ -28936,7 +28956,7 @@
       </c>
       <c r="M171" s="63"/>
     </row>
-    <row r="172" spans="1:13" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>170</v>
       </c>
@@ -28967,7 +28987,7 @@
       <c r="L172" s="63"/>
       <c r="M172" s="63"/>
     </row>
-    <row r="173" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A173" s="63">
         <v>171</v>
       </c>
@@ -29002,7 +29022,7 @@
       </c>
       <c r="M173" s="63"/>
     </row>
-    <row r="174" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A174" s="63">
         <v>172</v>
       </c>
@@ -29037,7 +29057,7 @@
       </c>
       <c r="M174" s="63"/>
     </row>
-    <row r="175" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="84" x14ac:dyDescent="0.3">
       <c r="A175" s="63">
         <v>173</v>
       </c>
@@ -29072,7 +29092,7 @@
       </c>
       <c r="M175" s="63"/>
     </row>
-    <row r="176" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="70" x14ac:dyDescent="0.3">
       <c r="A176" s="63">
         <v>174</v>
       </c>
@@ -29107,7 +29127,7 @@
       </c>
       <c r="M176" s="63"/>
     </row>
-    <row r="177" spans="1:13" s="24" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" s="24" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>175</v>
       </c>
@@ -29144,7 +29164,7 @@
       </c>
       <c r="M177" s="23"/>
     </row>
-    <row r="178" spans="1:13" s="24" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" s="24" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <v>176</v>
       </c>
@@ -29181,7 +29201,7 @@
       </c>
       <c r="M178" s="23"/>
     </row>
-    <row r="179" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="98" x14ac:dyDescent="0.3">
       <c r="A179" s="63">
         <v>177</v>
       </c>
@@ -29216,7 +29236,7 @@
       </c>
       <c r="M179" s="63"/>
     </row>
-    <row r="180" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A180" s="70">
         <v>178</v>
       </c>
@@ -29251,7 +29271,7 @@
       </c>
       <c r="M180" s="70"/>
     </row>
-    <row r="181" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="28" x14ac:dyDescent="0.35">
       <c r="A181" s="63">
         <v>179</v>
       </c>
@@ -29286,7 +29306,7 @@
       </c>
       <c r="M181" s="11"/>
     </row>
-    <row r="182" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="28" x14ac:dyDescent="0.35">
       <c r="A182" s="63">
         <v>180</v>
       </c>
@@ -29321,7 +29341,7 @@
       </c>
       <c r="M182" s="11"/>
     </row>
-    <row r="183" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="98" x14ac:dyDescent="0.35">
       <c r="A183" s="63">
         <v>181</v>
       </c>
@@ -29356,7 +29376,7 @@
       </c>
       <c r="M183" s="11"/>
     </row>
-    <row r="184" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A184" s="63">
         <v>182</v>
       </c>
@@ -29391,7 +29411,7 @@
       </c>
       <c r="M184" s="11"/>
     </row>
-    <row r="185" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
         <v>183</v>
       </c>
@@ -29426,7 +29446,7 @@
       </c>
       <c r="M185" s="11"/>
     </row>
-    <row r="186" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="63">
         <v>184</v>
       </c>
@@ -29461,7 +29481,7 @@
       </c>
       <c r="M186" s="11"/>
     </row>
-    <row r="187" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A187" s="63">
         <v>185</v>
       </c>
@@ -29494,7 +29514,7 @@
       </c>
       <c r="M187" s="11"/>
     </row>
-    <row r="188" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A188" s="63">
         <v>186</v>
       </c>
@@ -29527,7 +29547,7 @@
       </c>
       <c r="M188" s="11"/>
     </row>
-    <row r="189" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A189" s="63">
         <v>187</v>
       </c>
@@ -29560,7 +29580,7 @@
       </c>
       <c r="M189" s="11"/>
     </row>
-    <row r="190" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="140" x14ac:dyDescent="0.35">
       <c r="A190" s="63">
         <v>188</v>
       </c>
@@ -29595,7 +29615,7 @@
       </c>
       <c r="M190" s="11"/>
     </row>
-    <row r="191" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="140" x14ac:dyDescent="0.35">
       <c r="A191" s="63">
         <v>189</v>
       </c>
@@ -29628,7 +29648,7 @@
       </c>
       <c r="M191" s="11"/>
     </row>
-    <row r="192" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="98" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>190</v>
       </c>
@@ -29657,7 +29677,7 @@
       <c r="L192" s="8"/>
       <c r="M192" s="11"/>
     </row>
-    <row r="193" spans="1:13" ht="268.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="268.89999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="63">
         <v>191</v>
       </c>
@@ -29690,7 +29710,7 @@
       </c>
       <c r="M193" s="11"/>
     </row>
-    <row r="194" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A194" s="63">
         <v>192</v>
       </c>
@@ -29723,7 +29743,7 @@
       </c>
       <c r="M194" s="11"/>
     </row>
-    <row r="195" spans="1:13" ht="114" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A195" s="63">
         <v>193</v>
       </c>
@@ -29756,7 +29776,7 @@
       </c>
       <c r="M195" s="59"/>
     </row>
-    <row r="196" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A196" s="63">
         <v>194</v>
       </c>
@@ -29789,7 +29809,7 @@
       </c>
       <c r="M196" s="11"/>
     </row>
-    <row r="197" spans="1:13" ht="228" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="224" x14ac:dyDescent="0.35">
       <c r="A197" s="8">
         <v>195</v>
       </c>
@@ -29820,7 +29840,7 @@
       <c r="L197" s="8"/>
       <c r="M197" s="11"/>
     </row>
-    <row r="198" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="154" x14ac:dyDescent="0.35">
       <c r="A198" s="63">
         <v>196</v>
       </c>
@@ -29855,7 +29875,7 @@
       </c>
       <c r="M198" s="11"/>
     </row>
-    <row r="199" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A199" s="8">
         <v>197</v>
       </c>
@@ -29886,7 +29906,7 @@
       <c r="L199" s="8"/>
       <c r="M199" s="11"/>
     </row>
-    <row r="200" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="126" x14ac:dyDescent="0.35">
       <c r="A200" s="55">
         <v>198</v>
       </c>
@@ -29915,7 +29935,7 @@
       <c r="L200" s="55"/>
       <c r="M200" s="59"/>
     </row>
-    <row r="201" spans="1:13" ht="253.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="253.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="63">
         <v>199</v>
       </c>
@@ -29950,7 +29970,7 @@
       </c>
       <c r="M201" s="11"/>
     </row>
-    <row r="202" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A202" s="8">
         <v>200</v>
       </c>
@@ -29985,7 +30005,7 @@
       </c>
       <c r="M202" s="11"/>
     </row>
-    <row r="203" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="98" x14ac:dyDescent="0.35">
       <c r="A203" s="63">
         <v>201</v>
       </c>
@@ -30020,7 +30040,7 @@
       </c>
       <c r="M203" s="11"/>
     </row>
-    <row r="204" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A204" s="63">
         <v>202</v>
       </c>
@@ -30055,7 +30075,7 @@
       </c>
       <c r="M204" s="11"/>
     </row>
-    <row r="205" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A205" s="70">
         <v>203</v>
       </c>
@@ -30090,7 +30110,7 @@
       </c>
       <c r="M205" s="11"/>
     </row>
-    <row r="206" spans="1:13" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="294" x14ac:dyDescent="0.35">
       <c r="A206" s="63">
         <v>204</v>
       </c>
@@ -30125,7 +30145,7 @@
       </c>
       <c r="M206" s="11"/>
     </row>
-    <row r="207" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A207" s="63">
         <v>205</v>
       </c>
@@ -30160,7 +30180,7 @@
       </c>
       <c r="M207" s="11"/>
     </row>
-    <row r="208" spans="1:13" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="112.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63">
         <v>206</v>
       </c>
@@ -30195,7 +30215,7 @@
       </c>
       <c r="M208" s="11"/>
     </row>
-    <row r="209" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A209" s="63">
         <v>207</v>
       </c>
@@ -30230,7 +30250,7 @@
       </c>
       <c r="M209" s="11"/>
     </row>
-    <row r="210" spans="1:13" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="140" x14ac:dyDescent="0.35">
       <c r="A210" s="63">
         <v>208</v>
       </c>
@@ -30265,7 +30285,7 @@
       </c>
       <c r="M210" s="11"/>
     </row>
-    <row r="211" spans="1:13" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A211" s="63">
         <v>209</v>
       </c>
@@ -30300,7 +30320,7 @@
       </c>
       <c r="M211" s="11"/>
     </row>
-    <row r="212" spans="1:13" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A212" s="8">
         <v>210</v>
       </c>
@@ -30329,7 +30349,7 @@
       <c r="L212" s="8"/>
       <c r="M212" s="11"/>
     </row>
-    <row r="213" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A213" s="63">
         <v>211</v>
       </c>
@@ -30362,7 +30382,7 @@
       </c>
       <c r="M213" s="11"/>
     </row>
-    <row r="214" spans="1:13" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="126" x14ac:dyDescent="0.35">
       <c r="A214" s="63">
         <v>212</v>
       </c>
@@ -30397,7 +30417,7 @@
       </c>
       <c r="M214" s="11"/>
     </row>
-    <row r="215" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A215" s="63">
         <v>213</v>
       </c>
@@ -30434,7 +30454,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A216" s="63">
         <v>214</v>
       </c>
@@ -30469,7 +30489,7 @@
       </c>
       <c r="M216" s="11"/>
     </row>
-    <row r="217" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="8">
         <v>215</v>
       </c>
@@ -30510,7 +30530,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A218" s="8">
         <v>216</v>
       </c>
@@ -30547,7 +30567,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A219" s="8">
         <v>217</v>
       </c>
@@ -30584,7 +30604,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="140" x14ac:dyDescent="0.35">
       <c r="A220" s="8">
         <v>218</v>
       </c>
@@ -30621,7 +30641,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A221" s="8">
         <v>219</v>
       </c>
@@ -30658,7 +30678,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A222" s="8">
         <v>220</v>
       </c>
@@ -30695,7 +30715,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A223" s="8">
         <v>221</v>
       </c>
@@ -30732,7 +30752,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="195.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="8">
         <v>222</v>
       </c>
@@ -30769,7 +30789,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="168" x14ac:dyDescent="0.35">
       <c r="A225" s="63">
         <v>223</v>
       </c>
@@ -30808,7 +30828,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="171" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="168" x14ac:dyDescent="0.35">
       <c r="A226" s="8">
         <v>224</v>
       </c>
@@ -30845,7 +30865,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="171" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="168" x14ac:dyDescent="0.35">
       <c r="A227" s="8">
         <v>225</v>
       </c>
@@ -30882,7 +30902,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="171" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="168" x14ac:dyDescent="0.35">
       <c r="A228" s="8">
         <v>226</v>
       </c>
@@ -30919,7 +30939,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="182" x14ac:dyDescent="0.35">
       <c r="A229" s="8">
         <v>227</v>
       </c>
@@ -30956,7 +30976,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="228" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="224" x14ac:dyDescent="0.35">
       <c r="A230" s="8">
         <v>228</v>
       </c>
@@ -30993,7 +31013,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A231" s="8">
         <v>229</v>
       </c>
@@ -31024,7 +31044,7 @@
       <c r="L231" s="8"/>
       <c r="M231" s="11"/>
     </row>
-    <row r="232" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A232" s="8">
         <v>230</v>
       </c>
@@ -31053,7 +31073,7 @@
       <c r="L232" s="8"/>
       <c r="M232" s="11"/>
     </row>
-    <row r="233" spans="1:13" ht="114" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A233" s="8">
         <v>231</v>
       </c>
@@ -31086,7 +31106,7 @@
       </c>
       <c r="M233" s="11"/>
     </row>
-    <row r="234" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="8">
         <v>232</v>
       </c>
@@ -31121,7 +31141,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A235" s="8">
         <v>233</v>
       </c>
@@ -31156,7 +31176,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="114" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A236" s="8">
         <v>234</v>
       </c>
@@ -31191,7 +31211,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A237" s="8">
         <v>235</v>
       </c>
@@ -31226,7 +31246,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A238" s="8">
         <v>236</v>
       </c>
@@ -31261,7 +31281,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A239" s="8">
         <v>237</v>
       </c>
@@ -31296,7 +31316,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="157.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="157.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="55">
         <v>238</v>
       </c>
@@ -31331,7 +31351,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" ht="154" x14ac:dyDescent="0.35">
       <c r="A241" s="8">
         <v>239</v>
       </c>
@@ -31366,7 +31386,7 @@
       </c>
       <c r="M241" s="11"/>
     </row>
-    <row r="242" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A242" s="8">
         <v>240</v>
       </c>
@@ -31401,7 +31421,7 @@
       </c>
       <c r="M242" s="11"/>
     </row>
-    <row r="243" spans="1:13" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A243" s="8">
         <v>241</v>
       </c>
@@ -31436,7 +31456,7 @@
       </c>
       <c r="M243" s="11"/>
     </row>
-    <row r="244" spans="1:13" ht="241.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" ht="241.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="8">
         <v>242</v>
       </c>
@@ -31471,7 +31491,7 @@
       </c>
       <c r="M244" s="11"/>
     </row>
-    <row r="245" spans="1:13" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="196" x14ac:dyDescent="0.35">
       <c r="A245" s="8">
         <v>243</v>
       </c>
@@ -31506,7 +31526,7 @@
       </c>
       <c r="M245" s="11"/>
     </row>
-    <row r="246" spans="1:13" ht="171" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="168" x14ac:dyDescent="0.35">
       <c r="A246" s="8">
         <v>244</v>
       </c>
@@ -31541,7 +31561,7 @@
       </c>
       <c r="M246" s="11"/>
     </row>
-    <row r="247" spans="1:13" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="182" x14ac:dyDescent="0.35">
       <c r="A247" s="8">
         <v>245</v>
       </c>
@@ -31576,7 +31596,7 @@
       </c>
       <c r="M247" s="11"/>
     </row>
-    <row r="248" spans="1:13" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A248" s="8">
         <v>246</v>
       </c>
@@ -31611,7 +31631,7 @@
       </c>
       <c r="M248" s="11"/>
     </row>
-    <row r="249" spans="1:13" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="322" x14ac:dyDescent="0.35">
       <c r="A249" s="8">
         <v>247</v>
       </c>
@@ -31646,7 +31666,7 @@
       </c>
       <c r="M249" s="11"/>
     </row>
-    <row r="250" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A250" s="8">
         <v>248</v>
       </c>
@@ -31681,7 +31701,7 @@
       </c>
       <c r="M250" s="11"/>
     </row>
-    <row r="251" spans="1:13" ht="114" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A251" s="8">
         <v>249</v>
       </c>
@@ -31714,7 +31734,7 @@
       <c r="L251" s="9"/>
       <c r="M251" s="11"/>
     </row>
-    <row r="252" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" ht="154" x14ac:dyDescent="0.35">
       <c r="A252" s="8">
         <v>250</v>
       </c>
@@ -31743,7 +31763,7 @@
       <c r="L252" s="9"/>
       <c r="M252" s="11"/>
     </row>
-    <row r="253" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" ht="98" x14ac:dyDescent="0.35">
       <c r="A253" s="8">
         <v>251</v>
       </c>
@@ -31772,7 +31792,7 @@
       <c r="L253" s="9"/>
       <c r="M253" s="11"/>
     </row>
-    <row r="254" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="8">
         <v>252</v>
       </c>
@@ -31806,6 +31826,31 @@
         <v>43532</v>
       </c>
       <c r="M254" s="11"/>
+    </row>
+    <row r="255" spans="1:13" ht="294" x14ac:dyDescent="0.35">
+      <c r="A255" s="8">
+        <v>253</v>
+      </c>
+      <c r="B255" s="9">
+        <v>43536</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H255" s="8"/>
+      <c r="I255" s="12"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="8"/>
+      <c r="L255" s="9"/>
+      <c r="M255" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M251" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -31827,7 +31872,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -31842,20 +31887,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="2" width="90.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.26953125" style="1"/>
+    <col min="2" max="2" width="90.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.54296875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="85"/>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>989</v>
       </c>
@@ -31866,7 +31911,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -31877,7 +31922,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -31888,7 +31933,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -31899,7 +31944,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <v>4</v>
       </c>
@@ -31908,7 +31953,7 @@
       </c>
       <c r="C6" s="30"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
         <v>5</v>
       </c>
@@ -31919,7 +31964,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35">
         <v>6</v>
       </c>
@@ -31930,7 +31975,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
     </row>
   </sheetData>
@@ -31958,14 +32003,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
@@ -31976,12 +32021,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="D4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
@@ -31992,7 +32037,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
@@ -32003,7 +32048,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D7" s="13" t="s">
         <v>1005</v>
       </c>
@@ -32011,27 +32056,27 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F8" s="13" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F9" s="46" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F10" s="46" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F11" s="46" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F12" s="46" t="s">
         <v>466</v>
       </c>
@@ -32043,6 +32088,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -32249,32 +32320,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -32285,6 +32330,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32303,23 +32365,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>

--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip_new_master\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D3143A-DFAA-4B27-ABED-512DD73405FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC82220A-70BF-442B-B955-06D0DF44739A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_QueryLog_Internal" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="1098">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12657,6 +12657,38 @@
 d.	If multiple matches found for bio dedupe and demo data not available
 i.	Reject the packet
 e.	If no match found for bio dedupe, reject packet</t>
+  </si>
+  <si>
+    <t>1. No documents.
+2. All biometrics.
+3. Yes.
+4. Yes.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UIN Update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+The resident wishes to update their mobile number. If the mode of authentication for UIN update through reg. client is set to 'OTP',
+(i) the OTP should not be sent to the new mobile number as it is a security risk
+(ii) the resident might no longer have access to the old mobile number.
+The user will not be able to proceed further. A similar issue exists for change of email ID as well.
+Should we therefore mandate 'Biometrics' as the mode of authentication for all updates made through client?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -13521,25 +13553,25 @@
       <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7265625" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.26953125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.21875" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="57" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1"/>
-    <col min="13" max="13" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -13557,7 +13589,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -13601,7 +13633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -13633,7 +13665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="126" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -13675,7 +13707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -13715,7 +13747,7 @@
       </c>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -13755,7 +13787,7 @@
       </c>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -13797,7 +13829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -13837,7 +13869,7 @@
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -13879,7 +13911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -13919,7 +13951,7 @@
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -13959,7 +13991,7 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -13999,7 +14031,7 @@
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -14039,7 +14071,7 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -14077,7 +14109,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -14115,7 +14147,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -14153,7 +14185,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -14191,7 +14223,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -14229,7 +14261,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -14265,7 +14297,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -14303,7 +14335,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -14339,7 +14371,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -14377,7 +14409,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -14415,7 +14447,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -14453,7 +14485,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -14491,7 +14523,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -14529,7 +14561,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -14569,7 +14601,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -14609,7 +14641,7 @@
       </c>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -14647,7 +14679,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -14687,7 +14719,7 @@
       </c>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -14723,7 +14755,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -14761,7 +14793,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -14799,7 +14831,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="1:14" ht="168" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>31</v>
       </c>
@@ -14839,7 +14871,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>32</v>
       </c>
@@ -14877,7 +14909,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>33</v>
       </c>
@@ -14915,7 +14947,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>34</v>
       </c>
@@ -14953,7 +14985,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>35</v>
       </c>
@@ -14993,7 +15025,7 @@
       </c>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>36</v>
       </c>
@@ -15033,7 +15065,7 @@
       </c>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>37</v>
       </c>
@@ -15073,7 +15105,7 @@
       </c>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>38</v>
       </c>
@@ -15113,7 +15145,7 @@
       </c>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>39</v>
       </c>
@@ -15153,7 +15185,7 @@
       </c>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>40</v>
       </c>
@@ -15193,7 +15225,7 @@
       </c>
       <c r="N43" s="11"/>
     </row>
-    <row r="44" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>41</v>
       </c>
@@ -15233,7 +15265,7 @@
       </c>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>42</v>
       </c>
@@ -15273,7 +15305,7 @@
       </c>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>43</v>
       </c>
@@ -15313,7 +15345,7 @@
       </c>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>44</v>
       </c>
@@ -15353,7 +15385,7 @@
       </c>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:14" ht="168" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>45</v>
       </c>
@@ -15393,7 +15425,7 @@
       </c>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>46</v>
       </c>
@@ -15433,7 +15465,7 @@
       </c>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>47</v>
       </c>
@@ -15473,7 +15505,7 @@
       </c>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>48</v>
       </c>
@@ -15513,7 +15545,7 @@
       </c>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>49</v>
       </c>
@@ -15553,7 +15585,7 @@
       </c>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>50</v>
       </c>
@@ -15591,7 +15623,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>51</v>
       </c>
@@ -15631,7 +15663,7 @@
       </c>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>52</v>
       </c>
@@ -15669,7 +15701,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>53</v>
       </c>
@@ -15707,7 +15739,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>54</v>
       </c>
@@ -15745,7 +15777,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>55</v>
       </c>
@@ -15781,7 +15813,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="11"/>
     </row>
-    <row r="59" spans="1:14" ht="168" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>56</v>
       </c>
@@ -15817,7 +15849,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="11"/>
     </row>
-    <row r="60" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>57</v>
       </c>
@@ -15857,7 +15889,7 @@
       </c>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>58</v>
       </c>
@@ -15897,7 +15929,7 @@
       </c>
       <c r="N61" s="11"/>
     </row>
-    <row r="62" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>59</v>
       </c>
@@ -15937,7 +15969,7 @@
       </c>
       <c r="N62" s="11"/>
     </row>
-    <row r="63" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>60</v>
       </c>
@@ -15977,7 +16009,7 @@
       </c>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>61</v>
       </c>
@@ -16017,7 +16049,7 @@
       </c>
       <c r="N64" s="11"/>
     </row>
-    <row r="65" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>62</v>
       </c>
@@ -16057,7 +16089,7 @@
       </c>
       <c r="N65" s="11"/>
     </row>
-    <row r="66" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>63</v>
       </c>
@@ -16097,7 +16129,7 @@
       </c>
       <c r="N66" s="11"/>
     </row>
-    <row r="67" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>64</v>
       </c>
@@ -16137,7 +16169,7 @@
       </c>
       <c r="N67" s="11"/>
     </row>
-    <row r="68" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>65</v>
       </c>
@@ -16177,7 +16209,7 @@
       </c>
       <c r="N68" s="11"/>
     </row>
-    <row r="69" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>66</v>
       </c>
@@ -16217,7 +16249,7 @@
       </c>
       <c r="N69" s="11"/>
     </row>
-    <row r="70" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>67</v>
       </c>
@@ -16257,7 +16289,7 @@
       </c>
       <c r="N70" s="11"/>
     </row>
-    <row r="71" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>68</v>
       </c>
@@ -16297,7 +16329,7 @@
       </c>
       <c r="N71" s="11"/>
     </row>
-    <row r="72" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>69</v>
       </c>
@@ -16337,7 +16369,7 @@
       </c>
       <c r="N72" s="11"/>
     </row>
-    <row r="73" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>70</v>
       </c>
@@ -16377,7 +16409,7 @@
       </c>
       <c r="N73" s="11"/>
     </row>
-    <row r="74" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>71</v>
       </c>
@@ -16417,7 +16449,7 @@
       </c>
       <c r="N74" s="11"/>
     </row>
-    <row r="75" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>72</v>
       </c>
@@ -16457,7 +16489,7 @@
       </c>
       <c r="N75" s="11"/>
     </row>
-    <row r="76" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>73</v>
       </c>
@@ -16495,7 +16527,7 @@
       </c>
       <c r="N76" s="11"/>
     </row>
-    <row r="77" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>74</v>
       </c>
@@ -16535,7 +16567,7 @@
       </c>
       <c r="N77" s="11"/>
     </row>
-    <row r="78" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>75</v>
       </c>
@@ -16575,7 +16607,7 @@
       </c>
       <c r="N78" s="11"/>
     </row>
-    <row r="79" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>76</v>
       </c>
@@ -16615,7 +16647,7 @@
       </c>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>77</v>
       </c>
@@ -16655,7 +16687,7 @@
       </c>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>78</v>
       </c>
@@ -16695,7 +16727,7 @@
       </c>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>79</v>
       </c>
@@ -16735,7 +16767,7 @@
       </c>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>80</v>
       </c>
@@ -16775,7 +16807,7 @@
       </c>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>81</v>
       </c>
@@ -16815,7 +16847,7 @@
       </c>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>82</v>
       </c>
@@ -16855,7 +16887,7 @@
       </c>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>83</v>
       </c>
@@ -16895,7 +16927,7 @@
       </c>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>84</v>
       </c>
@@ -16935,7 +16967,7 @@
       </c>
       <c r="N87" s="11"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>85</v>
       </c>
@@ -16975,7 +17007,7 @@
       </c>
       <c r="N88" s="11"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>86</v>
       </c>
@@ -17015,7 +17047,7 @@
       </c>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>87</v>
       </c>
@@ -17055,7 +17087,7 @@
       </c>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>88</v>
       </c>
@@ -17095,7 +17127,7 @@
       </c>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>89</v>
       </c>
@@ -17135,7 +17167,7 @@
       </c>
       <c r="N92" s="11"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>90</v>
       </c>
@@ -17175,7 +17207,7 @@
       </c>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>91</v>
       </c>
@@ -17215,7 +17247,7 @@
       </c>
       <c r="N94" s="11"/>
     </row>
-    <row r="95" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>92</v>
       </c>
@@ -17255,7 +17287,7 @@
       </c>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>93</v>
       </c>
@@ -17295,7 +17327,7 @@
       </c>
       <c r="N96" s="11"/>
     </row>
-    <row r="97" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>94</v>
       </c>
@@ -17335,7 +17367,7 @@
       </c>
       <c r="N97" s="11"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>95</v>
       </c>
@@ -17375,7 +17407,7 @@
       </c>
       <c r="N98" s="11"/>
     </row>
-    <row r="99" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>96</v>
       </c>
@@ -17415,7 +17447,7 @@
       </c>
       <c r="N99" s="11"/>
     </row>
-    <row r="100" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>97</v>
       </c>
@@ -17455,7 +17487,7 @@
       </c>
       <c r="N100" s="11"/>
     </row>
-    <row r="101" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>98</v>
       </c>
@@ -17495,7 +17527,7 @@
       </c>
       <c r="N101" s="11"/>
     </row>
-    <row r="102" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>99</v>
       </c>
@@ -17535,7 +17567,7 @@
       </c>
       <c r="N102" s="11"/>
     </row>
-    <row r="103" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>100</v>
       </c>
@@ -17575,7 +17607,7 @@
       </c>
       <c r="N103" s="11"/>
     </row>
-    <row r="104" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>101</v>
       </c>
@@ -17615,7 +17647,7 @@
       </c>
       <c r="N104" s="11"/>
     </row>
-    <row r="105" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>102</v>
       </c>
@@ -17655,7 +17687,7 @@
       </c>
       <c r="N105" s="11"/>
     </row>
-    <row r="106" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>103</v>
       </c>
@@ -17695,7 +17727,7 @@
       </c>
       <c r="N106" s="11"/>
     </row>
-    <row r="107" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>104</v>
       </c>
@@ -17735,7 +17767,7 @@
       </c>
       <c r="N107" s="11"/>
     </row>
-    <row r="108" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>105</v>
       </c>
@@ -17775,7 +17807,7 @@
       </c>
       <c r="N108" s="11"/>
     </row>
-    <row r="109" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>106</v>
       </c>
@@ -17815,7 +17847,7 @@
       </c>
       <c r="N109" s="11"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>107</v>
       </c>
@@ -17855,7 +17887,7 @@
       </c>
       <c r="N110" s="11"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>108</v>
       </c>
@@ -17895,7 +17927,7 @@
       </c>
       <c r="N111" s="11"/>
     </row>
-    <row r="112" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>109</v>
       </c>
@@ -17935,7 +17967,7 @@
       </c>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>110</v>
       </c>
@@ -17975,7 +18007,7 @@
       </c>
       <c r="N113" s="11"/>
     </row>
-    <row r="114" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>111</v>
       </c>
@@ -18015,7 +18047,7 @@
       </c>
       <c r="N114" s="11"/>
     </row>
-    <row r="115" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>112</v>
       </c>
@@ -18055,7 +18087,7 @@
       </c>
       <c r="N115" s="11"/>
     </row>
-    <row r="116" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>113</v>
       </c>
@@ -18095,7 +18127,7 @@
       </c>
       <c r="N116" s="11"/>
     </row>
-    <row r="117" spans="1:14" ht="126" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>114</v>
       </c>
@@ -18135,7 +18167,7 @@
       </c>
       <c r="N117" s="11"/>
     </row>
-    <row r="118" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>115</v>
       </c>
@@ -18175,7 +18207,7 @@
       </c>
       <c r="N118" s="11"/>
     </row>
-    <row r="119" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>116</v>
       </c>
@@ -18215,7 +18247,7 @@
       </c>
       <c r="N119" s="11"/>
     </row>
-    <row r="120" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>117</v>
       </c>
@@ -18255,7 +18287,7 @@
       </c>
       <c r="N120" s="11"/>
     </row>
-    <row r="121" spans="1:14" ht="154" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>118</v>
       </c>
@@ -18293,7 +18325,7 @@
       </c>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>119</v>
       </c>
@@ -18333,7 +18365,7 @@
       </c>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>120</v>
       </c>
@@ -18373,7 +18405,7 @@
       </c>
       <c r="N123" s="11"/>
     </row>
-    <row r="124" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>121</v>
       </c>
@@ -18413,7 +18445,7 @@
       </c>
       <c r="N124" s="11"/>
     </row>
-    <row r="125" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>122</v>
       </c>
@@ -18453,7 +18485,7 @@
       </c>
       <c r="N125" s="11"/>
     </row>
-    <row r="126" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>123</v>
       </c>
@@ -18493,7 +18525,7 @@
       </c>
       <c r="N126" s="11"/>
     </row>
-    <row r="127" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>124</v>
       </c>
@@ -18533,7 +18565,7 @@
       </c>
       <c r="N127" s="11"/>
     </row>
-    <row r="128" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>125</v>
       </c>
@@ -18573,7 +18605,7 @@
       </c>
       <c r="N128" s="11"/>
     </row>
-    <row r="129" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>126</v>
       </c>
@@ -18613,7 +18645,7 @@
       </c>
       <c r="N129" s="11"/>
     </row>
-    <row r="130" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>127</v>
       </c>
@@ -18653,7 +18685,7 @@
       </c>
       <c r="N130" s="11"/>
     </row>
-    <row r="131" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>128</v>
       </c>
@@ -18693,7 +18725,7 @@
       </c>
       <c r="N131" s="11"/>
     </row>
-    <row r="132" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>129</v>
       </c>
@@ -18733,7 +18765,7 @@
       </c>
       <c r="N132" s="11"/>
     </row>
-    <row r="133" spans="1:14" ht="154" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>130</v>
       </c>
@@ -18773,7 +18805,7 @@
       </c>
       <c r="N133" s="11"/>
     </row>
-    <row r="134" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>131</v>
       </c>
@@ -18813,7 +18845,7 @@
       </c>
       <c r="N134" s="11"/>
     </row>
-    <row r="135" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>132</v>
       </c>
@@ -18853,7 +18885,7 @@
       </c>
       <c r="N135" s="11"/>
     </row>
-    <row r="136" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>133</v>
       </c>
@@ -18893,7 +18925,7 @@
       </c>
       <c r="N136" s="11"/>
     </row>
-    <row r="137" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>134</v>
       </c>
@@ -18933,7 +18965,7 @@
       </c>
       <c r="N137" s="11"/>
     </row>
-    <row r="138" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>135</v>
       </c>
@@ -18973,7 +19005,7 @@
       </c>
       <c r="N138" s="11"/>
     </row>
-    <row r="139" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>136</v>
       </c>
@@ -19013,7 +19045,7 @@
       </c>
       <c r="N139" s="11"/>
     </row>
-    <row r="140" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>137</v>
       </c>
@@ -19053,7 +19085,7 @@
       </c>
       <c r="N140" s="11"/>
     </row>
-    <row r="141" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>138</v>
       </c>
@@ -19093,7 +19125,7 @@
       </c>
       <c r="N141" s="11"/>
     </row>
-    <row r="142" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>139</v>
       </c>
@@ -19133,7 +19165,7 @@
       </c>
       <c r="N142" s="11"/>
     </row>
-    <row r="143" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>140</v>
       </c>
@@ -19173,7 +19205,7 @@
       </c>
       <c r="N143" s="11"/>
     </row>
-    <row r="144" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>141</v>
       </c>
@@ -19213,7 +19245,7 @@
       </c>
       <c r="N144" s="11"/>
     </row>
-    <row r="145" spans="1:14" ht="140" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" ht="138" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>142</v>
       </c>
@@ -19253,7 +19285,7 @@
       </c>
       <c r="N145" s="11"/>
     </row>
-    <row r="146" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>143</v>
       </c>
@@ -19293,7 +19325,7 @@
       </c>
       <c r="N146" s="11"/>
     </row>
-    <row r="147" spans="1:14" ht="140" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" ht="138" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>144</v>
       </c>
@@ -19333,7 +19365,7 @@
       </c>
       <c r="N147" s="11"/>
     </row>
-    <row r="148" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>145</v>
       </c>
@@ -19373,7 +19405,7 @@
       </c>
       <c r="N148" s="11"/>
     </row>
-    <row r="149" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>146</v>
       </c>
@@ -19413,7 +19445,7 @@
       </c>
       <c r="N149" s="11"/>
     </row>
-    <row r="150" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>147</v>
       </c>
@@ -19453,7 +19485,7 @@
       </c>
       <c r="N150" s="11"/>
     </row>
-    <row r="151" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>148</v>
       </c>
@@ -19493,7 +19525,7 @@
       </c>
       <c r="N151" s="11"/>
     </row>
-    <row r="152" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>149</v>
       </c>
@@ -19533,7 +19565,7 @@
       </c>
       <c r="N152" s="11"/>
     </row>
-    <row r="153" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>150</v>
       </c>
@@ -19573,7 +19605,7 @@
       </c>
       <c r="N153" s="11"/>
     </row>
-    <row r="154" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>151</v>
       </c>
@@ -19613,7 +19645,7 @@
       </c>
       <c r="N154" s="11"/>
     </row>
-    <row r="155" spans="1:14" ht="126" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>152</v>
       </c>
@@ -19647,7 +19679,7 @@
       <c r="M155" s="9"/>
       <c r="N155" s="11"/>
     </row>
-    <row r="156" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>153</v>
       </c>
@@ -19681,7 +19713,7 @@
       <c r="M156" s="9"/>
       <c r="N156" s="11"/>
     </row>
-    <row r="157" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>154</v>
       </c>
@@ -19715,7 +19747,7 @@
       <c r="M157" s="9"/>
       <c r="N157" s="11"/>
     </row>
-    <row r="158" spans="1:14" ht="126" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" ht="138" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>155</v>
       </c>
@@ -19749,7 +19781,7 @@
       <c r="M158" s="9"/>
       <c r="N158" s="11"/>
     </row>
-    <row r="159" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>156</v>
       </c>
@@ -19783,7 +19815,7 @@
       <c r="M159" s="9"/>
       <c r="N159" s="11"/>
     </row>
-    <row r="160" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>157</v>
       </c>
@@ -19817,7 +19849,7 @@
       <c r="M160" s="9"/>
       <c r="N160" s="11"/>
     </row>
-    <row r="161" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>158</v>
       </c>
@@ -19851,7 +19883,7 @@
       <c r="M161" s="9"/>
       <c r="N161" s="11"/>
     </row>
-    <row r="162" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>159</v>
       </c>
@@ -19885,7 +19917,7 @@
       <c r="M162" s="9"/>
       <c r="N162" s="11"/>
     </row>
-    <row r="163" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>160</v>
       </c>
@@ -19923,7 +19955,7 @@
       <c r="M163" s="9"/>
       <c r="N163" s="11"/>
     </row>
-    <row r="164" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>161</v>
       </c>
@@ -19961,7 +19993,7 @@
       <c r="M164" s="9"/>
       <c r="N164" s="11"/>
     </row>
-    <row r="165" spans="1:14" ht="98" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>162</v>
       </c>
@@ -19995,7 +20027,7 @@
       <c r="M165" s="9"/>
       <c r="N165" s="11"/>
     </row>
-    <row r="166" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>163</v>
       </c>
@@ -20029,7 +20061,7 @@
       <c r="M166" s="9"/>
       <c r="N166" s="11"/>
     </row>
-    <row r="167" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>164</v>
       </c>
@@ -20063,7 +20095,7 @@
       <c r="M167" s="9"/>
       <c r="N167" s="11"/>
     </row>
-    <row r="168" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>165</v>
       </c>
@@ -20097,7 +20129,7 @@
       <c r="M168" s="9"/>
       <c r="N168" s="11"/>
     </row>
-    <row r="169" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>166</v>
       </c>
@@ -20131,7 +20163,7 @@
       <c r="M169" s="9"/>
       <c r="N169" s="11"/>
     </row>
-    <row r="170" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>167</v>
       </c>
@@ -20165,7 +20197,7 @@
       <c r="M170" s="9"/>
       <c r="N170" s="11"/>
     </row>
-    <row r="171" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>168</v>
       </c>
@@ -20199,7 +20231,7 @@
       <c r="M171" s="9"/>
       <c r="N171" s="11"/>
     </row>
-    <row r="172" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>169</v>
       </c>
@@ -20233,7 +20265,7 @@
       <c r="M172" s="9"/>
       <c r="N172" s="11"/>
     </row>
-    <row r="173" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>170</v>
       </c>
@@ -20267,7 +20299,7 @@
       <c r="M173" s="9"/>
       <c r="N173" s="11"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>171</v>
       </c>
@@ -20301,7 +20333,7 @@
       <c r="M174" s="9"/>
       <c r="N174" s="11"/>
     </row>
-    <row r="175" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>172</v>
       </c>
@@ -20339,7 +20371,7 @@
       <c r="M175" s="9"/>
       <c r="N175" s="11"/>
     </row>
-    <row r="176" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>173</v>
       </c>
@@ -20373,7 +20405,7 @@
       <c r="M176" s="9"/>
       <c r="N176" s="11"/>
     </row>
-    <row r="177" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>174</v>
       </c>
@@ -20407,7 +20439,7 @@
       <c r="M177" s="9"/>
       <c r="N177" s="11"/>
     </row>
-    <row r="178" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>175</v>
       </c>
@@ -20441,7 +20473,7 @@
       <c r="M178" s="9"/>
       <c r="N178" s="11"/>
     </row>
-    <row r="179" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>176</v>
       </c>
@@ -20475,7 +20507,7 @@
       <c r="M179" s="9"/>
       <c r="N179" s="11"/>
     </row>
-    <row r="180" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>177</v>
       </c>
@@ -20509,7 +20541,7 @@
       <c r="M180" s="9"/>
       <c r="N180" s="11"/>
     </row>
-    <row r="181" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>178</v>
       </c>
@@ -20543,7 +20575,7 @@
       <c r="M181" s="9"/>
       <c r="N181" s="11"/>
     </row>
-    <row r="182" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>179</v>
       </c>
@@ -20581,7 +20613,7 @@
       <c r="M182" s="9"/>
       <c r="N182" s="11"/>
     </row>
-    <row r="183" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>180</v>
       </c>
@@ -20615,7 +20647,7 @@
       <c r="M183" s="9"/>
       <c r="N183" s="11"/>
     </row>
-    <row r="184" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>181</v>
       </c>
@@ -20649,7 +20681,7 @@
       <c r="M184" s="9"/>
       <c r="N184" s="11"/>
     </row>
-    <row r="185" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>182</v>
       </c>
@@ -20683,7 +20715,7 @@
       <c r="M185" s="9"/>
       <c r="N185" s="11"/>
     </row>
-    <row r="186" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>183</v>
       </c>
@@ -20719,7 +20751,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>184</v>
       </c>
@@ -20755,7 +20787,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>185</v>
       </c>
@@ -20787,7 +20819,7 @@
       <c r="M188" s="9"/>
       <c r="N188" s="11"/>
     </row>
-    <row r="189" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>186</v>
       </c>
@@ -20819,7 +20851,7 @@
       <c r="M189" s="9"/>
       <c r="N189" s="11"/>
     </row>
-    <row r="190" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>187</v>
       </c>
@@ -20851,7 +20883,7 @@
       <c r="M190" s="9"/>
       <c r="N190" s="11"/>
     </row>
-    <row r="191" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>188</v>
       </c>
@@ -20883,7 +20915,7 @@
       <c r="M191" s="9"/>
       <c r="N191" s="11"/>
     </row>
-    <row r="192" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>189</v>
       </c>
@@ -20915,7 +20947,7 @@
       <c r="M192" s="9"/>
       <c r="N192" s="11"/>
     </row>
-    <row r="193" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>190</v>
       </c>
@@ -20947,7 +20979,7 @@
       <c r="M193" s="9"/>
       <c r="N193" s="11"/>
     </row>
-    <row r="194" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>191</v>
       </c>
@@ -20979,7 +21011,7 @@
       <c r="M194" s="9"/>
       <c r="N194" s="11"/>
     </row>
-    <row r="195" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>192</v>
       </c>
@@ -21011,7 +21043,7 @@
       <c r="M195" s="9"/>
       <c r="N195" s="11"/>
     </row>
-    <row r="196" spans="1:16" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>193</v>
       </c>
@@ -21043,7 +21075,7 @@
       <c r="M196" s="9"/>
       <c r="N196" s="11"/>
     </row>
-    <row r="197" spans="1:16" s="36" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" s="36" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A197" s="36">
         <v>194</v>
       </c>
@@ -21064,7 +21096,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="36">
         <v>195</v>
       </c>
@@ -21104,7 +21136,7 @@
       <c r="O198" s="37"/>
       <c r="P198" s="36"/>
     </row>
-    <row r="199" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="36">
         <v>196</v>
       </c>
@@ -21144,7 +21176,7 @@
       <c r="O199" s="37"/>
       <c r="P199" s="36"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="36"/>
       <c r="B200" s="37"/>
       <c r="C200" s="36"/>
@@ -21162,7 +21194,7 @@
       <c r="O200" s="37"/>
       <c r="P200" s="36"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="36"/>
       <c r="B201" s="37"/>
       <c r="C201" s="36"/>
@@ -21180,7 +21212,7 @@
       <c r="O201" s="37"/>
       <c r="P201" s="36"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="36"/>
       <c r="B202" s="37"/>
       <c r="C202" s="36"/>
@@ -21198,7 +21230,7 @@
       <c r="O202" s="37"/>
       <c r="P202" s="36"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="36"/>
       <c r="B203" s="37"/>
       <c r="C203" s="36"/>
@@ -21216,7 +21248,7 @@
       <c r="O203" s="37"/>
       <c r="P203" s="36"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="36"/>
       <c r="B204" s="37"/>
       <c r="C204" s="36"/>
@@ -21234,7 +21266,7 @@
       <c r="O204" s="37"/>
       <c r="P204" s="36"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="36"/>
       <c r="B205" s="37"/>
       <c r="C205" s="36"/>
@@ -21252,7 +21284,7 @@
       <c r="O205" s="37"/>
       <c r="P205" s="36"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="36"/>
       <c r="B206" s="37"/>
       <c r="C206" s="36"/>
@@ -21270,7 +21302,7 @@
       <c r="O206" s="37"/>
       <c r="P206" s="36"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="36"/>
       <c r="B207" s="37"/>
       <c r="C207" s="36"/>
@@ -21288,7 +21320,7 @@
       <c r="O207" s="37"/>
       <c r="P207" s="36"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="36"/>
       <c r="B208" s="37"/>
       <c r="C208" s="36"/>
@@ -21306,7 +21338,7 @@
       <c r="O208" s="37"/>
       <c r="P208" s="36"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="36"/>
       <c r="B209" s="37"/>
       <c r="C209" s="36"/>
@@ -21324,7 +21356,7 @@
       <c r="O209" s="37"/>
       <c r="P209" s="36"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="36"/>
       <c r="B210" s="37"/>
       <c r="C210" s="36"/>
@@ -21342,7 +21374,7 @@
       <c r="O210" s="37"/>
       <c r="P210" s="36"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="36"/>
       <c r="B211" s="37"/>
       <c r="C211" s="36"/>
@@ -21360,7 +21392,7 @@
       <c r="O211" s="37"/>
       <c r="P211" s="36"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="36"/>
       <c r="B212" s="37"/>
       <c r="C212" s="36"/>
@@ -21378,7 +21410,7 @@
       <c r="O212" s="37"/>
       <c r="P212" s="36"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="36"/>
       <c r="B213" s="37"/>
       <c r="C213" s="36"/>
@@ -21396,7 +21428,7 @@
       <c r="O213" s="37"/>
       <c r="P213" s="36"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="36"/>
       <c r="B214" s="37"/>
       <c r="C214" s="36"/>
@@ -21414,7 +21446,7 @@
       <c r="O214" s="37"/>
       <c r="P214" s="36"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="36"/>
       <c r="B215" s="37"/>
       <c r="C215" s="36"/>
@@ -21432,7 +21464,7 @@
       <c r="O215" s="37"/>
       <c r="P215" s="36"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="36"/>
       <c r="B216" s="37"/>
       <c r="C216" s="36"/>
@@ -21450,7 +21482,7 @@
       <c r="O216" s="37"/>
       <c r="P216" s="36"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="36"/>
       <c r="B217" s="37"/>
       <c r="C217" s="36"/>
@@ -21468,7 +21500,7 @@
       <c r="O217" s="37"/>
       <c r="P217" s="36"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="36"/>
       <c r="B218" s="37"/>
       <c r="C218" s="36"/>
@@ -21486,7 +21518,7 @@
       <c r="O218" s="37"/>
       <c r="P218" s="36"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="36"/>
       <c r="B219" s="37"/>
       <c r="C219" s="36"/>
@@ -21504,7 +21536,7 @@
       <c r="O219" s="37"/>
       <c r="P219" s="36"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="36"/>
       <c r="B220" s="37"/>
       <c r="C220" s="36"/>
@@ -21522,7 +21554,7 @@
       <c r="O220" s="37"/>
       <c r="P220" s="36"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="36"/>
       <c r="B221" s="37"/>
       <c r="C221" s="36"/>
@@ -21540,7 +21572,7 @@
       <c r="O221" s="37"/>
       <c r="P221" s="36"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="36"/>
       <c r="B222" s="37"/>
       <c r="C222" s="36"/>
@@ -21558,7 +21590,7 @@
       <c r="O222" s="37"/>
       <c r="P222" s="36"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="36"/>
       <c r="B223" s="37"/>
       <c r="C223" s="36"/>
@@ -21576,7 +21608,7 @@
       <c r="O223" s="37"/>
       <c r="P223" s="36"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="36"/>
       <c r="B224" s="37"/>
       <c r="C224" s="36"/>
@@ -21594,7 +21626,7 @@
       <c r="O224" s="37"/>
       <c r="P224" s="36"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="36"/>
       <c r="B225" s="37"/>
       <c r="C225" s="36"/>
@@ -21612,7 +21644,7 @@
       <c r="O225" s="37"/>
       <c r="P225" s="36"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="36"/>
       <c r="B226" s="37"/>
       <c r="C226" s="36"/>
@@ -21630,7 +21662,7 @@
       <c r="O226" s="37"/>
       <c r="P226" s="36"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="36"/>
       <c r="B227" s="37"/>
       <c r="C227" s="36"/>
@@ -21648,7 +21680,7 @@
       <c r="O227" s="37"/>
       <c r="P227" s="36"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="36"/>
       <c r="B228" s="37"/>
       <c r="C228" s="36"/>
@@ -21666,7 +21698,7 @@
       <c r="O228" s="37"/>
       <c r="P228" s="36"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="36"/>
       <c r="B229" s="37"/>
       <c r="C229" s="36"/>
@@ -21684,7 +21716,7 @@
       <c r="O229" s="37"/>
       <c r="P229" s="36"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="36"/>
       <c r="B230" s="37"/>
       <c r="C230" s="36"/>
@@ -21702,7 +21734,7 @@
       <c r="O230" s="37"/>
       <c r="P230" s="36"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="36"/>
       <c r="B231" s="37"/>
       <c r="C231" s="36"/>
@@ -21720,7 +21752,7 @@
       <c r="O231" s="37"/>
       <c r="P231" s="36"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="36"/>
       <c r="B232" s="37"/>
       <c r="C232" s="36"/>
@@ -21738,7 +21770,7 @@
       <c r="O232" s="37"/>
       <c r="P232" s="36"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" s="36"/>
       <c r="B233" s="37"/>
       <c r="C233" s="36"/>
@@ -21756,7 +21788,7 @@
       <c r="O233" s="37"/>
       <c r="P233" s="36"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="36"/>
       <c r="B234" s="37"/>
       <c r="C234" s="36"/>
@@ -21774,7 +21806,7 @@
       <c r="O234" s="37"/>
       <c r="P234" s="36"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" s="36"/>
       <c r="B235" s="37"/>
       <c r="C235" s="36"/>
@@ -21792,7 +21824,7 @@
       <c r="O235" s="37"/>
       <c r="P235" s="36"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="36"/>
       <c r="B236" s="37"/>
       <c r="C236" s="36"/>
@@ -21810,7 +21842,7 @@
       <c r="O236" s="37"/>
       <c r="P236" s="36"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="36"/>
       <c r="B237" s="37"/>
       <c r="C237" s="36"/>
@@ -21828,7 +21860,7 @@
       <c r="O237" s="37"/>
       <c r="P237" s="36"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="36"/>
       <c r="B238" s="37"/>
       <c r="C238" s="36"/>
@@ -21846,7 +21878,7 @@
       <c r="O238" s="37"/>
       <c r="P238" s="36"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="36"/>
       <c r="B239" s="37"/>
       <c r="C239" s="36"/>
@@ -21864,7 +21896,7 @@
       <c r="O239" s="37"/>
       <c r="P239" s="36"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="36"/>
       <c r="B240" s="37"/>
       <c r="C240" s="36"/>
@@ -21882,7 +21914,7 @@
       <c r="O240" s="37"/>
       <c r="P240" s="36"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="36"/>
       <c r="B241" s="37"/>
       <c r="C241" s="36"/>
@@ -21900,7 +21932,7 @@
       <c r="O241" s="37"/>
       <c r="P241" s="36"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="36"/>
       <c r="B242" s="37"/>
       <c r="C242" s="36"/>
@@ -21918,7 +21950,7 @@
       <c r="O242" s="37"/>
       <c r="P242" s="36"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" s="36"/>
       <c r="B243" s="37"/>
       <c r="C243" s="36"/>
@@ -21936,7 +21968,7 @@
       <c r="O243" s="37"/>
       <c r="P243" s="36"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="36"/>
       <c r="B244" s="37"/>
       <c r="C244" s="36"/>
@@ -21954,7 +21986,7 @@
       <c r="O244" s="37"/>
       <c r="P244" s="36"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="36"/>
       <c r="B245" s="37"/>
       <c r="C245" s="36"/>
@@ -21972,7 +22004,7 @@
       <c r="O245" s="37"/>
       <c r="P245" s="36"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="36"/>
       <c r="B246" s="37"/>
       <c r="C246" s="36"/>
@@ -21990,7 +22022,7 @@
       <c r="O246" s="37"/>
       <c r="P246" s="36"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="36"/>
       <c r="B247" s="37"/>
       <c r="C247" s="36"/>
@@ -22008,7 +22040,7 @@
       <c r="O247" s="37"/>
       <c r="P247" s="36"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="36"/>
       <c r="B248" s="37"/>
       <c r="C248" s="36"/>
@@ -22026,7 +22058,7 @@
       <c r="O248" s="37"/>
       <c r="P248" s="36"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="36"/>
       <c r="B249" s="37"/>
       <c r="C249" s="36"/>
@@ -22044,7 +22076,7 @@
       <c r="O249" s="37"/>
       <c r="P249" s="36"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="36"/>
       <c r="B250" s="37"/>
       <c r="C250" s="36"/>
@@ -22062,7 +22094,7 @@
       <c r="O250" s="37"/>
       <c r="P250" s="36"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="36"/>
       <c r="B251" s="37"/>
       <c r="C251" s="36"/>
@@ -22080,7 +22112,7 @@
       <c r="O251" s="37"/>
       <c r="P251" s="36"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="36"/>
       <c r="B252" s="37"/>
       <c r="C252" s="36"/>
@@ -22098,7 +22130,7 @@
       <c r="O252" s="37"/>
       <c r="P252" s="36"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="36"/>
       <c r="B253" s="37"/>
       <c r="C253" s="36"/>
@@ -22116,7 +22148,7 @@
       <c r="O253" s="37"/>
       <c r="P253" s="36"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="36"/>
       <c r="B254" s="37"/>
       <c r="C254" s="36"/>
@@ -22134,7 +22166,7 @@
       <c r="O254" s="37"/>
       <c r="P254" s="36"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="36"/>
       <c r="B255" s="37"/>
       <c r="C255" s="36"/>
@@ -22152,7 +22184,7 @@
       <c r="O255" s="37"/>
       <c r="P255" s="36"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="36"/>
       <c r="B256" s="37"/>
       <c r="C256" s="36"/>
@@ -22170,7 +22202,7 @@
       <c r="O256" s="37"/>
       <c r="P256" s="36"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" s="36"/>
       <c r="B257" s="37"/>
       <c r="C257" s="36"/>
@@ -22188,7 +22220,7 @@
       <c r="O257" s="37"/>
       <c r="P257" s="36"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="36"/>
       <c r="B258" s="37"/>
       <c r="C258" s="36"/>
@@ -22206,7 +22238,7 @@
       <c r="O258" s="37"/>
       <c r="P258" s="36"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" s="36"/>
       <c r="B259" s="37"/>
       <c r="C259" s="36"/>
@@ -22224,352 +22256,352 @@
       <c r="O259" s="37"/>
       <c r="P259" s="36"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D260" s="8"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D261" s="8"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D262" s="8"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D263" s="8"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D264" s="8"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D265" s="8"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D266" s="8"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D267" s="8"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D268" s="8"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D269" s="8"/>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D270" s="8"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D271" s="8"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D272" s="8"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D273" s="8"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D274" s="8"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D275" s="8"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D276" s="8"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D277" s="8"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D278" s="8"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D279" s="8"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D280" s="8"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D281" s="8"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D282" s="8"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D283" s="8"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D284" s="8"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D285" s="8"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D286" s="8"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D287" s="8"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D288" s="8"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D289" s="8"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D290" s="8"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D291" s="8"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D292" s="8"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D293" s="8"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D294" s="8"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D295" s="8"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D296" s="8"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D297" s="8"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D298" s="8"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D299" s="8"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D300" s="8"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D301" s="8"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D302" s="8"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D303" s="8"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D304" s="8"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D305" s="8"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D306" s="8"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D307" s="8"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D308" s="8"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D309" s="8"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D310" s="8"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D311" s="8"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D312" s="8"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D313" s="8"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D315" s="8"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D316" s="8"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D317" s="8"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D318" s="8"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D319" s="8"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D320" s="8"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D321" s="8"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D322" s="8"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D323" s="8"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D324" s="8"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D325" s="8"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D326" s="8"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D327" s="8"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D328" s="8"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D329" s="8"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D330" s="8"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D331" s="8"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D332" s="8"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D333" s="8"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D334" s="8"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D335" s="8"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D336" s="8"/>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D337" s="8"/>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D338" s="8"/>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D339" s="8"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D340" s="8"/>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D341" s="8"/>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D342" s="8"/>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D343" s="8"/>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D344" s="8"/>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D345" s="8"/>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D346" s="8"/>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D347" s="8"/>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D348" s="8"/>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D349" s="8"/>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D350" s="8"/>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D351" s="8"/>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D352" s="8"/>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D353" s="8"/>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D354" s="8"/>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D355" s="8"/>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D356" s="8"/>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D357" s="8"/>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D358" s="8"/>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D359" s="8"/>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D360" s="8"/>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D361" s="8"/>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D362" s="8"/>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D363" s="8"/>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D364" s="8"/>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D365" s="8"/>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D366" s="8"/>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D367" s="8"/>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D368" s="8"/>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D369" s="8"/>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D370" s="8"/>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D371" s="8"/>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D372" s="8"/>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D373" s="8"/>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D374" s="8"/>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D375" s="8"/>
     </row>
   </sheetData>
@@ -22588,32 +22620,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:M256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
+      <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="47" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="59.54296875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.54296875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.26953125" style="2"/>
-    <col min="13" max="13" width="27.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="20.26953125" style="64"/>
+    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="47" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="59.5546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" style="2"/>
+    <col min="13" max="13" width="27.77734375" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="20.21875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>472</v>
       </c>
@@ -22630,7 +22662,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>473</v>
       </c>
@@ -22671,7 +22703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -22710,7 +22742,7 @@
       </c>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -22749,7 +22781,7 @@
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -22788,7 +22820,7 @@
       </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -22827,7 +22859,7 @@
       </c>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -22862,7 +22894,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -22901,7 +22933,7 @@
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -22940,7 +22972,7 @@
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -22979,7 +23011,7 @@
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -23018,7 +23050,7 @@
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -23057,7 +23089,7 @@
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="392" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -23096,7 +23128,7 @@
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -23135,7 +23167,7 @@
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -23174,7 +23206,7 @@
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -23213,7 +23245,7 @@
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -23252,7 +23284,7 @@
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -23291,7 +23323,7 @@
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -23330,7 +23362,7 @@
       </c>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -23369,7 +23401,7 @@
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="308" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -23408,7 +23440,7 @@
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -23447,7 +23479,7 @@
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -23486,7 +23518,7 @@
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -23525,7 +23557,7 @@
       </c>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -23564,7 +23596,7 @@
       </c>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -23603,7 +23635,7 @@
       </c>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -23642,7 +23674,7 @@
       </c>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -23677,7 +23709,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -23716,7 +23748,7 @@
       </c>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -23755,7 +23787,7 @@
       </c>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -23790,7 +23822,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -23825,7 +23857,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -23864,7 +23896,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -23903,7 +23935,7 @@
       </c>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -23942,7 +23974,7 @@
       </c>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -23977,7 +24009,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -24016,7 +24048,7 @@
       </c>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -24055,7 +24087,7 @@
       </c>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -24094,7 +24126,7 @@
       </c>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -24133,7 +24165,7 @@
       </c>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -24172,7 +24204,7 @@
       </c>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -24207,7 +24239,7 @@
       <c r="L42" s="9"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" ht="266" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="262.2" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -24246,7 +24278,7 @@
       </c>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -24285,7 +24317,7 @@
       </c>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -24324,7 +24356,7 @@
       </c>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -24363,7 +24395,7 @@
       </c>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -24398,7 +24430,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -24437,7 +24469,7 @@
       </c>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -24476,7 +24508,7 @@
       </c>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -24515,7 +24547,7 @@
       </c>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -24554,7 +24586,7 @@
       </c>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -24593,7 +24625,7 @@
       </c>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -24628,7 +24660,7 @@
       <c r="L53" s="9"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -24667,7 +24699,7 @@
       </c>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -24702,7 +24734,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -24737,7 +24769,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="11"/>
     </row>
-    <row r="57" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -24772,7 +24804,7 @@
       <c r="L57" s="9"/>
       <c r="M57" s="11"/>
     </row>
-    <row r="58" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -24807,7 +24839,7 @@
       <c r="L58" s="9"/>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -24846,7 +24878,7 @@
       </c>
       <c r="M59" s="11"/>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -24885,7 +24917,7 @@
       </c>
       <c r="M60" s="11"/>
     </row>
-    <row r="61" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -24920,7 +24952,7 @@
       <c r="L61" s="9"/>
       <c r="M61" s="11"/>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -24959,7 +24991,7 @@
       </c>
       <c r="M62" s="11"/>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -24998,7 +25030,7 @@
       </c>
       <c r="M63" s="11"/>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -25037,7 +25069,7 @@
       </c>
       <c r="M64" s="11"/>
     </row>
-    <row r="65" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -25072,7 +25104,7 @@
       <c r="L65" s="9"/>
       <c r="M65" s="11"/>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -25111,7 +25143,7 @@
       </c>
       <c r="M66" s="11"/>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -25150,7 +25182,7 @@
       </c>
       <c r="M67" s="11"/>
     </row>
-    <row r="68" spans="1:13" ht="126" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -25185,7 +25217,7 @@
       <c r="L68" s="9"/>
       <c r="M68" s="11"/>
     </row>
-    <row r="69" spans="1:13" ht="126" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -25220,7 +25252,7 @@
       <c r="L69" s="9"/>
       <c r="M69" s="11"/>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -25259,7 +25291,7 @@
       </c>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -25298,7 +25330,7 @@
       </c>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -25337,7 +25369,7 @@
       </c>
       <c r="M72" s="11"/>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -25376,7 +25408,7 @@
       </c>
       <c r="M73" s="11"/>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -25415,7 +25447,7 @@
       </c>
       <c r="M74" s="11"/>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -25454,7 +25486,7 @@
       </c>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -25493,7 +25525,7 @@
       </c>
       <c r="M76" s="11"/>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -25532,7 +25564,7 @@
       </c>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -25571,7 +25603,7 @@
       </c>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -25610,7 +25642,7 @@
       </c>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -25649,7 +25681,7 @@
       </c>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -25684,7 +25716,7 @@
       <c r="L81" s="9"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -25719,7 +25751,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -25754,7 +25786,7 @@
       <c r="L83" s="9"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -25789,7 +25821,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -25828,7 +25860,7 @@
       </c>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -25863,7 +25895,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -25902,7 +25934,7 @@
       </c>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -25937,7 +25969,7 @@
       <c r="L88" s="9"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -25976,7 +26008,7 @@
       </c>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -26011,7 +26043,7 @@
       <c r="L90" s="9"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -26050,7 +26082,7 @@
       </c>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -26089,7 +26121,7 @@
       </c>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -26124,7 +26156,7 @@
       <c r="L93" s="9"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -26163,7 +26195,7 @@
       </c>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -26198,7 +26230,7 @@
       <c r="L95" s="9"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>94</v>
       </c>
@@ -26233,7 +26265,7 @@
       <c r="L96" s="9"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>95</v>
       </c>
@@ -26268,7 +26300,7 @@
       <c r="L97" s="9"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -26307,7 +26339,7 @@
       </c>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>97</v>
       </c>
@@ -26342,7 +26374,7 @@
       <c r="L99" s="9"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>98</v>
       </c>
@@ -26381,7 +26413,7 @@
       </c>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>99</v>
       </c>
@@ -26416,7 +26448,7 @@
       <c r="L101" s="9"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>100</v>
       </c>
@@ -26451,7 +26483,7 @@
       <c r="L102" s="9"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>101</v>
       </c>
@@ -26490,7 +26522,7 @@
       </c>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>102</v>
       </c>
@@ -26529,7 +26561,7 @@
       </c>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>103</v>
       </c>
@@ -26564,7 +26596,7 @@
       <c r="L105" s="8"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>104</v>
       </c>
@@ -26603,7 +26635,7 @@
       </c>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>105</v>
       </c>
@@ -26642,7 +26674,7 @@
       </c>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>106</v>
       </c>
@@ -26681,7 +26713,7 @@
       </c>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>107</v>
       </c>
@@ -26720,7 +26752,7 @@
       </c>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>108</v>
       </c>
@@ -26759,7 +26791,7 @@
       </c>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>109</v>
       </c>
@@ -26798,7 +26830,7 @@
       </c>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>110</v>
       </c>
@@ -26837,7 +26869,7 @@
       </c>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>111</v>
       </c>
@@ -26876,7 +26908,7 @@
       </c>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" ht="308" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" s="1" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>112</v>
       </c>
@@ -26915,7 +26947,7 @@
       </c>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>113</v>
       </c>
@@ -26954,7 +26986,7 @@
       </c>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>114</v>
       </c>
@@ -26993,7 +27025,7 @@
       </c>
       <c r="M116" s="11"/>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>115</v>
       </c>
@@ -27032,7 +27064,7 @@
       </c>
       <c r="M117" s="11"/>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" s="1" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>116</v>
       </c>
@@ -27071,7 +27103,7 @@
       </c>
       <c r="M118" s="11"/>
     </row>
-    <row r="119" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>117</v>
       </c>
@@ -27110,7 +27142,7 @@
       </c>
       <c r="M119" s="11"/>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>118</v>
       </c>
@@ -27149,7 +27181,7 @@
       </c>
       <c r="M120" s="11"/>
     </row>
-    <row r="121" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>119</v>
       </c>
@@ -27188,7 +27220,7 @@
       </c>
       <c r="M121" s="11"/>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>120</v>
       </c>
@@ -27227,7 +27259,7 @@
       </c>
       <c r="M122" s="11"/>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>121</v>
       </c>
@@ -27266,7 +27298,7 @@
       </c>
       <c r="M123" s="11"/>
     </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>122</v>
       </c>
@@ -27305,7 +27337,7 @@
       </c>
       <c r="M124" s="11"/>
     </row>
-    <row r="125" spans="1:13" s="1" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" s="1" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>123</v>
       </c>
@@ -27344,7 +27376,7 @@
       </c>
       <c r="M125" s="11"/>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>124</v>
       </c>
@@ -27379,7 +27411,7 @@
       <c r="L126" s="9"/>
       <c r="M126" s="11"/>
     </row>
-    <row r="127" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>125</v>
       </c>
@@ -27418,7 +27450,7 @@
       </c>
       <c r="M127" s="11"/>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>126</v>
       </c>
@@ -27457,7 +27489,7 @@
       </c>
       <c r="M128" s="11"/>
     </row>
-    <row r="129" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>127</v>
       </c>
@@ -27496,7 +27528,7 @@
       </c>
       <c r="M129" s="11"/>
     </row>
-    <row r="130" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>128</v>
       </c>
@@ -27531,7 +27563,7 @@
       <c r="L130" s="8"/>
       <c r="M130" s="11"/>
     </row>
-    <row r="131" spans="1:13" s="1" customFormat="1" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>129</v>
       </c>
@@ -27570,7 +27602,7 @@
       </c>
       <c r="M131" s="11"/>
     </row>
-    <row r="132" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>130</v>
       </c>
@@ -27609,7 +27641,7 @@
       </c>
       <c r="M132" s="11"/>
     </row>
-    <row r="133" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>131</v>
       </c>
@@ -27648,7 +27680,7 @@
       </c>
       <c r="M133" s="11"/>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>132</v>
       </c>
@@ -27687,7 +27719,7 @@
       </c>
       <c r="M134" s="11"/>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>133</v>
       </c>
@@ -27726,7 +27758,7 @@
       </c>
       <c r="M135" s="11"/>
     </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>134</v>
       </c>
@@ -27765,7 +27797,7 @@
       </c>
       <c r="M136" s="11"/>
     </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>135</v>
       </c>
@@ -27800,7 +27832,7 @@
       <c r="L137" s="8"/>
       <c r="M137" s="11"/>
     </row>
-    <row r="138" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>136</v>
       </c>
@@ -27839,7 +27871,7 @@
       </c>
       <c r="M138" s="11"/>
     </row>
-    <row r="139" spans="1:13" ht="149.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="149.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>137</v>
       </c>
@@ -27874,7 +27906,7 @@
       <c r="L139" s="8"/>
       <c r="M139" s="11"/>
     </row>
-    <row r="140" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>138</v>
       </c>
@@ -27905,7 +27937,7 @@
       <c r="L140" s="8"/>
       <c r="M140" s="11"/>
     </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>139</v>
       </c>
@@ -27936,7 +27968,7 @@
       <c r="L141" s="8"/>
       <c r="M141" s="11"/>
     </row>
-    <row r="142" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>140</v>
       </c>
@@ -27967,7 +27999,7 @@
       <c r="L142" s="8"/>
       <c r="M142" s="11"/>
     </row>
-    <row r="143" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>141</v>
       </c>
@@ -27998,7 +28030,7 @@
       <c r="L143" s="9"/>
       <c r="M143" s="11"/>
     </row>
-    <row r="144" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>142</v>
       </c>
@@ -28029,7 +28061,7 @@
       <c r="L144" s="8"/>
       <c r="M144" s="11"/>
     </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>143</v>
       </c>
@@ -28060,7 +28092,7 @@
       <c r="L145" s="55"/>
       <c r="M145" s="59"/>
     </row>
-    <row r="146" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>144</v>
       </c>
@@ -28095,7 +28127,7 @@
       </c>
       <c r="M146" s="11"/>
     </row>
-    <row r="147" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>145</v>
       </c>
@@ -28130,7 +28162,7 @@
       </c>
       <c r="M147" s="11"/>
     </row>
-    <row r="148" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>146</v>
       </c>
@@ -28165,7 +28197,7 @@
       </c>
       <c r="M148" s="11"/>
     </row>
-    <row r="149" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>147</v>
       </c>
@@ -28200,7 +28232,7 @@
       </c>
       <c r="M149" s="11"/>
     </row>
-    <row r="150" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>148</v>
       </c>
@@ -28235,7 +28267,7 @@
       </c>
       <c r="M150" s="11"/>
     </row>
-    <row r="151" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>149</v>
       </c>
@@ -28269,7 +28301,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>150</v>
       </c>
@@ -28303,7 +28335,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>151</v>
       </c>
@@ -28338,7 +28370,7 @@
       </c>
       <c r="M153" s="11"/>
     </row>
-    <row r="154" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>152</v>
       </c>
@@ -28373,7 +28405,7 @@
       </c>
       <c r="M154" s="11"/>
     </row>
-    <row r="155" spans="1:13" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" s="1" customFormat="1" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>153</v>
       </c>
@@ -28404,7 +28436,7 @@
       <c r="L155" s="9"/>
       <c r="M155" s="11"/>
     </row>
-    <row r="156" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>154</v>
       </c>
@@ -28439,7 +28471,7 @@
       </c>
       <c r="M156" s="11"/>
     </row>
-    <row r="157" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>155</v>
       </c>
@@ -28474,7 +28506,7 @@
       </c>
       <c r="M157" s="11"/>
     </row>
-    <row r="158" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>156</v>
       </c>
@@ -28505,7 +28537,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="11"/>
     </row>
-    <row r="159" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>157</v>
       </c>
@@ -28536,7 +28568,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="11"/>
     </row>
-    <row r="160" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>158</v>
       </c>
@@ -28571,7 +28603,7 @@
       </c>
       <c r="M160" s="11"/>
     </row>
-    <row r="161" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>159</v>
       </c>
@@ -28606,7 +28638,7 @@
       </c>
       <c r="M161" s="11"/>
     </row>
-    <row r="162" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>160</v>
       </c>
@@ -28641,7 +28673,7 @@
       </c>
       <c r="M162" s="11"/>
     </row>
-    <row r="163" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>161</v>
       </c>
@@ -28676,7 +28708,7 @@
       </c>
       <c r="M163" s="63"/>
     </row>
-    <row r="164" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>162</v>
       </c>
@@ -28711,7 +28743,7 @@
       </c>
       <c r="M164" s="63"/>
     </row>
-    <row r="165" spans="1:13" ht="70" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>163</v>
       </c>
@@ -28746,7 +28778,7 @@
       </c>
       <c r="M165" s="63"/>
     </row>
-    <row r="166" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>164</v>
       </c>
@@ -28781,7 +28813,7 @@
       </c>
       <c r="M166" s="63"/>
     </row>
-    <row r="167" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>165</v>
       </c>
@@ -28816,7 +28848,7 @@
       </c>
       <c r="M167" s="63"/>
     </row>
-    <row r="168" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>166</v>
       </c>
@@ -28851,7 +28883,7 @@
       </c>
       <c r="M168" s="63"/>
     </row>
-    <row r="169" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>167</v>
       </c>
@@ -28886,7 +28918,7 @@
       </c>
       <c r="M169" s="63"/>
     </row>
-    <row r="170" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>168</v>
       </c>
@@ -28921,7 +28953,7 @@
       </c>
       <c r="M170" s="63"/>
     </row>
-    <row r="171" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>169</v>
       </c>
@@ -28956,7 +28988,7 @@
       </c>
       <c r="M171" s="63"/>
     </row>
-    <row r="172" spans="1:13" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>170</v>
       </c>
@@ -28987,7 +29019,7 @@
       <c r="L172" s="63"/>
       <c r="M172" s="63"/>
     </row>
-    <row r="173" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A173" s="63">
         <v>171</v>
       </c>
@@ -29022,7 +29054,7 @@
       </c>
       <c r="M173" s="63"/>
     </row>
-    <row r="174" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A174" s="63">
         <v>172</v>
       </c>
@@ -29057,7 +29089,7 @@
       </c>
       <c r="M174" s="63"/>
     </row>
-    <row r="175" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="69" x14ac:dyDescent="0.25">
       <c r="A175" s="63">
         <v>173</v>
       </c>
@@ -29092,7 +29124,7 @@
       </c>
       <c r="M175" s="63"/>
     </row>
-    <row r="176" spans="1:13" ht="70" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A176" s="63">
         <v>174</v>
       </c>
@@ -29127,7 +29159,7 @@
       </c>
       <c r="M176" s="63"/>
     </row>
-    <row r="177" spans="1:13" s="24" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>175</v>
       </c>
@@ -29164,7 +29196,7 @@
       </c>
       <c r="M177" s="23"/>
     </row>
-    <row r="178" spans="1:13" s="24" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>176</v>
       </c>
@@ -29201,7 +29233,7 @@
       </c>
       <c r="M178" s="23"/>
     </row>
-    <row r="179" spans="1:13" ht="98" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A179" s="63">
         <v>177</v>
       </c>
@@ -29236,7 +29268,7 @@
       </c>
       <c r="M179" s="63"/>
     </row>
-    <row r="180" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A180" s="70">
         <v>178</v>
       </c>
@@ -29271,7 +29303,7 @@
       </c>
       <c r="M180" s="70"/>
     </row>
-    <row r="181" spans="1:13" ht="28" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A181" s="63">
         <v>179</v>
       </c>
@@ -29306,7 +29338,7 @@
       </c>
       <c r="M181" s="11"/>
     </row>
-    <row r="182" spans="1:13" ht="28" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A182" s="63">
         <v>180</v>
       </c>
@@ -29341,7 +29373,7 @@
       </c>
       <c r="M182" s="11"/>
     </row>
-    <row r="183" spans="1:13" ht="98" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A183" s="63">
         <v>181</v>
       </c>
@@ -29376,7 +29408,7 @@
       </c>
       <c r="M183" s="11"/>
     </row>
-    <row r="184" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A184" s="63">
         <v>182</v>
       </c>
@@ -29411,7 +29443,7 @@
       </c>
       <c r="M184" s="11"/>
     </row>
-    <row r="185" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>183</v>
       </c>
@@ -29446,7 +29478,7 @@
       </c>
       <c r="M185" s="11"/>
     </row>
-    <row r="186" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="63">
         <v>184</v>
       </c>
@@ -29481,7 +29513,7 @@
       </c>
       <c r="M186" s="11"/>
     </row>
-    <row r="187" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A187" s="63">
         <v>185</v>
       </c>
@@ -29514,7 +29546,7 @@
       </c>
       <c r="M187" s="11"/>
     </row>
-    <row r="188" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A188" s="63">
         <v>186</v>
       </c>
@@ -29547,7 +29579,7 @@
       </c>
       <c r="M188" s="11"/>
     </row>
-    <row r="189" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A189" s="63">
         <v>187</v>
       </c>
@@ -29580,7 +29612,7 @@
       </c>
       <c r="M189" s="11"/>
     </row>
-    <row r="190" spans="1:13" ht="140" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="138" x14ac:dyDescent="0.3">
       <c r="A190" s="63">
         <v>188</v>
       </c>
@@ -29615,7 +29647,7 @@
       </c>
       <c r="M190" s="11"/>
     </row>
-    <row r="191" spans="1:13" ht="140" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A191" s="63">
         <v>189</v>
       </c>
@@ -29648,7 +29680,7 @@
       </c>
       <c r="M191" s="11"/>
     </row>
-    <row r="192" spans="1:13" ht="98" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>190</v>
       </c>
@@ -29677,7 +29709,7 @@
       <c r="L192" s="8"/>
       <c r="M192" s="11"/>
     </row>
-    <row r="193" spans="1:13" ht="268.89999999999998" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" ht="268.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="63">
         <v>191</v>
       </c>
@@ -29710,7 +29742,7 @@
       </c>
       <c r="M193" s="11"/>
     </row>
-    <row r="194" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A194" s="63">
         <v>192</v>
       </c>
@@ -29743,7 +29775,7 @@
       </c>
       <c r="M194" s="11"/>
     </row>
-    <row r="195" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A195" s="63">
         <v>193</v>
       </c>
@@ -29776,7 +29808,7 @@
       </c>
       <c r="M195" s="59"/>
     </row>
-    <row r="196" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A196" s="63">
         <v>194</v>
       </c>
@@ -29809,7 +29841,7 @@
       </c>
       <c r="M196" s="11"/>
     </row>
-    <row r="197" spans="1:13" ht="224" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>195</v>
       </c>
@@ -29840,7 +29872,7 @@
       <c r="L197" s="8"/>
       <c r="M197" s="11"/>
     </row>
-    <row r="198" spans="1:13" ht="154" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A198" s="63">
         <v>196</v>
       </c>
@@ -29875,7 +29907,7 @@
       </c>
       <c r="M198" s="11"/>
     </row>
-    <row r="199" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>197</v>
       </c>
@@ -29906,7 +29938,7 @@
       <c r="L199" s="8"/>
       <c r="M199" s="11"/>
     </row>
-    <row r="200" spans="1:13" ht="126" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A200" s="55">
         <v>198</v>
       </c>
@@ -29935,7 +29967,7 @@
       <c r="L200" s="55"/>
       <c r="M200" s="59"/>
     </row>
-    <row r="201" spans="1:13" ht="253.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" ht="253.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="63">
         <v>199</v>
       </c>
@@ -29970,7 +30002,7 @@
       </c>
       <c r="M201" s="11"/>
     </row>
-    <row r="202" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>200</v>
       </c>
@@ -30005,7 +30037,7 @@
       </c>
       <c r="M202" s="11"/>
     </row>
-    <row r="203" spans="1:13" ht="98" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A203" s="63">
         <v>201</v>
       </c>
@@ -30040,7 +30072,7 @@
       </c>
       <c r="M203" s="11"/>
     </row>
-    <row r="204" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A204" s="63">
         <v>202</v>
       </c>
@@ -30075,7 +30107,7 @@
       </c>
       <c r="M204" s="11"/>
     </row>
-    <row r="205" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A205" s="70">
         <v>203</v>
       </c>
@@ -30110,7 +30142,7 @@
       </c>
       <c r="M205" s="11"/>
     </row>
-    <row r="206" spans="1:13" ht="294" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A206" s="63">
         <v>204</v>
       </c>
@@ -30145,7 +30177,7 @@
       </c>
       <c r="M206" s="11"/>
     </row>
-    <row r="207" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A207" s="63">
         <v>205</v>
       </c>
@@ -30180,7 +30212,7 @@
       </c>
       <c r="M207" s="11"/>
     </row>
-    <row r="208" spans="1:13" ht="112.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="63">
         <v>206</v>
       </c>
@@ -30215,7 +30247,7 @@
       </c>
       <c r="M208" s="11"/>
     </row>
-    <row r="209" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A209" s="63">
         <v>207</v>
       </c>
@@ -30250,7 +30282,7 @@
       </c>
       <c r="M209" s="11"/>
     </row>
-    <row r="210" spans="1:13" ht="140" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A210" s="63">
         <v>208</v>
       </c>
@@ -30285,7 +30317,7 @@
       </c>
       <c r="M210" s="11"/>
     </row>
-    <row r="211" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A211" s="63">
         <v>209</v>
       </c>
@@ -30320,7 +30352,7 @@
       </c>
       <c r="M211" s="11"/>
     </row>
-    <row r="212" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>210</v>
       </c>
@@ -30349,7 +30381,7 @@
       <c r="L212" s="8"/>
       <c r="M212" s="11"/>
     </row>
-    <row r="213" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A213" s="63">
         <v>211</v>
       </c>
@@ -30382,7 +30414,7 @@
       </c>
       <c r="M213" s="11"/>
     </row>
-    <row r="214" spans="1:13" ht="126" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A214" s="63">
         <v>212</v>
       </c>
@@ -30417,7 +30449,7 @@
       </c>
       <c r="M214" s="11"/>
     </row>
-    <row r="215" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A215" s="63">
         <v>213</v>
       </c>
@@ -30454,7 +30486,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A216" s="63">
         <v>214</v>
       </c>
@@ -30489,7 +30521,7 @@
       </c>
       <c r="M216" s="11"/>
     </row>
-    <row r="217" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>215</v>
       </c>
@@ -30530,7 +30562,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>216</v>
       </c>
@@ -30567,7 +30599,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>217</v>
       </c>
@@ -30604,7 +30636,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="140" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>218</v>
       </c>
@@ -30641,7 +30673,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>219</v>
       </c>
@@ -30678,7 +30710,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>220</v>
       </c>
@@ -30715,7 +30747,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>221</v>
       </c>
@@ -30752,7 +30784,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="195.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>222</v>
       </c>
@@ -30789,7 +30821,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A225" s="63">
         <v>223</v>
       </c>
@@ -30828,7 +30860,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>224</v>
       </c>
@@ -30865,7 +30897,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>225</v>
       </c>
@@ -30902,7 +30934,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>226</v>
       </c>
@@ -30939,7 +30971,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="182" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>227</v>
       </c>
@@ -30976,7 +31008,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="224" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>228</v>
       </c>
@@ -31013,7 +31045,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>229</v>
       </c>
@@ -31044,7 +31076,7 @@
       <c r="L231" s="8"/>
       <c r="M231" s="11"/>
     </row>
-    <row r="232" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>230</v>
       </c>
@@ -31073,7 +31105,7 @@
       <c r="L232" s="8"/>
       <c r="M232" s="11"/>
     </row>
-    <row r="233" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>231</v>
       </c>
@@ -31106,7 +31138,7 @@
       </c>
       <c r="M233" s="11"/>
     </row>
-    <row r="234" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>232</v>
       </c>
@@ -31141,7 +31173,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>233</v>
       </c>
@@ -31176,7 +31208,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>234</v>
       </c>
@@ -31211,7 +31243,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>235</v>
       </c>
@@ -31246,7 +31278,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>236</v>
       </c>
@@ -31281,7 +31313,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>237</v>
       </c>
@@ -31316,7 +31348,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="157.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" ht="157.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="55">
         <v>238</v>
       </c>
@@ -31351,7 +31383,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="154" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>239</v>
       </c>
@@ -31386,7 +31418,7 @@
       </c>
       <c r="M241" s="11"/>
     </row>
-    <row r="242" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>240</v>
       </c>
@@ -31421,7 +31453,7 @@
       </c>
       <c r="M242" s="11"/>
     </row>
-    <row r="243" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>241</v>
       </c>
@@ -31456,7 +31488,7 @@
       </c>
       <c r="M243" s="11"/>
     </row>
-    <row r="244" spans="1:13" ht="241.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" ht="241.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>242</v>
       </c>
@@ -31491,7 +31523,7 @@
       </c>
       <c r="M244" s="11"/>
     </row>
-    <row r="245" spans="1:13" ht="196" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>243</v>
       </c>
@@ -31526,7 +31558,7 @@
       </c>
       <c r="M245" s="11"/>
     </row>
-    <row r="246" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>244</v>
       </c>
@@ -31561,7 +31593,7 @@
       </c>
       <c r="M246" s="11"/>
     </row>
-    <row r="247" spans="1:13" ht="182" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>245</v>
       </c>
@@ -31596,7 +31628,7 @@
       </c>
       <c r="M247" s="11"/>
     </row>
-    <row r="248" spans="1:13" ht="84" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>246</v>
       </c>
@@ -31631,7 +31663,7 @@
       </c>
       <c r="M248" s="11"/>
     </row>
-    <row r="249" spans="1:13" ht="322" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>247</v>
       </c>
@@ -31666,7 +31698,7 @@
       </c>
       <c r="M249" s="11"/>
     </row>
-    <row r="250" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>248</v>
       </c>
@@ -31701,7 +31733,7 @@
       </c>
       <c r="M250" s="11"/>
     </row>
-    <row r="251" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>249</v>
       </c>
@@ -31734,7 +31766,7 @@
       <c r="L251" s="9"/>
       <c r="M251" s="11"/>
     </row>
-    <row r="252" spans="1:13" ht="154" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>250</v>
       </c>
@@ -31763,7 +31795,7 @@
       <c r="L252" s="9"/>
       <c r="M252" s="11"/>
     </row>
-    <row r="253" spans="1:13" ht="98" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>251</v>
       </c>
@@ -31777,7 +31809,7 @@
         <v>1089</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F253" s="11" t="s">
         <v>1039</v>
@@ -31787,12 +31819,18 @@
       </c>
       <c r="H253" s="8"/>
       <c r="I253" s="12"/>
-      <c r="J253" s="11"/>
-      <c r="K253" s="8"/>
-      <c r="L253" s="9"/>
+      <c r="J253" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K253" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L253" s="9">
+        <v>43532</v>
+      </c>
       <c r="M253" s="11"/>
     </row>
-    <row r="254" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>252</v>
       </c>
@@ -31827,7 +31865,7 @@
       </c>
       <c r="M254" s="11"/>
     </row>
-    <row r="255" spans="1:13" ht="294" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" ht="289.8" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>253</v>
       </c>
@@ -31851,6 +31889,35 @@
       <c r="K255" s="8"/>
       <c r="L255" s="9"/>
       <c r="M255" s="11"/>
+    </row>
+    <row r="256" spans="1:13" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="8">
+        <v>254</v>
+      </c>
+      <c r="B256" s="9">
+        <v>43537</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G256" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H256" s="8"/>
+      <c r="I256" s="12"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="8"/>
+      <c r="L256" s="9"/>
+      <c r="M256" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M251" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -31872,7 +31939,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -31887,20 +31954,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="1"/>
-    <col min="2" max="2" width="90.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.26953125" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="90.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="85"/>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>989</v>
       </c>
@@ -31911,7 +31978,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -31922,7 +31989,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -31933,7 +32000,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -31944,7 +32011,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>4</v>
       </c>
@@ -31953,7 +32020,7 @@
       </c>
       <c r="C6" s="30"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>5</v>
       </c>
@@ -31964,7 +32031,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>6</v>
       </c>
@@ -31975,7 +32042,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="25"/>
     </row>
   </sheetData>
@@ -32003,14 +32070,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
@@ -32021,12 +32088,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="D4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
@@ -32037,7 +32104,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
@@ -32048,7 +32115,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D7" s="13" t="s">
         <v>1005</v>
       </c>
@@ -32056,27 +32123,27 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F8" s="13" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F9" s="46" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F10" s="46" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F11" s="46" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F12" s="46" t="s">
         <v>466</v>
       </c>
@@ -32088,29 +32155,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32321,27 +32371,35 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32366,9 +32424,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC82220A-70BF-442B-B955-06D0DF44739A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B13339-99B9-4CF0-8824-FE64047EAFB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="1099">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12688,6 +12688,30 @@
 (ii) the resident might no longer have access to the old mobile number.
 The user will not be able to proceed further. A similar issue exists for change of email ID as well.
 Should we therefore mandate 'Biometrics' as the mode of authentication for all updates made through client?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Virtual ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+1. UIN Update: Should we support entry of VIN (also called VID) instead of the UIN?
+2. Lost UIN: Should we support entry of VIN as a way to retrieve the UIN?
+3. VIN Management: Should we support generation / revocation / retrieval of VIN?</t>
     </r>
   </si>
 </sst>
@@ -22620,11 +22644,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C261" sqref="C261"/>
+      <selection pane="bottomLeft" activeCell="G258" sqref="G258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -31918,6 +31942,35 @@
       <c r="K256" s="8"/>
       <c r="L256" s="9"/>
       <c r="M256" s="11"/>
+    </row>
+    <row r="257" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A257" s="8">
+        <v>255</v>
+      </c>
+      <c r="B257" s="9">
+        <v>43537</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F257" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G257" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H257" s="8"/>
+      <c r="I257" s="12"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="8"/>
+      <c r="L257" s="9"/>
+      <c r="M257" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M251" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -32155,15 +32208,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -32370,6 +32414,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -32397,14 +32450,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32419,6 +32464,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B13339-99B9-4CF0-8824-FE64047EAFB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B559BD1-72A3-4620-98BD-813E9CE739BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="1100">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12713,6 +12713,11 @@
 2. Lost UIN: Should we support entry of VIN as a way to retrieve the UIN?
 3. VIN Management: Should we support generation / revocation / retrieval of VIN?</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. This is a good thought. Analyze the impact to understand the effort involved from Reg. Client and Reg. Processor perspective, so that a decision could be made on whether it should be part of v1 or v1.5
+2. No. This is not required. If VIN is available, UIN could be retrieved using Resident Services and contacting Reg. Centre in this case becomes redundant.
+3. Issuance/revocation/retrieval of VIN through Reg. Client can be marked as a v2 feature. This will be subject to mobile number being mandatorily linked to UIN/VIN, as all VIN transactions are OTP based. </t>
   </si>
 </sst>
 </file>
@@ -22648,7 +22653,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G258" sqref="G258"/>
+      <selection pane="bottomLeft" activeCell="E258" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -31943,7 +31948,7 @@
       <c r="L256" s="9"/>
       <c r="M256" s="11"/>
     </row>
-    <row r="257" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>255</v>
       </c>
@@ -31957,7 +31962,7 @@
         <v>1062</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>1018</v>
+        <v>24</v>
       </c>
       <c r="F257" s="11" t="s">
         <v>1039</v>
@@ -31967,9 +31972,15 @@
       </c>
       <c r="H257" s="8"/>
       <c r="I257" s="12"/>
-      <c r="J257" s="11"/>
-      <c r="K257" s="8"/>
-      <c r="L257" s="9"/>
+      <c r="J257" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K257" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L257" s="9">
+        <v>43537</v>
+      </c>
       <c r="M257" s="11"/>
     </row>
   </sheetData>
@@ -32208,6 +32219,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -32414,15 +32434,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -32450,6 +32461,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32464,14 +32483,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B559BD1-72A3-4620-98BD-813E9CE739BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C4BB8-9BAD-4B45-AE0A-C424E85B3168}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="1101">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12718,6 +12718,9 @@
     <t xml:space="preserve">1. This is a good thought. Analyze the impact to understand the effort involved from Reg. Client and Reg. Processor perspective, so that a decision could be made on whether it should be part of v1 or v1.5
 2. No. This is not required. If VIN is available, UIN could be retrieved using Resident Services and contacting Reg. Centre in this case becomes redundant.
 3. Issuance/revocation/retrieval of VIN through Reg. Client can be marked as a v2 feature. This will be subject to mobile number being mandatorily linked to UIN/VIN, as all VIN transactions are OTP based. </t>
+  </si>
+  <si>
+    <t>If the Country configures it as OTP, then the scenario should be handled from the Country’s policy perspective (Outside MOSIP) and in this case the Mobile/Email ID update using OTP will fail.</t>
   </si>
 </sst>
 </file>
@@ -22653,7 +22656,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E258" sqref="E258"/>
+      <selection pane="bottomLeft" activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -31933,7 +31936,7 @@
         <v>1062</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>1018</v>
+        <v>24</v>
       </c>
       <c r="F256" s="11" t="s">
         <v>1039</v>
@@ -31943,9 +31946,15 @@
       </c>
       <c r="H256" s="8"/>
       <c r="I256" s="12"/>
-      <c r="J256" s="11"/>
-      <c r="K256" s="8"/>
-      <c r="L256" s="9"/>
+      <c r="J256" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K256" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="L256" s="9">
+        <v>43537</v>
+      </c>
       <c r="M256" s="11"/>
     </row>
     <row r="257" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -32219,12 +32228,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32435,35 +32461,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32488,18 +32506,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip_new_master\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51224C98-91CF-4155-B8C3-9339A9B6AAE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D3143A-DFAA-4B27-ABED-512DD73405FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8530" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_QueryLog_Internal" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1096">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12597,6 +12597,66 @@
 - UIN Deactivation or Reactivation list will come to from, a Death Registry or Fraud Agency or Admin Portal with Reason for De-Activation or Re-Activation.
 - MOSIP should be able to have a Tracability of the Request from where it has come from and what is the reason of deactivation.
 - MOSIP should be able to deactivate or reactivate the UIN.</t>
+  </si>
+  <si>
+    <t>Discussion on Resident Services on 4 Mar 19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Retrieve Lost UIN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. What documents should be uploaded for lost UIN? Should it follow the same configuration as a new registration?
+2. Should we capture all biometrics or any one biometric?
+3. Should we mark biometric exceptions and capture exception photo?
+4. Is face photo mandatory?</t>
+    </r>
+  </si>
+  <si>
+    <t>"New Query created for eKYC - IDA" Mail Dated 8th March 2019</t>
+  </si>
+  <si>
+    <t>Date of query: 8 March 19
+For the eKYC service, post successful authentication of the individual demographic details of the individual will be returned as per policy. Currently we are also sending the UIN/masked UIN in the response so that the partner can store the individul’s details against this UIN/masked UIN.
+Is it legally mandatory to send the UIN/masked UIN in the response as the Partner is already in possession of the UIN and is sent in the api request?
+No Discussions yet</t>
+  </si>
+  <si>
+    <t>We should not be sending UIN masked or otherwise. We should be sending a token id that refers to the UIN specifically for the requesting partner</t>
+  </si>
+  <si>
+    <t>Email Dated -11th Mar 2018 - RE: MoM - Retrieval of Lost UIN through Reg. Client - 08 Mar 19</t>
+  </si>
+  <si>
+    <t>Process Flow for Lost UIN in Registration Processor:
+a.	Perform the structural validations and other Sanity checks
+b.	Since biometrics is mandatory to be captured, perform a Biometric Dedupe (In new registration we perform demo dedupe before bio dedupe. In the Lost UIN flow, it will be vice-versa)
+a.	If one match found for bio dedupe and demo data is available, perform 1:1 demo data match with the identified matched record 
+i.	If demo data matched, pass the packet to print queue
+ii.	If demo data not matched, send for manual adjudication/reject packet?
+b.	If one match found for bio dedupe and demo data is not available
+i.	Pass the packet to print queue
+c.	If multiple matches found for bio dedupe and demo data available, perform 1:1 match with the identified records
+i.	If matched with one packet, pass the packet to print queue
+ii.	If demo data matched with multiple packets, send for manual adjudication/reject packet?
+iii.	If demo data not matched, send for manual adjudication/reject packet?
+d.	If multiple matches found for bio dedupe and demo data not available
+i.	Reject the packet
+e.	If no match found for bio dedupe, reject packet</t>
   </si>
 </sst>
 </file>
@@ -13463,19 +13523,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.36328125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.26953125" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="57" customWidth="1"/>
     <col min="12" max="12" width="15.453125" customWidth="1"/>
-    <col min="13" max="13" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21044,7 +21104,7 @@
       <c r="O198" s="37"/>
       <c r="P198" s="36"/>
     </row>
-    <row r="199" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="36">
         <v>196</v>
       </c>
@@ -22528,29 +22588,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M252"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F251" sqref="F251"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.36328125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.90625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" style="47" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="47" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="59.54296875" style="3" customWidth="1"/>
     <col min="11" max="11" width="17.54296875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.36328125" style="2"/>
-    <col min="13" max="13" width="27.6328125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="20.36328125" style="64"/>
+    <col min="12" max="12" width="20.26953125" style="2"/>
+    <col min="13" max="13" width="27.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="20.26953125" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -24455,7 +24515,7 @@
       </c>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -25472,7 +25532,7 @@
       </c>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -27284,7 +27344,7 @@
       </c>
       <c r="M125" s="11"/>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>124</v>
       </c>
@@ -27779,7 +27839,7 @@
       </c>
       <c r="M138" s="11"/>
     </row>
-    <row r="139" spans="1:13" ht="149.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="149.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
         <v>137</v>
       </c>
@@ -28313,7 +28373,7 @@
       </c>
       <c r="M154" s="11"/>
     </row>
-    <row r="155" spans="1:13" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>153</v>
       </c>
@@ -28896,7 +28956,7 @@
       </c>
       <c r="M171" s="63"/>
     </row>
-    <row r="172" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>170</v>
       </c>
@@ -29141,7 +29201,7 @@
       </c>
       <c r="M178" s="23"/>
     </row>
-    <row r="179" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="98" x14ac:dyDescent="0.3">
       <c r="A179" s="63">
         <v>177</v>
       </c>
@@ -29617,7 +29677,7 @@
       <c r="L192" s="8"/>
       <c r="M192" s="11"/>
     </row>
-    <row r="193" spans="1:13" ht="269" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" ht="268.89999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="63">
         <v>191</v>
       </c>
@@ -29875,7 +29935,7 @@
       <c r="L200" s="55"/>
       <c r="M200" s="59"/>
     </row>
-    <row r="201" spans="1:13" ht="254" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" ht="253.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="63">
         <v>199</v>
       </c>
@@ -30120,7 +30180,7 @@
       </c>
       <c r="M207" s="11"/>
     </row>
-    <row r="208" spans="1:13" ht="112.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" ht="112.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63">
         <v>206</v>
       </c>
@@ -31256,7 +31316,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="158" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" ht="157.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="55">
         <v>238</v>
       </c>
@@ -31396,7 +31456,7 @@
       </c>
       <c r="M243" s="11"/>
     </row>
-    <row r="244" spans="1:13" ht="241.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" ht="241.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="8">
         <v>242</v>
       </c>
@@ -31702,6 +31762,95 @@
       <c r="K252" s="8"/>
       <c r="L252" s="9"/>
       <c r="M252" s="11"/>
+    </row>
+    <row r="253" spans="1:13" ht="98" x14ac:dyDescent="0.35">
+      <c r="A253" s="8">
+        <v>251</v>
+      </c>
+      <c r="B253" s="9">
+        <v>43529</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G253" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H253" s="8"/>
+      <c r="I253" s="12"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="8"/>
+      <c r="L253" s="9"/>
+      <c r="M253" s="11"/>
+    </row>
+    <row r="254" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="8">
+        <v>252</v>
+      </c>
+      <c r="B254" s="9">
+        <v>43532</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H254" s="8"/>
+      <c r="I254" s="12"/>
+      <c r="J254" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K254" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L254" s="9">
+        <v>43532</v>
+      </c>
+      <c r="M254" s="11"/>
+    </row>
+    <row r="255" spans="1:13" ht="294" x14ac:dyDescent="0.35">
+      <c r="A255" s="8">
+        <v>253</v>
+      </c>
+      <c r="B255" s="9">
+        <v>43536</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H255" s="8"/>
+      <c r="I255" s="12"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="8"/>
+      <c r="L255" s="9"/>
+      <c r="M255" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M251" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -31738,12 +31887,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" style="1"/>
+    <col min="1" max="1" width="9.26953125" style="1"/>
     <col min="2" max="2" width="90.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.54296875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.36328125" style="1"/>
+    <col min="4" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -31857,8 +32006,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -31939,15 +32088,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -31973,7 +32113,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -32180,15 +32320,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -32205,7 +32346,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32222,4 +32363,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip_new_master\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D3143A-DFAA-4B27-ABED-512DD73405FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51224C98-91CF-4155-B8C3-9339A9B6AAE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8530" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_QueryLog_Internal" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="1089">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12597,66 +12597,6 @@
 - UIN Deactivation or Reactivation list will come to from, a Death Registry or Fraud Agency or Admin Portal with Reason for De-Activation or Re-Activation.
 - MOSIP should be able to have a Tracability of the Request from where it has come from and what is the reason of deactivation.
 - MOSIP should be able to deactivate or reactivate the UIN.</t>
-  </si>
-  <si>
-    <t>Discussion on Resident Services on 4 Mar 19</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Retrieve Lost UIN:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1. What documents should be uploaded for lost UIN? Should it follow the same configuration as a new registration?
-2. Should we capture all biometrics or any one biometric?
-3. Should we mark biometric exceptions and capture exception photo?
-4. Is face photo mandatory?</t>
-    </r>
-  </si>
-  <si>
-    <t>"New Query created for eKYC - IDA" Mail Dated 8th March 2019</t>
-  </si>
-  <si>
-    <t>Date of query: 8 March 19
-For the eKYC service, post successful authentication of the individual demographic details of the individual will be returned as per policy. Currently we are also sending the UIN/masked UIN in the response so that the partner can store the individul’s details against this UIN/masked UIN.
-Is it legally mandatory to send the UIN/masked UIN in the response as the Partner is already in possession of the UIN and is sent in the api request?
-No Discussions yet</t>
-  </si>
-  <si>
-    <t>We should not be sending UIN masked or otherwise. We should be sending a token id that refers to the UIN specifically for the requesting partner</t>
-  </si>
-  <si>
-    <t>Email Dated -11th Mar 2018 - RE: MoM - Retrieval of Lost UIN through Reg. Client - 08 Mar 19</t>
-  </si>
-  <si>
-    <t>Process Flow for Lost UIN in Registration Processor:
-a.	Perform the structural validations and other Sanity checks
-b.	Since biometrics is mandatory to be captured, perform a Biometric Dedupe (In new registration we perform demo dedupe before bio dedupe. In the Lost UIN flow, it will be vice-versa)
-a.	If one match found for bio dedupe and demo data is available, perform 1:1 demo data match with the identified matched record 
-i.	If demo data matched, pass the packet to print queue
-ii.	If demo data not matched, send for manual adjudication/reject packet?
-b.	If one match found for bio dedupe and demo data is not available
-i.	Pass the packet to print queue
-c.	If multiple matches found for bio dedupe and demo data available, perform 1:1 match with the identified records
-i.	If matched with one packet, pass the packet to print queue
-ii.	If demo data matched with multiple packets, send for manual adjudication/reject packet?
-iii.	If demo data not matched, send for manual adjudication/reject packet?
-d.	If multiple matches found for bio dedupe and demo data not available
-i.	Reject the packet
-e.	If no match found for bio dedupe, reject packet</t>
   </si>
 </sst>
 </file>
@@ -13523,19 +13463,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7265625" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.26953125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.36328125" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="57" customWidth="1"/>
     <col min="12" max="12" width="15.453125" customWidth="1"/>
-    <col min="13" max="13" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21104,7 +21044,7 @@
       <c r="O198" s="37"/>
       <c r="P198" s="36"/>
     </row>
-    <row r="199" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="36">
         <v>196</v>
       </c>
@@ -22588,29 +22528,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:M252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F251" sqref="F251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.36328125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="47" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.90625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" style="47" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="59.54296875" style="3" customWidth="1"/>
     <col min="11" max="11" width="17.54296875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.26953125" style="2"/>
-    <col min="13" max="13" width="27.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="20.26953125" style="64"/>
+    <col min="12" max="12" width="20.36328125" style="2"/>
+    <col min="13" max="13" width="27.6328125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="20.36328125" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -24515,7 +24455,7 @@
       </c>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -25532,7 +25472,7 @@
       </c>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -27344,7 +27284,7 @@
       </c>
       <c r="M125" s="11"/>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>124</v>
       </c>
@@ -27839,7 +27779,7 @@
       </c>
       <c r="M138" s="11"/>
     </row>
-    <row r="139" spans="1:13" ht="149.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="149.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
         <v>137</v>
       </c>
@@ -28373,7 +28313,7 @@
       </c>
       <c r="M154" s="11"/>
     </row>
-    <row r="155" spans="1:13" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>153</v>
       </c>
@@ -28956,7 +28896,7 @@
       </c>
       <c r="M171" s="63"/>
     </row>
-    <row r="172" spans="1:13" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>170</v>
       </c>
@@ -29201,7 +29141,7 @@
       </c>
       <c r="M178" s="23"/>
     </row>
-    <row r="179" spans="1:13" ht="98" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="84" x14ac:dyDescent="0.3">
       <c r="A179" s="63">
         <v>177</v>
       </c>
@@ -29677,7 +29617,7 @@
       <c r="L192" s="8"/>
       <c r="M192" s="11"/>
     </row>
-    <row r="193" spans="1:13" ht="268.89999999999998" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" ht="269" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="63">
         <v>191</v>
       </c>
@@ -29935,7 +29875,7 @@
       <c r="L200" s="55"/>
       <c r="M200" s="59"/>
     </row>
-    <row r="201" spans="1:13" ht="253.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" ht="254" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="63">
         <v>199</v>
       </c>
@@ -30180,7 +30120,7 @@
       </c>
       <c r="M207" s="11"/>
     </row>
-    <row r="208" spans="1:13" ht="112.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" ht="112.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63">
         <v>206</v>
       </c>
@@ -31316,7 +31256,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="157.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" ht="158" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="55">
         <v>238</v>
       </c>
@@ -31456,7 +31396,7 @@
       </c>
       <c r="M243" s="11"/>
     </row>
-    <row r="244" spans="1:13" ht="241.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" ht="241.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="8">
         <v>242</v>
       </c>
@@ -31762,95 +31702,6 @@
       <c r="K252" s="8"/>
       <c r="L252" s="9"/>
       <c r="M252" s="11"/>
-    </row>
-    <row r="253" spans="1:13" ht="98" x14ac:dyDescent="0.35">
-      <c r="A253" s="8">
-        <v>251</v>
-      </c>
-      <c r="B253" s="9">
-        <v>43529</v>
-      </c>
-      <c r="C253" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D253" s="11" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E253" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G253" s="11" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H253" s="8"/>
-      <c r="I253" s="12"/>
-      <c r="J253" s="11"/>
-      <c r="K253" s="8"/>
-      <c r="L253" s="9"/>
-      <c r="M253" s="11"/>
-    </row>
-    <row r="254" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="8">
-        <v>252</v>
-      </c>
-      <c r="B254" s="9">
-        <v>43532</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D254" s="11" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E254" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F254" s="11" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G254" s="11" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H254" s="8"/>
-      <c r="I254" s="12"/>
-      <c r="J254" s="11" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K254" s="8" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L254" s="9">
-        <v>43532</v>
-      </c>
-      <c r="M254" s="11"/>
-    </row>
-    <row r="255" spans="1:13" ht="294" x14ac:dyDescent="0.35">
-      <c r="A255" s="8">
-        <v>253</v>
-      </c>
-      <c r="B255" s="9">
-        <v>43536</v>
-      </c>
-      <c r="C255" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D255" s="11" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E255" s="11"/>
-      <c r="F255" s="11"/>
-      <c r="G255" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H255" s="8"/>
-      <c r="I255" s="12"/>
-      <c r="J255" s="11"/>
-      <c r="K255" s="8"/>
-      <c r="L255" s="9"/>
-      <c r="M255" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M251" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -31887,12 +31738,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="1"/>
+    <col min="1" max="1" width="9.36328125" style="1"/>
     <col min="2" max="2" width="90.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.54296875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.26953125" style="1"/>
+    <col min="4" max="16384" width="9.36328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -32006,8 +31857,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -32088,6 +31939,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -32113,7 +31973,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -32320,16 +32180,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -32346,7 +32205,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32363,12 +32222,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip_new_master\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D3143A-DFAA-4B27-ABED-512DD73405FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C5FB249-F3E8-46AA-B87B-6DB1A8F27D49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="1100">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12657,6 +12657,26 @@
 d.	If multiple matches found for bio dedupe and demo data not available
 i.	Reject the packet
 e.	If no match found for bio dedupe, reject packet</t>
+  </si>
+  <si>
+    <t>Email Dated - 4th April 2018 - RE: VID Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1: Would we allow the Country to change the number of instances in the VID policy once it is setup? Should policy changes be allowed.
+Q2: If the instance is set to a considerably high count for multiple VID types, we run into a risk of running out of VIDs. Do we leave this to the Country to define sensible policies and set the permitted instances based on their population or some process should be defined in MOSIP to handle this scenario 
+Q3: Considering the extent of usage of VIDs (For various services), in the interest of not running out of VIDs, would you recommend a Min and Max length of the VID? EG: Always x digits more than the UIN as minimum? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Clarification give for each Question:
+A1: Config changes will be a one-time setup. 
+As we discussed, Changes made after the one-time setup will not be handled gracefully but lead to an inconsistent state in v1. We will be required to document this. Country will need to carry out an impact analysis and identify ways of handling it if truly vital. 
+However, in v1.5 this will be handled by MOSIP vide a Config Validator (refer attached mail). Subsequently, MOSIP will have the capability built in the system to fix the identified in-consistencies as a result of a config change. Eventually, also provide migration support.
+A2: Yes, we leave it to the country to put a sensible number. Count checks should be there during VID generation as a validation of the policy. MOSIP will suggest sensible defaults
+A3: If limits are an issue the country might decide to go for alphanumeric values for non-perpetual VIDs. Transaction related VIDs would actually be generated and consumed digitally and might not even have human intervention except for transmission to an app vial QR Code, NFC, Intent, SMS etc. Currently MOSIP will provide a logic to generate numerical VIDs and set the min/max lengths on a logical basis. In future, we can look at supporting different logics for different VID Types (Perpetual/Time-based to have numeric/alpha-numeric VID generation logics etc)
+</t>
+  </si>
+  <si>
+    <t>Ramesj</t>
   </si>
 </sst>
 </file>
@@ -12991,7 +13011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13234,6 +13254,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -22588,11 +22611,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M256" sqref="M256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -22749,7 +22772,7 @@
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -29809,7 +29832,7 @@
       </c>
       <c r="M196" s="11"/>
     </row>
-    <row r="197" spans="1:13" ht="224" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" ht="182" x14ac:dyDescent="0.35">
       <c r="A197" s="8">
         <v>195</v>
       </c>
@@ -30250,7 +30273,7 @@
       </c>
       <c r="M209" s="11"/>
     </row>
-    <row r="210" spans="1:13" ht="140" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="126" x14ac:dyDescent="0.35">
       <c r="A210" s="63">
         <v>208</v>
       </c>
@@ -30789,7 +30812,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="182" x14ac:dyDescent="0.35">
       <c r="A225" s="63">
         <v>223</v>
       </c>
@@ -31351,7 +31374,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="154" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A241" s="8">
         <v>239</v>
       </c>
@@ -31421,7 +31444,7 @@
       </c>
       <c r="M242" s="11"/>
     </row>
-    <row r="243" spans="1:13" ht="112" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" ht="98" x14ac:dyDescent="0.35">
       <c r="A243" s="8">
         <v>241</v>
       </c>
@@ -31491,7 +31514,7 @@
       </c>
       <c r="M244" s="11"/>
     </row>
-    <row r="245" spans="1:13" ht="196" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" ht="154" x14ac:dyDescent="0.35">
       <c r="A245" s="8">
         <v>243</v>
       </c>
@@ -31526,7 +31549,7 @@
       </c>
       <c r="M245" s="11"/>
     </row>
-    <row r="246" spans="1:13" ht="168" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" ht="154" x14ac:dyDescent="0.35">
       <c r="A246" s="8">
         <v>244</v>
       </c>
@@ -31851,6 +31874,48 @@
       <c r="K255" s="8"/>
       <c r="L255" s="9"/>
       <c r="M255" s="11"/>
+    </row>
+    <row r="256" spans="1:13" ht="336" x14ac:dyDescent="0.35">
+      <c r="A256" s="2">
+        <v>254</v>
+      </c>
+      <c r="B256" s="88">
+        <v>43559</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K256" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L256" s="88">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="2">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:M251" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -32114,6 +32179,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -32320,15 +32394,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
@@ -32347,6 +32412,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32363,12 +32436,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
+++ b/docs/requirements/MasterQueryLog_MOSIP_17Jan'19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C4BB8-9BAD-4B45-AE0A-C424E85B3168}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C5FB249-F3E8-46AA-B87B-6DB1A8F27D49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_QueryLog_Internal" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="1100">
   <si>
     <t>MOSIP - QUERY LOG</t>
   </si>
@@ -12659,68 +12659,24 @@
 e.	If no match found for bio dedupe, reject packet</t>
   </si>
   <si>
-    <t>1. No documents.
-2. All biometrics.
-3. Yes.
-4. Yes.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>UIN Update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:
-The resident wishes to update their mobile number. If the mode of authentication for UIN update through reg. client is set to 'OTP',
-(i) the OTP should not be sent to the new mobile number as it is a security risk
-(ii) the resident might no longer have access to the old mobile number.
-The user will not be able to proceed further. A similar issue exists for change of email ID as well.
-Should we therefore mandate 'Biometrics' as the mode of authentication for all updates made through client?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Virtual ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:
-1. UIN Update: Should we support entry of VIN (also called VID) instead of the UIN?
-2. Lost UIN: Should we support entry of VIN as a way to retrieve the UIN?
-3. VIN Management: Should we support generation / revocation / retrieval of VIN?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. This is a good thought. Analyze the impact to understand the effort involved from Reg. Client and Reg. Processor perspective, so that a decision could be made on whether it should be part of v1 or v1.5
-2. No. This is not required. If VIN is available, UIN could be retrieved using Resident Services and contacting Reg. Centre in this case becomes redundant.
-3. Issuance/revocation/retrieval of VIN through Reg. Client can be marked as a v2 feature. This will be subject to mobile number being mandatorily linked to UIN/VIN, as all VIN transactions are OTP based. </t>
-  </si>
-  <si>
-    <t>If the Country configures it as OTP, then the scenario should be handled from the Country’s policy perspective (Outside MOSIP) and in this case the Mobile/Email ID update using OTP will fail.</t>
+    <t>Email Dated - 4th April 2018 - RE: VID Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1: Would we allow the Country to change the number of instances in the VID policy once it is setup? Should policy changes be allowed.
+Q2: If the instance is set to a considerably high count for multiple VID types, we run into a risk of running out of VIDs. Do we leave this to the Country to define sensible policies and set the permitted instances based on their population or some process should be defined in MOSIP to handle this scenario 
+Q3: Considering the extent of usage of VIDs (For various services), in the interest of not running out of VIDs, would you recommend a Min and Max length of the VID? EG: Always x digits more than the UIN as minimum? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Clarification give for each Question:
+A1: Config changes will be a one-time setup. 
+As we discussed, Changes made after the one-time setup will not be handled gracefully but lead to an inconsistent state in v1. We will be required to document this. Country will need to carry out an impact analysis and identify ways of handling it if truly vital. 
+However, in v1.5 this will be handled by MOSIP vide a Config Validator (refer attached mail). Subsequently, MOSIP will have the capability built in the system to fix the identified in-consistencies as a result of a config change. Eventually, also provide migration support.
+A2: Yes, we leave it to the country to put a sensible number. Count checks should be there during VID generation as a validation of the policy. MOSIP will suggest sensible defaults
+A3: If limits are an issue the country might decide to go for alphanumeric values for non-perpetual VIDs. Transaction related VIDs would actually be generated and consumed digitally and might not even have human intervention except for transmission to an app vial QR Code, NFC, Intent, SMS etc. Currently MOSIP will provide a logic to generate numerical VIDs and set the min/max lengths on a logical basis. In future, we can look at supporting different logics for different VID Types (Perpetual/Time-based to have numeric/alpha-numeric VID generation logics etc)
+</t>
+  </si>
+  <si>
+    <t>Ramesj</t>
   </si>
 </sst>
 </file>
@@ -13055,7 +13011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13298,6 +13254,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13585,25 +13544,25 @@
       <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.21875" style="60" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.26953125" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="57" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -13621,7 +13580,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -13665,7 +13624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -13697,7 +13656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="126" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -13739,7 +13698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -13779,7 +13738,7 @@
       </c>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -13819,7 +13778,7 @@
       </c>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -13861,7 +13820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -13901,7 +13860,7 @@
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -13943,7 +13902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -13983,7 +13942,7 @@
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -14023,7 +13982,7 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -14063,7 +14022,7 @@
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -14103,7 +14062,7 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -14141,7 +14100,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -14179,7 +14138,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -14217,7 +14176,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -14255,7 +14214,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -14293,7 +14252,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -14329,7 +14288,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -14367,7 +14326,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -14403,7 +14362,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -14441,7 +14400,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -14479,7 +14438,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -14517,7 +14476,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -14555,7 +14514,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -14593,7 +14552,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -14633,7 +14592,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -14673,7 +14632,7 @@
       </c>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -14711,7 +14670,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -14751,7 +14710,7 @@
       </c>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -14787,7 +14746,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -14825,7 +14784,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -14863,7 +14822,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="168" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>31</v>
       </c>
@@ -14903,7 +14862,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>32</v>
       </c>
@@ -14941,7 +14900,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>33</v>
       </c>
@@ -14979,7 +14938,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>34</v>
       </c>
@@ -15017,7 +14976,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>35</v>
       </c>
@@ -15057,7 +15016,7 @@
       </c>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>36</v>
       </c>
@@ -15097,7 +15056,7 @@
       </c>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>37</v>
       </c>
@@ -15137,7 +15096,7 @@
       </c>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>38</v>
       </c>
@@ -15177,7 +15136,7 @@
       </c>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>39</v>
       </c>
@@ -15217,7 +15176,7 @@
       </c>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>40</v>
       </c>
@@ -15257,7 +15216,7 @@
       </c>
       <c r="N43" s="11"/>
     </row>
-    <row r="44" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>41</v>
       </c>
@@ -15297,7 +15256,7 @@
       </c>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>42</v>
       </c>
@@ -15337,7 +15296,7 @@
       </c>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>43</v>
       </c>
@@ -15377,7 +15336,7 @@
       </c>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>44</v>
       </c>
@@ -15417,7 +15376,7 @@
       </c>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="168" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>45</v>
       </c>
@@ -15457,7 +15416,7 @@
       </c>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>46</v>
       </c>
@@ -15497,7 +15456,7 @@
       </c>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>47</v>
       </c>
@@ -15537,7 +15496,7 @@
       </c>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>48</v>
       </c>
@@ -15577,7 +15536,7 @@
       </c>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>49</v>
       </c>
@@ -15617,7 +15576,7 @@
       </c>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>50</v>
       </c>
@@ -15655,7 +15614,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>51</v>
       </c>
@@ -15695,7 +15654,7 @@
       </c>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>52</v>
       </c>
@@ -15733,7 +15692,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>53</v>
       </c>
@@ -15771,7 +15730,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>54</v>
       </c>
@@ -15809,7 +15768,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>55</v>
       </c>
@@ -15845,7 +15804,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="11"/>
     </row>
-    <row r="59" spans="1:14" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="168" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>56</v>
       </c>
@@ -15881,7 +15840,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="11"/>
     </row>
-    <row r="60" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>57</v>
       </c>
@@ -15921,7 +15880,7 @@
       </c>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>58</v>
       </c>
@@ -15961,7 +15920,7 @@
       </c>
       <c r="N61" s="11"/>
     </row>
-    <row r="62" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>59</v>
       </c>
@@ -16001,7 +15960,7 @@
       </c>
       <c r="N62" s="11"/>
     </row>
-    <row r="63" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>60</v>
       </c>
@@ -16041,7 +16000,7 @@
       </c>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>61</v>
       </c>
@@ -16081,7 +16040,7 @@
       </c>
       <c r="N64" s="11"/>
     </row>
-    <row r="65" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>62</v>
       </c>
@@ -16121,7 +16080,7 @@
       </c>
       <c r="N65" s="11"/>
     </row>
-    <row r="66" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <v>63</v>
       </c>
@@ -16161,7 +16120,7 @@
       </c>
       <c r="N66" s="11"/>
     </row>
-    <row r="67" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A67" s="8">
         <v>64</v>
       </c>
@@ -16201,7 +16160,7 @@
       </c>
       <c r="N67" s="11"/>
     </row>
-    <row r="68" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A68" s="8">
         <v>65</v>
       </c>
@@ -16241,7 +16200,7 @@
       </c>
       <c r="N68" s="11"/>
     </row>
-    <row r="69" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>66</v>
       </c>
@@ -16281,7 +16240,7 @@
       </c>
       <c r="N69" s="11"/>
     </row>
-    <row r="70" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <v>67</v>
       </c>
@@ -16321,7 +16280,7 @@
       </c>
       <c r="N70" s="11"/>
     </row>
-    <row r="71" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A71" s="8">
         <v>68</v>
       </c>
@@ -16361,7 +16320,7 @@
       </c>
       <c r="N71" s="11"/>
     </row>
-    <row r="72" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>69</v>
       </c>
@@ -16401,7 +16360,7 @@
       </c>
       <c r="N72" s="11"/>
     </row>
-    <row r="73" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>70</v>
       </c>
@@ -16441,7 +16400,7 @@
       </c>
       <c r="N73" s="11"/>
     </row>
-    <row r="74" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>71</v>
       </c>
@@ -16481,7 +16440,7 @@
       </c>
       <c r="N74" s="11"/>
     </row>
-    <row r="75" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>72</v>
       </c>
@@ -16521,7 +16480,7 @@
       </c>
       <c r="N75" s="11"/>
     </row>
-    <row r="76" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>73</v>
       </c>
@@ -16559,7 +16518,7 @@
       </c>
       <c r="N76" s="11"/>
     </row>
-    <row r="77" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>74</v>
       </c>
@@ -16599,7 +16558,7 @@
       </c>
       <c r="N77" s="11"/>
     </row>
-    <row r="78" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>75</v>
       </c>
@@ -16639,7 +16598,7 @@
       </c>
       <c r="N78" s="11"/>
     </row>
-    <row r="79" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
         <v>76</v>
       </c>
@@ -16679,7 +16638,7 @@
       </c>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>77</v>
       </c>
@@ -16719,7 +16678,7 @@
       </c>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>78</v>
       </c>
@@ -16759,7 +16718,7 @@
       </c>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
         <v>79</v>
       </c>
@@ -16799,7 +16758,7 @@
       </c>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
         <v>80</v>
       </c>
@@ -16839,7 +16798,7 @@
       </c>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>81</v>
       </c>
@@ -16879,7 +16838,7 @@
       </c>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
         <v>82</v>
       </c>
@@ -16919,7 +16878,7 @@
       </c>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <v>83</v>
       </c>
@@ -16959,7 +16918,7 @@
       </c>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
         <v>84</v>
       </c>
@@ -16999,7 +16958,7 @@
       </c>
       <c r="N87" s="11"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>85</v>
       </c>
@@ -17039,7 +16998,7 @@
       </c>
       <c r="N88" s="11"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
         <v>86</v>
       </c>
@@ -17079,7 +17038,7 @@
       </c>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>87</v>
       </c>
@@ -17119,7 +17078,7 @@
       </c>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="8">
         <v>88</v>
       </c>
@@ -17159,7 +17118,7 @@
       </c>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>89</v>
       </c>
@@ -17199,7 +17158,7 @@
       </c>
       <c r="N92" s="11"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
         <v>90</v>
       </c>
@@ -17239,7 +17198,7 @@
       </c>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>91</v>
       </c>
@@ -17279,7 +17238,7 @@
       </c>
       <c r="N94" s="11"/>
     </row>
-    <row r="95" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
         <v>92</v>
       </c>
@@ -17319,7 +17278,7 @@
       </c>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="8">
         <v>93</v>
       </c>
@@ -17359,7 +17318,7 @@
       </c>
       <c r="N96" s="11"/>
     </row>
-    <row r="97" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A97" s="8">
         <v>94</v>
       </c>
@@ -17399,7 +17358,7 @@
       </c>
       <c r="N97" s="11"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="8">
         <v>95</v>
       </c>
@@ -17439,7 +17398,7 @@
       </c>
       <c r="N98" s="11"/>
     </row>
-    <row r="99" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A99" s="8">
         <v>96</v>
       </c>
@@ -17479,7 +17438,7 @@
       </c>
       <c r="N99" s="11"/>
     </row>
-    <row r="100" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A100" s="8">
         <v>97</v>
       </c>
@@ -17519,7 +17478,7 @@
       </c>
       <c r="N100" s="11"/>
     </row>
-    <row r="101" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A101" s="8">
         <v>98</v>
       </c>
@@ -17559,7 +17518,7 @@
       </c>
       <c r="N101" s="11"/>
     </row>
-    <row r="102" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
         <v>99</v>
       </c>
@@ -17599,7 +17558,7 @@
       </c>
       <c r="N102" s="11"/>
     </row>
-    <row r="103" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A103" s="8">
         <v>100</v>
       </c>
@@ -17639,7 +17598,7 @@
       </c>
       <c r="N103" s="11"/>
     </row>
-    <row r="104" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A104" s="8">
         <v>101</v>
       </c>
@@ -17679,7 +17638,7 @@
       </c>
       <c r="N104" s="11"/>
     </row>
-    <row r="105" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A105" s="8">
         <v>102</v>
       </c>
@@ -17719,7 +17678,7 @@
       </c>
       <c r="N105" s="11"/>
     </row>
-    <row r="106" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A106" s="8">
         <v>103</v>
       </c>
@@ -17759,7 +17718,7 @@
       </c>
       <c r="N106" s="11"/>
     </row>
-    <row r="107" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A107" s="8">
         <v>104</v>
       </c>
@@ -17799,7 +17758,7 @@
       </c>
       <c r="N107" s="11"/>
     </row>
-    <row r="108" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A108" s="8">
         <v>105</v>
       </c>
@@ -17839,7 +17798,7 @@
       </c>
       <c r="N108" s="11"/>
     </row>
-    <row r="109" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A109" s="8">
         <v>106</v>
       </c>
@@ -17879,7 +17838,7 @@
       </c>
       <c r="N109" s="11"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="8">
         <v>107</v>
       </c>
@@ -17919,7 +17878,7 @@
       </c>
       <c r="N110" s="11"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="8">
         <v>108</v>
       </c>
@@ -17959,7 +17918,7 @@
       </c>
       <c r="N111" s="11"/>
     </row>
-    <row r="112" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A112" s="8">
         <v>109</v>
       </c>
@@ -17999,7 +17958,7 @@
       </c>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A113" s="8">
         <v>110</v>
       </c>
@@ -18039,7 +17998,7 @@
       </c>
       <c r="N113" s="11"/>
     </row>
-    <row r="114" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A114" s="8">
         <v>111</v>
       </c>
@@ -18079,7 +18038,7 @@
       </c>
       <c r="N114" s="11"/>
     </row>
-    <row r="115" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A115" s="8">
         <v>112</v>
       </c>
@@ -18119,7 +18078,7 @@
       </c>
       <c r="N115" s="11"/>
     </row>
-    <row r="116" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A116" s="8">
         <v>113</v>
       </c>
@@ -18159,7 +18118,7 @@
       </c>
       <c r="N116" s="11"/>
     </row>
-    <row r="117" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="126" x14ac:dyDescent="0.35">
       <c r="A117" s="8">
         <v>114</v>
       </c>
@@ -18199,7 +18158,7 @@
       </c>
       <c r="N117" s="11"/>
     </row>
-    <row r="118" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A118" s="8">
         <v>115</v>
       </c>
@@ -18239,7 +18198,7 @@
       </c>
       <c r="N118" s="11"/>
     </row>
-    <row r="119" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A119" s="8">
         <v>116</v>
       </c>
@@ -18279,7 +18238,7 @@
       </c>
       <c r="N119" s="11"/>
     </row>
-    <row r="120" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A120" s="8">
         <v>117</v>
       </c>
@@ -18319,7 +18278,7 @@
       </c>
       <c r="N120" s="11"/>
     </row>
-    <row r="121" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="154" x14ac:dyDescent="0.35">
       <c r="A121" s="8">
         <v>118</v>
       </c>
@@ -18357,7 +18316,7 @@
       </c>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A122" s="8">
         <v>119</v>
       </c>
@@ -18397,7 +18356,7 @@
       </c>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A123" s="8">
         <v>120</v>
       </c>
@@ -18437,7 +18396,7 @@
       </c>
       <c r="N123" s="11"/>
     </row>
-    <row r="124" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
         <v>121</v>
       </c>
@@ -18477,7 +18436,7 @@
       </c>
       <c r="N124" s="11"/>
     </row>
-    <row r="125" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A125" s="8">
         <v>122</v>
       </c>
@@ -18517,7 +18476,7 @@
       </c>
       <c r="N125" s="11"/>
     </row>
-    <row r="126" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A126" s="8">
         <v>123</v>
       </c>
@@ -18557,7 +18516,7 @@
       </c>
       <c r="N126" s="11"/>
     </row>
-    <row r="127" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A127" s="8">
         <v>124</v>
       </c>
@@ -18597,7 +18556,7 @@
       </c>
       <c r="N127" s="11"/>
     </row>
-    <row r="128" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
         <v>125</v>
       </c>
@@ -18637,7 +18596,7 @@
       </c>
       <c r="N128" s="11"/>
     </row>
-    <row r="129" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A129" s="8">
         <v>126</v>
       </c>
@@ -18677,7 +18636,7 @@
       </c>
       <c r="N129" s="11"/>
     </row>
-    <row r="130" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
         <v>127</v>
       </c>
@@ -18717,7 +18676,7 @@
       </c>
       <c r="N130" s="11"/>
     </row>
-    <row r="131" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A131" s="8">
         <v>128</v>
       </c>
@@ -18757,7 +18716,7 @@
       </c>
       <c r="N131" s="11"/>
     </row>
-    <row r="132" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
         <v>129</v>
       </c>
@@ -18797,7 +18756,7 @@
       </c>
       <c r="N132" s="11"/>
     </row>
-    <row r="133" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="154" x14ac:dyDescent="0.35">
       <c r="A133" s="8">
         <v>130</v>
       </c>
@@ -18837,7 +18796,7 @@
       </c>
       <c r="N133" s="11"/>
     </row>
-    <row r="134" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <v>131</v>
       </c>
@@ -18877,7 +18836,7 @@
       </c>
       <c r="N134" s="11"/>
     </row>
-    <row r="135" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A135" s="8">
         <v>132</v>
       </c>
@@ -18917,7 +18876,7 @@
       </c>
       <c r="N135" s="11"/>
     </row>
-    <row r="136" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A136" s="8">
         <v>133</v>
       </c>
@@ -18957,7 +18916,7 @@
       </c>
       <c r="N136" s="11"/>
     </row>
-    <row r="137" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A137" s="8">
         <v>134</v>
       </c>
@@ -18997,7 +18956,7 @@
       </c>
       <c r="N137" s="11"/>
     </row>
-    <row r="138" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
         <v>135</v>
       </c>
@@ -19037,7 +18996,7 @@
       </c>
       <c r="N138" s="11"/>
     </row>
-    <row r="139" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
         <v>136</v>
       </c>
@@ -19077,7 +19036,7 @@
       </c>
       <c r="N139" s="11"/>
     </row>
-    <row r="140" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A140" s="8">
         <v>137</v>
       </c>
@@ -19117,7 +19076,7 @@
       </c>
       <c r="N140" s="11"/>
     </row>
-    <row r="141" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A141" s="8">
         <v>138</v>
       </c>
@@ -19157,7 +19116,7 @@
       </c>
       <c r="N141" s="11"/>
     </row>
-    <row r="142" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
         <v>139</v>
       </c>
@@ -19197,7 +19156,7 @@
       </c>
       <c r="N142" s="11"/>
     </row>
-    <row r="143" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
         <v>140</v>
       </c>
@@ -19237,7 +19196,7 @@
       </c>
       <c r="N143" s="11"/>
     </row>
-    <row r="144" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
         <v>141</v>
       </c>
@@ -19277,7 +19236,7 @@
       </c>
       <c r="N144" s="11"/>
     </row>
-    <row r="145" spans="1:14" ht="138" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="140" x14ac:dyDescent="0.35">
       <c r="A145" s="8">
         <v>142</v>
       </c>
@@ -19317,7 +19276,7 @@
       </c>
       <c r="N145" s="11"/>
     </row>
-    <row r="146" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A146" s="8">
         <v>143</v>
       </c>
@@ -19357,7 +19316,7 @@
       </c>
       <c r="N146" s="11"/>
     </row>
-    <row r="147" spans="1:14" ht="138" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" ht="140" x14ac:dyDescent="0.35">
       <c r="A147" s="8">
         <v>144</v>
       </c>
@@ -19397,7 +19356,7 @@
       </c>
       <c r="N147" s="11"/>
     </row>
-    <row r="148" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A148" s="8">
         <v>145</v>
       </c>
@@ -19437,7 +19396,7 @@
       </c>
       <c r="N148" s="11"/>
     </row>
-    <row r="149" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A149" s="8">
         <v>146</v>
       </c>
@@ -19477,7 +19436,7 @@
       </c>
       <c r="N149" s="11"/>
     </row>
-    <row r="150" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A150" s="8">
         <v>147</v>
       </c>
@@ -19517,7 +19476,7 @@
       </c>
       <c r="N150" s="11"/>
     </row>
-    <row r="151" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A151" s="8">
         <v>148</v>
       </c>
@@ -19557,7 +19516,7 @@
       </c>
       <c r="N151" s="11"/>
     </row>
-    <row r="152" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A152" s="8">
         <v>149</v>
       </c>
@@ -19597,7 +19556,7 @@
       </c>
       <c r="N152" s="11"/>
     </row>
-    <row r="153" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A153" s="8">
         <v>150</v>
       </c>
@@ -19637,7 +19596,7 @@
       </c>
       <c r="N153" s="11"/>
     </row>
-    <row r="154" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A154" s="8">
         <v>151</v>
       </c>
@@ -19677,7 +19636,7 @@
       </c>
       <c r="N154" s="11"/>
     </row>
-    <row r="155" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" ht="126" x14ac:dyDescent="0.35">
       <c r="A155" s="8">
         <v>152</v>
       </c>
@@ -19711,7 +19670,7 @@
       <c r="M155" s="9"/>
       <c r="N155" s="11"/>
     </row>
-    <row r="156" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A156" s="8">
         <v>153</v>
       </c>
@@ -19745,7 +19704,7 @@
       <c r="M156" s="9"/>
       <c r="N156" s="11"/>
     </row>
-    <row r="157" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A157" s="8">
         <v>154</v>
       </c>
@@ -19779,7 +19738,7 @@
       <c r="M157" s="9"/>
       <c r="N157" s="11"/>
     </row>
-    <row r="158" spans="1:14" ht="138" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" ht="126" x14ac:dyDescent="0.35">
       <c r="A158" s="8">
         <v>155</v>
       </c>
@@ -19813,7 +19772,7 @@
       <c r="M158" s="9"/>
       <c r="N158" s="11"/>
     </row>
-    <row r="159" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A159" s="8">
         <v>156</v>
       </c>
@@ -19847,7 +19806,7 @@
       <c r="M159" s="9"/>
       <c r="N159" s="11"/>
     </row>
-    <row r="160" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A160" s="8">
         <v>157</v>
       </c>
@@ -19881,7 +19840,7 @@
       <c r="M160" s="9"/>
       <c r="N160" s="11"/>
     </row>
-    <row r="161" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" ht="70" x14ac:dyDescent="0.35">
       <c r="A161" s="8">
         <v>158</v>
       </c>
@@ -19915,7 +19874,7 @@
       <c r="M161" s="9"/>
       <c r="N161" s="11"/>
     </row>
-    <row r="162" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A162" s="8">
         <v>159</v>
       </c>
@@ -19949,7 +19908,7 @@
       <c r="M162" s="9"/>
       <c r="N162" s="11"/>
     </row>
-    <row r="163" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A163" s="8">
         <v>160</v>
       </c>
@@ -19987,7 +19946,7 @@
       <c r="M163" s="9"/>
       <c r="N163" s="11"/>
     </row>
-    <row r="164" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A164" s="8">
         <v>161</v>
       </c>
@@ -20025,7 +19984,7 @@
       <c r="M164" s="9"/>
       <c r="N164" s="11"/>
     </row>
-    <row r="165" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" ht="98" x14ac:dyDescent="0.35">
       <c r="A165" s="8">
         <v>162</v>
       </c>
@@ -20059,7 +20018,7 @@
       <c r="M165" s="9"/>
       <c r="N165" s="11"/>
     </row>
-    <row r="166" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A166" s="8">
         <v>163</v>
       </c>
@@ -20093,7 +20052,7 @@
       <c r="M166" s="9"/>
       <c r="N166" s="11"/>
     </row>
-    <row r="167" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A167" s="8">
         <v>164</v>
       </c>
@@ -20127,7 +20086,7 @@
       <c r="M167" s="9"/>
       <c r="N167" s="11"/>
     </row>
-    <row r="168" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A168" s="8">
         <v>165</v>
       </c>
@@ -20161,7 +20120,7 @@
       <c r="M168" s="9"/>
       <c r="N168" s="11"/>
     </row>
-    <row r="169" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" ht="112" x14ac:dyDescent="0.35">
       <c r="A169" s="8">
         <v>166</v>
       </c>
@@ -20195,7 +20154,7 @@
       <c r="M169" s="9"/>
       <c r="N169" s="11"/>
     </row>
-    <row r="170" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>167</v>
       </c>
@@ -20229,7 +20188,7 @@
       <c r="M170" s="9"/>
       <c r="N170" s="11"/>
     </row>
-    <row r="171" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
         <v>168</v>
       </c>
@@ -20263,7 +20222,7 @@
       <c r="M171" s="9"/>
       <c r="N171" s="11"/>
     </row>
-    <row r="172" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
         <v>169</v>
       </c>
@@ -20297,7 +20256,7 @@
       <c r="M172" s="9"/>
       <c r="N172" s="11"/>
     </row>
-    <row r="173" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A173" s="8">
         <v>170</v>
       </c>
@@ -20331,7 +20290,7 @@
       <c r="M173" s="9"/>
       <c r="N173" s="11"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
         <v>171</v>
       </c>
@@ -20365,7 +20324,7 @@
       <c r="M174" s="9"/>
       <c r="N174" s="11"/>
     </row>
-    <row r="175" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A175" s="8">
         <v>172</v>
       </c>
@@ -20403,7 +20362,7 @@
       <c r="M175" s="9"/>
       <c r="N175" s="11"/>
     </row>
-    <row r="176" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A176" s="8">
         <v>173</v>
       </c>
@@ -20437,7 +20396,7 @@
       <c r="M176" s="9"/>
       <c r="N176" s="11"/>
     </row>
-    <row r="177" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A177" s="8">
         <v>174</v>
       </c>
@@ -20471,7 +20430,7 @@
       <c r="M177" s="9"/>
       <c r="N177" s="11"/>
     </row>
-    <row r="178" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
         <v>175</v>
       </c>
@@ -20505,7 +20464,7 @@
       <c r="M178" s="9"/>
       <c r="N178" s="11"/>
     </row>
-    <row r="179" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A179" s="8">
         <v>176</v>
       </c>
@@ -20539,7 +20498,7 @@
       <c r="M179" s="9"/>
       <c r="N179" s="11"/>
     </row>
-    <row r="180" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
         <v>177</v>
       </c>
@@ -20573,7 +20532,7 @@
       <c r="M180" s="9"/>
       <c r="N180" s="11"/>
     </row>
-    <row r="181" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A181" s="8">
         <v>178</v>
       </c>
@@ -20607,7 +20566,7 @@
       <c r="M181" s="9"/>
       <c r="N181" s="11"/>
     </row>
-    <row r="182" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A182" s="8">
         <v>179</v>
       </c>
@@ -20645,7 +20604,7 @@
       <c r="M182" s="9"/>
       <c r="N182" s="11"/>
     </row>
-    <row r="183" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A183" s="8">
         <v>180</v>
       </c>
@@ -20679,7 +20638,7 @@
       <c r="M183" s="9"/>
       <c r="N183" s="11"/>
     </row>
-    <row r="184" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
         <v>181</v>
       </c>
@@ -20713,7 +20672,7 @@
       <c r="M184" s="9"/>
       <c r="N184" s="11"/>
     </row>
-    <row r="185" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
         <v>182</v>
       </c>
@@ -20747,7 +20706,7 @@
       <c r="M185" s="9"/>
       <c r="N185" s="11"/>
     </row>
-    <row r="186" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
         <v>183</v>
       </c>
@@ -20783,7 +20742,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A187" s="8">
         <v>184</v>
       </c>
@@ -20819,7 +20778,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <v>185</v>
       </c>
@@ -20851,7 +20810,7 @@
       <c r="M188" s="9"/>
       <c r="N188" s="11"/>
     </row>
-    <row r="189" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="8">
         <v>186</v>
       </c>
@@ -20883,7 +20842,7 @@
       <c r="M189" s="9"/>
       <c r="N189" s="11"/>
     </row>
-    <row r="190" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="8">
         <v>187</v>
       </c>
@@ -20915,7 +20874,7 @@
       <c r="M190" s="9"/>
       <c r="N190" s="11"/>
     </row>
-    <row r="191" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8">
         <v>188</v>
       </c>
@@ -20947,7 +20906,7 @@
       <c r="M191" s="9"/>
       <c r="N191" s="11"/>
     </row>
-    <row r="192" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>189</v>
       </c>
@@ -20979,7 +20938,7 @@
       <c r="M192" s="9"/>
       <c r="N192" s="11"/>
     </row>
-    <row r="193" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="8">
         <v>190</v>
       </c>
@@ -21011,7 +20970,7 @@
       <c r="M193" s="9"/>
       <c r="N193" s="11"/>
     </row>
-    <row r="194" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="8">
         <v>191</v>
       </c>
@@ -21043,7 +21002,7 @@
       <c r="M194" s="9"/>
       <c r="N194" s="11"/>
     </row>
-    <row r="195" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="8">
         <v>192</v>
       </c>
@@ -21075,7 +21034,7 @@
       <c r="M195" s="9"/>
       <c r="N195" s="11"/>
     </row>
-    <row r="196" spans="1:16" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="8">
         <v>193</v>
       </c>
@@ -21107,7 +21066,7 @@
       <c r="M196" s="9"/>
       <c r="N196" s="11"/>
     </row>
-    <row r="197" spans="1:16" s="36" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" s="36" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A197" s="36">
         <v>194</v>
       </c>
@@ -21128,7 +21087,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A198" s="36">
         <v>195</v>
       </c>
@@ -21168,7 +21127,7 @@
       <c r="O198" s="37"/>
       <c r="P198" s="36"/>
     </row>
-    <row r="199" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="36">
         <v>196</v>
       </c>
@@ -21208,7 +21167,7 @@
       <c r="O199" s="37"/>
       <c r="P199" s="36"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" s="36"/>
       <c r="B200" s="37"/>
       <c r="C200" s="36"/>
@@ -21226,7 +21185,7 @@
       <c r="O200" s="37"/>
       <c r="P200" s="36"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" s="36"/>
       <c r="B201" s="37"/>
       <c r="C201" s="36"/>
@@ -21244,7 +21203,7 @@
       <c r="O201" s="37"/>
       <c r="P201" s="36"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" s="36"/>
       <c r="B202" s="37"/>
       <c r="C202" s="36"/>
@@ -21262,7 +21221,7 @@
       <c r="O202" s="37"/>
       <c r="P202" s="36"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" s="36"/>
       <c r="B203" s="37"/>
       <c r="C203" s="36"/>
@@ -21280,7 +21239,7 @@
       <c r="O203" s="37"/>
       <c r="P203" s="36"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" s="36"/>
       <c r="B204" s="37"/>
       <c r="C204" s="36"/>
@@ -21298,7 +21257,7 @@
       <c r="O204" s="37"/>
       <c r="P204" s="36"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" s="36"/>
       <c r="B205" s="37"/>
       <c r="C205" s="36"/>
@@ -21316,7 +21275,7 @@
       <c r="O205" s="37"/>
       <c r="P205" s="36"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="36"/>
       <c r="B206" s="37"/>
       <c r="C206" s="36"/>
@@ -21334,7 +21293,7 @@
       <c r="O206" s="37"/>
       <c r="P206" s="36"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="36"/>
       <c r="B207" s="37"/>
       <c r="C207" s="36"/>
@@ -21352,7 +21311,7 @@
       <c r="O207" s="37"/>
       <c r="P207" s="36"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" s="36"/>
       <c r="B208" s="37"/>
       <c r="C208" s="36"/>
@@ -21370,7 +21329,7 @@
       <c r="O208" s="37"/>
       <c r="P208" s="36"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="36"/>
       <c r="B209" s="37"/>
       <c r="C209" s="36"/>
@@ -21388,7 +21347,7 @@
       <c r="O209" s="37"/>
       <c r="P209" s="36"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="36"/>
       <c r="B210" s="37"/>
       <c r="C210" s="36"/>
@@ -21406,7 +21365,7 @@
       <c r="O210" s="37"/>
       <c r="P210" s="36"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="36"/>
       <c r="B211" s="37"/>
       <c r="C211" s="36"/>
@@ -21424,7 +21383,7 @@
       <c r="O211" s="37"/>
       <c r="P211" s="36"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="36"/>
       <c r="B212" s="37"/>
       <c r="C212" s="36"/>
@@ -21442,7 +21401,7 @@
       <c r="O212" s="37"/>
       <c r="P212" s="36"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="36"/>
       <c r="B213" s="37"/>
       <c r="C213" s="36"/>
@@ -21460,7 +21419,7 @@
       <c r="O213" s="37"/>
       <c r="P213" s="36"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="36"/>
       <c r="B214" s="37"/>
       <c r="C214" s="36"/>
@@ -21478,7 +21437,7 @@
       <c r="O214" s="37"/>
       <c r="P214" s="36"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" s="36"/>
       <c r="B215" s="37"/>
       <c r="C215" s="36"/>
@@ -21496,7 +21455,7 @@
       <c r="O215" s="37"/>
       <c r="P215" s="36"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="36"/>
       <c r="B216" s="37"/>
       <c r="C216" s="36"/>
@@ -21514,7 +21473,7 @@
       <c r="O216" s="37"/>
       <c r="P216" s="36"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="36"/>
       <c r="B217" s="37"/>
       <c r="C217" s="36"/>
@@ -21532,7 +21491,7 @@
       <c r="O217" s="37"/>
       <c r="P217" s="36"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="36"/>
       <c r="B218" s="37"/>
       <c r="C218" s="36"/>
@@ -21550,7 +21509,7 @@
       <c r="O218" s="37"/>
       <c r="P218" s="36"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="36"/>
       <c r="B219" s="37"/>
       <c r="C219" s="36"/>
@@ -21568,7 +21527,7 @@
       <c r="O219" s="37"/>
       <c r="P219" s="36"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="36"/>
       <c r="B220" s="37"/>
       <c r="C220" s="36"/>
@@ -21586,7 +21545,7 @@
       <c r="O220" s="37"/>
       <c r="P220" s="36"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="36"/>
       <c r="B221" s="37"/>
       <c r="C221" s="36"/>
@@ -21604,7 +21563,7 @@
       <c r="O221" s="37"/>
       <c r="P221" s="36"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="36"/>
       <c r="B222" s="37"/>
       <c r="C222" s="36"/>
@@ -21622,7 +21581,7 @@
       <c r="O222" s="37"/>
       <c r="P222" s="36"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="36"/>
       <c r="B223" s="37"/>
       <c r="C223" s="36"/>
@@ -21640,7 +21599,7 @@
       <c r="O223" s="37"/>
       <c r="P223" s="36"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" s="36"/>
       <c r="B224" s="37"/>
       <c r="C224" s="36"/>
@@ -21658,7 +21617,7 @@
       <c r="O224" s="37"/>
       <c r="P224" s="36"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" s="36"/>
       <c r="B225" s="37"/>
       <c r="C225" s="36"/>
@@ -21676,7 +21635,7 @@
       <c r="O225" s="37"/>
       <c r="P225" s="36"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" s="36"/>
       <c r="B226" s="37"/>
       <c r="C226" s="36"/>
@@ -21694,7 +21653,7 @@
       <c r="O226" s="37"/>
       <c r="P226" s="36"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" s="36"/>
       <c r="B227" s="37"/>
       <c r="C227" s="36"/>
@@ -21712,7 +21671,7 @@
       <c r="O227" s="37"/>
       <c r="P227" s="36"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" s="36"/>
       <c r="B228" s="37"/>
       <c r="C228" s="36"/>
@@ -21730,7 +21689,7 @@
       <c r="O228" s="37"/>
       <c r="P228" s="36"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" s="36"/>
       <c r="B229" s="37"/>
       <c r="C229" s="36"/>
@@ -21748,7 +21707,7 @@
       <c r="O229" s="37"/>
       <c r="P229" s="36"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" s="36"/>
       <c r="B230" s="37"/>
       <c r="C230" s="36"/>
@@ -21766,7 +21725,7 @@
       <c r="O230" s="37"/>
       <c r="P230" s="36"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" s="36"/>
       <c r="B231" s="37"/>
       <c r="C231" s="36"/>
@@ -21784,7 +21743,7 @@
       <c r="O231" s="37"/>
       <c r="P231" s="36"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" s="36"/>
       <c r="B232" s="37"/>
       <c r="C232" s="36"/>
@@ -21802,7 +21761,7 @@
       <c r="O232" s="37"/>
       <c r="P232" s="36"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" s="36"/>
       <c r="B233" s="37"/>
       <c r="C233" s="36"/>
@@ -21820,7 +21779,7 @@
       <c r="O233" s="37"/>
       <c r="P233" s="36"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" s="36"/>
       <c r="B234" s="37"/>
       <c r="C234" s="36"/>
@@ -21838,7 +21797,7 @@
       <c r="O234" s="37"/>
       <c r="P234" s="36"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" s="36"/>
       <c r="B235" s="37"/>
       <c r="C235" s="36"/>
@@ -21856,7 +21815,7 @@
       <c r="O235" s="37"/>
       <c r="P235" s="36"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" s="36"/>
       <c r="B236" s="37"/>
       <c r="C236" s="36"/>
@@ -21874,7 +21833,7 @@
       <c r="O236" s="37"/>
       <c r="P236" s="36"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" s="36"/>
       <c r="B237" s="37"/>
       <c r="C237" s="36"/>
@@ -21892,7 +21851,7 @@
       <c r="O237" s="37"/>
       <c r="P237" s="36"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" s="36"/>
       <c r="B238" s="37"/>
       <c r="C238" s="36"/>
@@ -21910,7 +21869,7 @@
       <c r="O238" s="37"/>
       <c r="P238" s="36"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" s="36"/>
       <c r="B239" s="37"/>
       <c r="C239" s="36"/>
@@ -21928,7 +21887,7 @@
       <c r="O239" s="37"/>
       <c r="P239" s="36"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" s="36"/>
       <c r="B240" s="37"/>
       <c r="C240" s="36"/>
@@ -21946,7 +21905,7 @@
       <c r="O240" s="37"/>
       <c r="P240" s="36"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" s="36"/>
       <c r="B241" s="37"/>
       <c r="C241" s="36"/>
@@ -21964,7 +21923,7 @@
       <c r="O241" s="37"/>
       <c r="P241" s="36"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" s="36"/>
       <c r="B242" s="37"/>
       <c r="C242" s="36"/>
@@ -21982,7 +21941,7 @@
       <c r="O242" s="37"/>
       <c r="P242" s="36"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" s="36"/>
       <c r="B243" s="37"/>
       <c r="C243" s="36"/>
@@ -22000,7 +21959,7 @@
       <c r="O243" s="37"/>
       <c r="P243" s="36"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" s="36"/>
       <c r="B244" s="37"/>
       <c r="C244" s="36"/>
@@ -22018,7 +21977,7 @@
       <c r="O244" s="37"/>
       <c r="P244" s="36"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" s="36"/>
       <c r="B245" s="37"/>
       <c r="C245" s="36"/>
@@ -22036,7 +21995,7 @@
       <c r="O245" s="37"/>
       <c r="P245" s="36"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" s="36"/>
       <c r="B246" s="37"/>
       <c r="C246" s="36"/>
@@ -22054,7 +22013,7 @@
       <c r="O246" s="37"/>
       <c r="P246" s="36"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" s="36"/>
       <c r="B247" s="37"/>
       <c r="C247" s="36"/>
@@ -22072,7 +22031,7 @@
       <c r="O247" s="37"/>
       <c r="P247" s="36"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" s="36"/>
       <c r="B248" s="37"/>
       <c r="C248" s="36"/>
@@ -22090,7 +22049,7 @@
       <c r="O248" s="37"/>
       <c r="P248" s="36"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" s="36"/>
       <c r="B249" s="37"/>
       <c r="C249" s="36"/>
@@ -22108,7 +22067,7 @@
       <c r="O249" s="37"/>
       <c r="P249" s="36"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" s="36"/>
       <c r="B250" s="37"/>
       <c r="C250" s="36"/>
@@ -22126,7 +22085,7 @@
       <c r="O250" s="37"/>
       <c r="P250" s="36"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" s="36"/>
       <c r="B251" s="37"/>
       <c r="C251" s="36"/>
@@ -22144,7 +22103,7 @@
       <c r="O251" s="37"/>
       <c r="P251" s="36"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" s="36"/>
       <c r="B252" s="37"/>
       <c r="C252" s="36"/>
@@ -22162,7 +22121,7 @@
       <c r="O252" s="37"/>
       <c r="P252" s="36"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" s="36"/>
       <c r="B253" s="37"/>
       <c r="C253" s="36"/>
@@ -22180,7 +22139,7 @@
       <c r="O253" s="37"/>
       <c r="P253" s="36"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" s="36"/>
       <c r="B254" s="37"/>
       <c r="C254" s="36"/>
@@ -22198,7 +22157,7 @@
       <c r="O254" s="37"/>
       <c r="P254" s="36"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" s="36"/>
       <c r="B255" s="37"/>
       <c r="C255" s="36"/>
@@ -22216,7 +22175,7 @@
       <c r="O255" s="37"/>
       <c r="P255" s="36"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" s="36"/>
       <c r="B256" s="37"/>
       <c r="C256" s="36"/>
@@ -22234,7 +22193,7 @@
       <c r="O256" s="37"/>
       <c r="P256" s="36"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" s="36"/>
       <c r="B257" s="37"/>
       <c r="C257" s="36"/>
@@ -22252,7 +22211,7 @@
       <c r="O257" s="37"/>
       <c r="P257" s="36"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="36"/>
       <c r="B258" s="37"/>
       <c r="C258" s="36"/>
@@ -22270,7 +22229,7 @@
       <c r="O258" s="37"/>
       <c r="P258" s="36"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" s="36"/>
       <c r="B259" s="37"/>
       <c r="C259" s="36"/>
@@ -22288,352 +22247,352 @@
       <c r="O259" s="37"/>
       <c r="P259" s="36"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D260" s="8"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D261" s="8"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D262" s="8"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D263" s="8"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D264" s="8"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D265" s="8"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D266" s="8"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D267" s="8"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D268" s="8"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D269" s="8"/>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D270" s="8"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D271" s="8"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D272" s="8"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D273" s="8"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D274" s="8"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D275" s="8"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D276" s="8"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D277" s="8"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D278" s="8"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D279" s="8"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D280" s="8"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D281" s="8"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D282" s="8"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D283" s="8"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D284" s="8"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D285" s="8"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D286" s="8"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D287" s="8"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D288" s="8"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D289" s="8"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D290" s="8"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D291" s="8"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D292" s="8"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D293" s="8"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D294" s="8"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D295" s="8"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D296" s="8"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D297" s="8"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D298" s="8"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D299" s="8"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D300" s="8"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D301" s="8"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D302" s="8"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D303" s="8"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D304" s="8"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D305" s="8"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D306" s="8"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D307" s="8"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D308" s="8"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D309" s="8"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D310" s="8"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D311" s="8"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D312" s="8"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D313" s="8"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D315" s="8"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D316" s="8"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D317" s="8"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D318" s="8"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D319" s="8"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D320" s="8"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D321" s="8"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D322" s="8"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D323" s="8"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D324" s="8"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D325" s="8"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D326" s="8"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D327" s="8"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D328" s="8"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D329" s="8"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D330" s="8"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D331" s="8"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D332" s="8"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D333" s="8"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D334" s="8"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D335" s="8"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D336" s="8"/>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D337" s="8"/>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D338" s="8"/>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D339" s="8"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D340" s="8"/>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D341" s="8"/>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D342" s="8"/>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D343" s="8"/>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D344" s="8"/>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D345" s="8"/>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D346" s="8"/>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D347" s="8"/>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D348" s="8"/>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D349" s="8"/>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D350" s="8"/>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D351" s="8"/>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D352" s="8"/>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D353" s="8"/>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D354" s="8"/>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D355" s="8"/>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D356" s="8"/>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D357" s="8"/>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D358" s="8"/>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D359" s="8"/>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D360" s="8"/>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D361" s="8"/>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D362" s="8"/>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D363" s="8"/>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D364" s="8"/>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D365" s="8"/>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D366" s="8"/>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D367" s="8"/>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D368" s="8"/>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D369" s="8"/>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D370" s="8"/>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D371" s="8"/>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D372" s="8"/>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D373" s="8"/>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D374" s="8"/>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D375" s="8"/>
     </row>
   </sheetData>
@@ -22652,32 +22611,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E257" sqref="E257"/>
+      <selection pane="bottomLeft" activeCell="M256" sqref="M256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="47" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="59.5546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="2"/>
-    <col min="13" max="13" width="27.77734375" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="20.21875" style="64"/>
+    <col min="1" max="1" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="47" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="59.54296875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.26953125" style="2"/>
+    <col min="13" max="13" width="27.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="20.26953125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
         <v>472</v>
       </c>
@@ -22694,7 +22653,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>473</v>
       </c>
@@ -22735,7 +22694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -22774,7 +22733,7 @@
       </c>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -22813,7 +22772,7 @@
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -22852,7 +22811,7 @@
       </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -22891,7 +22850,7 @@
       </c>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -22926,7 +22885,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -22965,7 +22924,7 @@
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -23004,7 +22963,7 @@
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -23043,7 +23002,7 @@
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -23082,7 +23041,7 @@
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -23121,7 +23080,7 @@
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="392" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -23160,7 +23119,7 @@
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -23199,7 +23158,7 @@
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -23238,7 +23197,7 @@
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -23277,7 +23236,7 @@
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -23316,7 +23275,7 @@
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -23355,7 +23314,7 @@
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -23394,7 +23353,7 @@
       </c>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -23433,7 +23392,7 @@
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="308" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -23472,7 +23431,7 @@
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -23511,7 +23470,7 @@
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -23550,7 +23509,7 @@
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -23589,7 +23548,7 @@
       </c>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -23628,7 +23587,7 @@
       </c>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -23667,7 +23626,7 @@
       </c>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -23706,7 +23665,7 @@
       </c>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -23741,7 +23700,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -23780,7 +23739,7 @@
       </c>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -23819,7 +23778,7 @@
       </c>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -23854,7 +23813,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -23889,7 +23848,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -23928,7 +23887,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -23967,7 +23926,7 @@
       </c>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -24006,7 +23965,7 @@
       </c>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -24041,7 +24000,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -24080,7 +24039,7 @@
       </c>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -24119,7 +24078,7 @@
       </c>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -24158,7 +24117,7 @@
       </c>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -24197,7 +24156,7 @@
       </c>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="1:13" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -24236,7 +24195,7 @@
       </c>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="1:13" s="4" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -24271,7 +24230,7 @@
       <c r="L42" s="9"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" ht="262.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="266" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -24310,7 +24269,7 @@
       </c>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -24349,7 +24308,7 @@
       </c>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -24388,7 +24347,7 @@
       </c>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -24427,7 +24386,7 @@
       </c>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -24462,7 +24421,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -24501,7 +24460,7 @@
       </c>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -24540,7 +24499,7 @@
       </c>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -24579,7 +24538,7 @@
       </c>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -24618,7 +24577,7 @@
       </c>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -24657,7 +24616,7 @@
       </c>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -24692,7 +24651,7 @@
       <c r="L53" s="9"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -24731,7 +24690,7 @@
       </c>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -24766,7 +24725,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -24801,7 +24760,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="11"/>
     </row>
-    <row r="57" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -24836,7 +24795,7 @@
       <c r="L57" s="9"/>
       <c r="M57" s="11"/>
     </row>
-    <row r="58" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -24871,7 +24830,7 @@
       <c r="L58" s="9"/>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -24910,7 +24869,7 @@
       </c>
       <c r="M59" s="11"/>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -24949,7 +24908,7 @@
       </c>
       <c r="M60" s="11"/>
     </row>
-    <row r="61" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -24984,7 +24943,7 @@
       <c r="L61" s="9"/>
       <c r="M61" s="11"/>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -25023,7 +24982,7 @@
       </c>
       <c r="M62" s="11"/>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -25062,7 +25021,7 @@
       </c>
       <c r="M63" s="11"/>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -25101,7 +25060,7 @@
       </c>
       <c r="M64" s="11"/>
     </row>
-    <row r="65" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -25136,7 +25095,7 @@
       <c r="L65" s="9"/>
       <c r="M65" s="11"/>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -25175,7 +25134,7 @@
       </c>
       <c r="M66" s="11"/>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -25214,7 +25173,7 @@
       </c>
       <c r="M67" s="11"/>
     </row>
-    <row r="68" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="126" x14ac:dyDescent="0.35">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -25249,7 +25208,7 @@
       <c r="L68" s="9"/>
       <c r="M68" s="11"/>
     </row>
-    <row r="69" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="126" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -25284,7 +25243,7 @@
       <c r="L69" s="9"/>
       <c r="M69" s="11"/>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -25323,7 +25282,7 @@
       </c>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -25362,7 +25321,7 @@
       </c>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -25401,7 +25360,7 @@
       </c>
       <c r="M72" s="11"/>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -25440,7 +25399,7 @@
       </c>
       <c r="M73" s="11"/>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -25479,7 +25438,7 @@
       </c>
       <c r="M74" s="11"/>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -25518,7 +25477,7 @@
       </c>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -25557,7 +25516,7 @@
       </c>
       <c r="M76" s="11"/>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -25596,7 +25555,7 @@
       </c>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="143.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -25635,7 +25594,7 @@
       </c>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -25674,7 +25633,7 @@
       </c>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -25713,7 +25672,7 @@
       </c>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -25748,7 +25707,7 @@
       <c r="L81" s="9"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -25783,7 +25742,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -25818,7 +25777,7 @@
       <c r="L83" s="9"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -25853,7 +25812,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -25892,7 +25851,7 @@
       </c>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -25927,7 +25886,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -25966,7 +25925,7 @@
       </c>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -26001,7 +25960,7 @@
       <c r="L88" s="9"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -26040,7 +25999,7 @@
       </c>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -26075,7 +26034,7 @@
       <c r="L90" s="9"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -26114,7 +26073,7 @@
       </c>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -26153,7 +26112,7 @@
       </c>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -26188,7 +26147,7 @@
       <c r="L93" s="9"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -26227,7 +26186,7 @@
       </c>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -26262,7 +26221,7 @@
       <c r="L95" s="9"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>94</v>
       </c>
@@ -26297,7 +26256,7 @@
       <c r="L96" s="9"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>95</v>
       </c>
@@ -26332,7 +26291,7 @@
       <c r="L97" s="9"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -26371,7 +26330,7 @@
       </c>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>97</v>
       </c>
@@ -26406,7 +26365,7 @@
       <c r="L99" s="9"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>98</v>
       </c>
@@ -26445,7 +26404,7 @@
       </c>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>99</v>
       </c>
@@ -26480,7 +26439,7 @@
       <c r="L101" s="9"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>100</v>
       </c>
@@ -26515,7 +26474,7 @@
       <c r="L102" s="9"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>101</v>
       </c>
@@ -26554,7 +26513,7 @@
       </c>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>102</v>
       </c>
@@ -26593,7 +26552,7 @@
       </c>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>103</v>
       </c>
@@ -26628,7 +26587,7 @@
       <c r="L105" s="8"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>104</v>
       </c>
@@ -26667,7 +26626,7 @@
       </c>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>105</v>
       </c>
@@ -26706,7 +26665,7 @@
       </c>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>106</v>
       </c>
@@ -26745,7 +26704,7 @@
       </c>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>107</v>
       </c>
@@ -26784,7 +26743,7 @@
       </c>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>108</v>
       </c>
@@ -26823,7 +26782,7 @@
       </c>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>109</v>
       </c>
@@ -26862,7 +26821,7 @@
       </c>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>110</v>
       </c>
@@ -26901,7 +26860,7 @@
       </c>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>111</v>
       </c>
@@ -26940,7 +26899,7 @@
       </c>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" s="1" customFormat="1" ht="308" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>112</v>
       </c>
@@ -26979,7 +26938,7 @@
       </c>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>113</v>
       </c>
@@ -27018,7 +26977,7 @@
       </c>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>114</v>
       </c>
@@ -27057,7 +27016,7 @@
       </c>
       <c r="M116" s="11"/>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>115</v>
       </c>
@@ -27096,7 +27055,7 @@
       </c>
       <c r="M117" s="11"/>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>116</v>
       </c>
@@ -27135,7 +27094,7 @@
       </c>
       <c r="M118" s="11"/>
     </row>
-    <row r="119" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>117</v>
       </c>
@@ -27174,7 +27133,7 @@
       </c>
       <c r="M119" s="11"/>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>118</v>
       </c>
@@ -27213,7 +27172,7 @@
       </c>
       <c r="M120" s="11"/>
     </row>
-    <row r="121" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>119</v>
       </c>
@@ -27252,7 +27211,7 @@
       </c>
       <c r="M121" s="11"/>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>120</v>
       </c>
@@ -27291,7 +27250,7 @@
       </c>
       <c r="M122" s="11"/>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>121</v>
       </c>
@@ -27330,7 +27289,7 @@
       </c>
       <c r="M123" s="11"/>
     </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>122</v>
       </c>
@@ -27369,7 +27328,7 @@
       </c>
       <c r="M124" s="11"/>
     </row>
-    <row r="125" spans="1:13" s="1" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" s="1" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>123</v>
       </c>
@@ -27408,7 +27367,7 @@
       </c>
       <c r="M125" s="11"/>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" s="1" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>124</v>
       </c>
@@ -27443,7 +27402,7 @@
       <c r="L126" s="9"/>
       <c r="M126" s="11"/>
     </row>
-    <row r="127" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>125</v>
       </c>
@@ -27482,7 +27441,7 @@
       </c>
       <c r="M127" s="11"/>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>126</v>
       </c>
@@ -27521,7 +27480,7 @@
       </c>
       <c r="M128" s="11"/>
     </row>
-    <row r="129" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>127</v>
       </c>
@@ -27560,7 +27519,7 @@
       </c>
       <c r="M129" s="11"/>
     </row>
-    <row r="130" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
         <v>128</v>
       </c>
@@ -27595,7 +27554,7 @@
       <c r="L130" s="8"/>
       <c r="M130" s="11"/>
     </row>
-    <row r="131" spans="1:13" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="1" customFormat="1" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>129</v>
       </c>
@@ -27634,7 +27593,7 @@
       </c>
       <c r="M131" s="11"/>
     </row>
-    <row r="132" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
         <v>130</v>
       </c>
@@ -27673,7 +27632,7 @@
       </c>
       <c r="M132" s="11"/>
     </row>
-    <row r="133" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>131</v>
       </c>
@@ -27712,7 +27671,7 @@
       </c>
       <c r="M133" s="11"/>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>132</v>
       </c>
@@ -27751,7 +27710,7 @@
       </c>
       <c r="M134" s="11"/>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>133</v>
       </c>
@@ -27790,7 +27749,7 @@
       </c>
       <c r="M135" s="11"/>
     </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>134</v>
       </c>
@@ -27829,7 +27788,7 @@
       </c>
       <c r="M136" s="11"/>
     </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>135</v>
       </c>
@@ -27864,7 +27823,7 @@
       <c r="L137" s="8"/>
       <c r="M137" s="11"/>
     </row>
-    <row r="138" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>136</v>
       </c>
@@ -27903,7 +27862,7 @@
       </c>
       <c r="M138" s="11"/>
     </row>
-    <row r="139" spans="1:13" ht="149.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="149.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
         <v>137</v>
       </c>
@@ -27938,7 +27897,7 @@
       <c r="L139" s="8"/>
       <c r="M139" s="11"/>
     </row>
-    <row r="140" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>138</v>
       </c>
@@ -27969,7 +27928,7 @@
       <c r="L140" s="8"/>
       <c r="M140" s="11"/>
     </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>139</v>
       </c>
@@ -28000,7 +27959,7 @@
       <c r="L141" s="8"/>
       <c r="M141" s="11"/>
     </row>
-    <row r="142" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>140</v>
       </c>
@@ -28031,7 +27990,7 @@
       <c r="L142" s="8"/>
       <c r="M142" s="11"/>
     </row>
-    <row r="143" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
         <v>141</v>
       </c>
@@ -28062,7 +28021,7 @@
       <c r="L143" s="9"/>
       <c r="M143" s="11"/>
     </row>
-    <row r="144" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>142</v>
       </c>
@@ -28093,7 +28052,7 @@
       <c r="L144" s="8"/>
       <c r="M144" s="11"/>
     </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>143</v>
       </c>
@@ -28124,7 +28083,7 @@
       <c r="L145" s="55"/>
       <c r="M145" s="59"/>
     </row>
-    <row r="146" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>144</v>
       </c>
@@ -28159,7 +28118,7 @@
       </c>
       <c r="M146" s="11"/>
     </row>
-    <row r="147" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>145</v>
       </c>
@@ -28194,7 +28153,7 @@
       </c>
       <c r="M147" s="11"/>
     </row>
-    <row r="148" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>146</v>
       </c>
@@ -28229,7 +28188,7 @@
       </c>
       <c r="M148" s="11"/>
     </row>
-    <row r="149" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8">
         <v>147</v>
       </c>
@@ -28264,7 +28223,7 @@
       </c>
       <c r="M149" s="11"/>
     </row>
-    <row r="150" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>148</v>
       </c>
@@ -28299,7 +28258,7 @@
       </c>
       <c r="M150" s="11"/>
     </row>
-    <row r="151" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>149</v>
       </c>
@@ -28333,7 +28292,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>150</v>
       </c>
@@ -28367,7 +28326,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="1" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>151</v>
       </c>
@@ -28402,7 +28361,7 @@
       </c>
       <c r="M153" s="11"/>
     </row>
-    <row r="154" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>152</v>
       </c>
@@ -28437,7 +28396,7 @@
       </c>
       <c r="M154" s="11"/>
     </row>
-    <row r="155" spans="1:13" s="1" customFormat="1" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>153</v>
       </c>
@@ -28468,7 +28427,7 @@
       <c r="L155" s="9"/>
       <c r="M155" s="11"/>
     </row>
-    <row r="156" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>154</v>
       </c>
@@ -28503,7 +28462,7 @@
       </c>
       <c r="M156" s="11"/>
     </row>
-    <row r="157" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>155</v>
       </c>
@@ -28538,7 +28497,7 @@
       </c>
       <c r="M157" s="11"/>
     </row>
-    <row r="158" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>156</v>
       </c>
@@ -28569,7 +28528,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="11"/>
     </row>
-    <row r="159" spans="1:13" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>157</v>
       </c>
@@ -28600,7 +28559,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="11"/>
     </row>
-    <row r="160" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>158</v>
       </c>
@@ -28635,7 +28594,7 @@
       </c>
       <c r="M160" s="11"/>
     </row>
-    <row r="161" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>159</v>
       </c>
@@ -28670,7 +28629,7 @@
       </c>
       <c r="M161" s="11"/>
     </row>
-    <row r="162" spans="1:13" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>160</v>
       </c>
@@ -28705,7 +28664,7 @@
       </c>
       <c r="M162" s="11"/>
     </row>
-    <row r="163" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>161</v>
       </c>
@@ -28740,7 +28699,7 @@
       </c>
       <c r="M163" s="63"/>
     </row>
-    <row r="164" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>162</v>
       </c>
@@ -28775,7 +28734,7 @@
       </c>
       <c r="M164" s="63"/>
     </row>
-    <row r="165" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="70" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>163</v>
       </c>
@@ -28810,7 +28769,7 @@
       </c>
       <c r="M165" s="63"/>
     </row>
-    <row r="166" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>164</v>
       </c>
@@ -28845,7 +28804,7 @@
       </c>
       <c r="M166" s="63"/>
     </row>
-    <row r="167" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="84" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>165</v>
       </c>
@@ -28880,7 +28839,7 @@
       </c>
       <c r="M167" s="63"/>
     </row>
-    <row r="168" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>166</v>
       </c>
@@ -28915,7 +28874,7 @@
       </c>
       <c r="M168" s="63"/>
     </row>
-    <row r="169" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>167</v>
       </c>
@@ -28950,7 +28909,7 @@
       </c>
       <c r="M169" s="63"/>
     </row>
-    <row r="170" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>168</v>
       </c>
@@ -28985,7 +28944,7 @@
       </c>
       <c r="M170" s="63"/>
     </row>
-    <row r="171" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>169</v>
       </c>
@@ -29020,7 +28979,7 @@
       </c>
       <c r="M171" s="63"/>
     </row>
-    <row r="172" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>170</v>
       </c>
@@ -29051,7 +29010,7 @@
       <c r="L172" s="63"/>
       <c r="M172" s="63"/>
     </row>
-    <row r="173" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A173" s="63">
         <v>171</v>
       </c>
@@ -29086,7 +29045,7 @@
       </c>
       <c r="M173" s="63"/>
     </row>
-    <row r="174" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A174" s="63">
         <v>172</v>
       </c>
@@ -29121,7 +29080,7 @@
       </c>
       <c r="M174" s="63"/>
     </row>
-    <row r="175" spans="1:13" ht="69" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="84" x14ac:dyDescent="0.3">
       <c r="A175" s="63">
         <v>173</v>
       </c>
@@ -29156,7 +29115,7 @@
       </c>
       <c r="M175" s="63"/>
     </row>
-    <row r="176" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="70" x14ac:dyDescent="0.3">
       <c r="A176" s="63">
         <v>174</v>
       </c>
@@ -29191,7 +29150,7 @@
       </c>
       <c r="M176" s="63"/>
     </row>
-    <row r="177" spans="1:13" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" s="24" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>175</v>
       </c>
@@ -29228,7 +29187,7 @@
       </c>
       <c r="M177" s="23"/>
     </row>
-    <row r="178" spans="1:13" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" s="24" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <v>176</v>
       </c>
@@ -29265,7 +29224,7 @@
       </c>
       <c r="M178" s="23"/>
     </row>
-    <row r="179" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="98" x14ac:dyDescent="0.3">
       <c r="A179" s="63">
         <v>177</v>
       </c>
@@ -29300,7 +29259,7 @@
       </c>
       <c r="M179" s="63"/>
     </row>
-    <row r="180" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A180" s="70">
         <v>178</v>
       </c>
@@ -29335,7 +29294,7 @@
       </c>
       <c r="M180" s="70"/>
     </row>
-    <row r="181" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="28" x14ac:dyDescent="0.35">
       <c r="A181" s="63">
         <v>179</v>
       </c>
@@ -29370,7 +29329,7 @@
       </c>
       <c r="M181" s="11"/>
     </row>
-    <row r="182" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="28" x14ac:dyDescent="0.35">
       <c r="A182" s="63">
         <v>180</v>
       </c>
@@ -29405,7 +29364,7 @@
       </c>
       <c r="M182" s="11"/>
     </row>
-    <row r="183" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="98" x14ac:dyDescent="0.35">
       <c r="A183" s="63">
         <v>181</v>
       </c>
@@ -29440,7 +29399,7 @@
       </c>
       <c r="M183" s="11"/>
     </row>
-    <row r="184" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A184" s="63">
         <v>182</v>
       </c>
@@ -29475,7 +29434,7 @@
       </c>
       <c r="M184" s="11"/>
     </row>
-    <row r="185" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
         <v>183</v>
       </c>
@@ -29510,7 +29469,7 @@
       </c>
       <c r="M185" s="11"/>
     </row>
-    <row r="186" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="63">
         <v>184</v>
       </c>
@@ -29545,7 +29504,7 @@
       </c>
       <c r="M186" s="11"/>
     </row>
-    <row r="187" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A187" s="63">
         <v>185</v>
       </c>
@@ -29578,7 +29537,7 @@
       </c>
       <c r="M187" s="11"/>
     </row>
-    <row r="188" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A188" s="63">
         <v>186</v>
       </c>
@@ -29611,7 +29570,7 @@
       </c>
       <c r="M188" s="11"/>
     </row>
-    <row r="189" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A189" s="63">
         <v>187</v>
       </c>
@@ -29644,7 +29603,7 @@
       </c>
       <c r="M189" s="11"/>
     </row>
-    <row r="190" spans="1:13" ht="138" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="140" x14ac:dyDescent="0.35">
       <c r="A190" s="63">
         <v>188</v>
       </c>
@@ -29679,7 +29638,7 @@
       </c>
       <c r="M190" s="11"/>
     </row>
-    <row r="191" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="140" x14ac:dyDescent="0.35">
       <c r="A191" s="63">
         <v>189</v>
       </c>
@@ -29712,7 +29671,7 @@
       </c>
       <c r="M191" s="11"/>
     </row>
-    <row r="192" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="98" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>190</v>
       </c>
@@ -29741,7 +29700,7 @@
       <c r="L192" s="8"/>
       <c r="M192" s="11"/>
     </row>
-    <row r="193" spans="1:13" ht="268.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" ht="268.89999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="63">
         <v>191</v>
       </c>
@@ -29774,7 +29733,7 @@
       </c>
       <c r="M193" s="11"/>
     </row>
-    <row r="194" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A194" s="63">
         <v>192</v>
       </c>
@@ -29807,7 +29766,7 @@
       </c>
       <c r="M194" s="11"/>
     </row>
-    <row r="195" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A195" s="63">
         <v>193</v>
       </c>
@@ -29840,7 +29799,7 @@
       </c>
       <c r="M195" s="59"/>
     </row>
-    <row r="196" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A196" s="63">
         <v>194</v>
       </c>
@@ -29873,7 +29832,7 @@
       </c>
       <c r="M196" s="11"/>
     </row>
-    <row r="197" spans="1:13" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="182" x14ac:dyDescent="0.35">
       <c r="A197" s="8">
         <v>195</v>
       </c>
@@ -29904,7 +29863,7 @@
       <c r="L197" s="8"/>
       <c r="M197" s="11"/>
     </row>
-    <row r="198" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="154" x14ac:dyDescent="0.35">
       <c r="A198" s="63">
         <v>196</v>
       </c>
@@ -29939,7 +29898,7 @@
       </c>
       <c r="M198" s="11"/>
     </row>
-    <row r="199" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A199" s="8">
         <v>197</v>
       </c>
@@ -29970,7 +29929,7 @@
       <c r="L199" s="8"/>
       <c r="M199" s="11"/>
     </row>
-    <row r="200" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="126" x14ac:dyDescent="0.35">
       <c r="A200" s="55">
         <v>198</v>
       </c>
@@ -29999,7 +29958,7 @@
       <c r="L200" s="55"/>
       <c r="M200" s="59"/>
     </row>
-    <row r="201" spans="1:13" ht="253.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="253.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="63">
         <v>199</v>
       </c>
@@ -30034,7 +29993,7 @@
       </c>
       <c r="M201" s="11"/>
     </row>
-    <row r="202" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A202" s="8">
         <v>200</v>
       </c>
@@ -30069,7 +30028,7 @@
       </c>
       <c r="M202" s="11"/>
     </row>
-    <row r="203" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="98" x14ac:dyDescent="0.35">
       <c r="A203" s="63">
         <v>201</v>
       </c>
@@ -30104,7 +30063,7 @@
       </c>
       <c r="M203" s="11"/>
     </row>
-    <row r="204" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A204" s="63">
         <v>202</v>
       </c>
@@ -30139,7 +30098,7 @@
       </c>
       <c r="M204" s="11"/>
     </row>
-    <row r="205" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A205" s="70">
         <v>203</v>
       </c>
@@ -30174,7 +30133,7 @@
       </c>
       <c r="M205" s="11"/>
     </row>
-    <row r="206" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="294" x14ac:dyDescent="0.35">
       <c r="A206" s="63">
         <v>204</v>
       </c>
@@ -30209,7 +30168,7 @@
       </c>
       <c r="M206" s="11"/>
     </row>
-    <row r="207" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A207" s="63">
         <v>205</v>
       </c>
@@ -30244,7 +30203,7 @@
       </c>
       <c r="M207" s="11"/>
     </row>
-    <row r="208" spans="1:13" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="112.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63">
         <v>206</v>
       </c>
@@ -30279,7 +30238,7 @@
       </c>
       <c r="M208" s="11"/>
     </row>
-    <row r="209" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A209" s="63">
         <v>207</v>
       </c>
@@ -30314,7 +30273,7 @@
       </c>
       <c r="M209" s="11"/>
     </row>
-    <row r="210" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="126" x14ac:dyDescent="0.35">
       <c r="A210" s="63">
         <v>208</v>
       </c>
@@ -30349,7 +30308,7 @@
       </c>
       <c r="M210" s="11"/>
     </row>
-    <row r="211" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A211" s="63">
         <v>209</v>
       </c>
@@ -30384,7 +30343,7 @@
       </c>
       <c r="M211" s="11"/>
     </row>
-    <row r="212" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A212" s="8">
         <v>210</v>
       </c>
@@ -30413,7 +30372,7 @@
       <c r="L212" s="8"/>
       <c r="M212" s="11"/>
     </row>
-    <row r="213" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A213" s="63">
         <v>211</v>
       </c>
@@ -30446,7 +30405,7 @@
       </c>
       <c r="M213" s="11"/>
     </row>
-    <row r="214" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" ht="126" x14ac:dyDescent="0.35">
       <c r="A214" s="63">
         <v>212</v>
       </c>
@@ -30481,7 +30440,7 @@
       </c>
       <c r="M214" s="11"/>
     </row>
-    <row r="215" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A215" s="63">
         <v>213</v>
       </c>
@@ -30518,7 +30477,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A216" s="63">
         <v>214</v>
       </c>
@@ -30553,7 +30512,7 @@
       </c>
       <c r="M216" s="11"/>
     </row>
-    <row r="217" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="8">
         <v>215</v>
       </c>
@@ -30594,7 +30553,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A218" s="8">
         <v>216</v>
       </c>
@@ -30631,7 +30590,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A219" s="8">
         <v>217</v>
       </c>
@@ -30668,7 +30627,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" ht="140" x14ac:dyDescent="0.35">
       <c r="A220" s="8">
         <v>218</v>
       </c>
@@ -30705,7 +30664,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A221" s="8">
         <v>219</v>
       </c>
@@ -30742,7 +30701,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A222" s="8">
         <v>220</v>
       </c>
@@ -30779,7 +30738,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A223" s="8">
         <v>221</v>
       </c>
@@ -30816,7 +30775,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="195.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="8">
         <v>222</v>
       </c>
@@ -30853,7 +30812,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="182" x14ac:dyDescent="0.35">
       <c r="A225" s="63">
         <v>223</v>
       </c>
@@ -30892,7 +30851,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="168" x14ac:dyDescent="0.35">
       <c r="A226" s="8">
         <v>224</v>
       </c>
@@ -30929,7 +30888,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="168" x14ac:dyDescent="0.35">
       <c r="A227" s="8">
         <v>225</v>
       </c>
@@ -30966,7 +30925,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="168" x14ac:dyDescent="0.35">
       <c r="A228" s="8">
         <v>226</v>
       </c>
@@ -31003,7 +30962,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="182" x14ac:dyDescent="0.35">
       <c r="A229" s="8">
         <v>227</v>
       </c>
@@ -31040,7 +30999,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="224" x14ac:dyDescent="0.35">
       <c r="A230" s="8">
         <v>228</v>
       </c>
@@ -31077,7 +31036,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A231" s="8">
         <v>229</v>
       </c>
@@ -31108,7 +31067,7 @@
       <c r="L231" s="8"/>
       <c r="M231" s="11"/>
     </row>
-    <row r="232" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A232" s="8">
         <v>230</v>
       </c>
@@ -31137,7 +31096,7 @@
       <c r="L232" s="8"/>
       <c r="M232" s="11"/>
     </row>
-    <row r="233" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A233" s="8">
         <v>231</v>
       </c>
@@ -31170,7 +31129,7 @@
       </c>
       <c r="M233" s="11"/>
     </row>
-    <row r="234" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="8">
         <v>232</v>
       </c>
@@ -31205,7 +31164,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A235" s="8">
         <v>233</v>
       </c>
@@ -31240,7 +31199,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A236" s="8">
         <v>234</v>
       </c>
@@ -31275,7 +31234,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A237" s="8">
         <v>235</v>
       </c>
@@ -31310,7 +31269,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" ht="56" x14ac:dyDescent="0.35">
       <c r="A238" s="8">
         <v>236</v>
       </c>
@@ -31345,7 +31304,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="70" x14ac:dyDescent="0.35">
       <c r="A239" s="8">
         <v>237</v>
       </c>
@@ -31380,7 +31339,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="157.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" ht="157.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="55">
         <v>238</v>
       </c>
@@ -31415,7 +31374,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A241" s="8">
         <v>239</v>
       </c>
@@ -31450,7 +31409,7 @@
       </c>
       <c r="M241" s="11"/>
     </row>
-    <row r="242" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A242" s="8">
         <v>240</v>
       </c>
@@ -31485,7 +31444,7 @@
       </c>
       <c r="M242" s="11"/>
     </row>
-    <row r="243" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" ht="98" x14ac:dyDescent="0.35">
       <c r="A243" s="8">
         <v>241</v>
       </c>
@@ -31520,7 +31479,7 @@
       </c>
       <c r="M243" s="11"/>
     </row>
-    <row r="244" spans="1:13" ht="241.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" ht="241.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="8">
         <v>242</v>
       </c>
@@ -31555,7 +31514,7 @@
       </c>
       <c r="M244" s="11"/>
     </row>
-    <row r="245" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" ht="154" x14ac:dyDescent="0.35">
       <c r="A245" s="8">
         <v>243</v>
       </c>
@@ -31590,7 +31549,7 @@
       </c>
       <c r="M245" s="11"/>
     </row>
-    <row r="246" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" ht="154" x14ac:dyDescent="0.35">
       <c r="A246" s="8">
         <v>244</v>
       </c>
@@ -31625,7 +31584,7 @@
       </c>
       <c r="M246" s="11"/>
     </row>
-    <row r="247" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" ht="182" x14ac:dyDescent="0.35">
       <c r="A247" s="8">
         <v>245</v>
       </c>
@@ -31660,7 +31619,7 @@
       </c>
       <c r="M247" s="11"/>
     </row>
-    <row r="248" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" ht="84" x14ac:dyDescent="0.35">
       <c r="A248" s="8">
         <v>246</v>
       </c>
@@ -31695,7 +31654,7 @@
       </c>
       <c r="M248" s="11"/>
     </row>
-    <row r="249" spans="1:13" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="322" x14ac:dyDescent="0.35">
       <c r="A249" s="8">
         <v>247</v>
       </c>
@@ -31730,7 +31689,7 @@
       </c>
       <c r="M249" s="11"/>
     </row>
-    <row r="250" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A250" s="8">
         <v>248</v>
       </c>
@@ -31765,7 +31724,7 @@
       </c>
       <c r="M250" s="11"/>
     </row>
-    <row r="251" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" ht="112" x14ac:dyDescent="0.35">
       <c r="A251" s="8">
         <v>249</v>
       </c>
@@ -31798,7 +31757,7 @@
       <c r="L251" s="9"/>
       <c r="M251" s="11"/>
     </row>
-    <row r="252" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="154" x14ac:dyDescent="0.35">
       <c r="A252" s="8">
         <v>250</v>
       </c>
@@ -31827,7 +31786,7 @@
       <c r="L252" s="9"/>
       <c r="M252" s="11"/>
     </row>
-    <row r="253" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" ht="98" x14ac:dyDescent="0.35">
       <c r="A253" s="8">
         <v>251</v>
       </c>
@@ -31841,7 +31800,7 @@
         <v>1089</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F253" s="11" t="s">
         <v>1039</v>
@@ -31851,18 +31810,12 @@
       </c>
       <c r="H253" s="8"/>
       <c r="I253" s="12"/>
-      <c r="J253" s="11" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K253" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="L253" s="9">
-        <v>43532</v>
-      </c>
+      <c r="J253" s="11"/>
+      <c r="K253" s="8"/>
+      <c r="L253" s="9"/>
       <c r="M253" s="11"/>
     </row>
-    <row r="254" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="8">
         <v>252</v>
       </c>
@@ -31897,7 +31850,7 @@
       </c>
       <c r="M254" s="11"/>
     </row>
-    <row r="255" spans="1:13" ht="289.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" ht="294" x14ac:dyDescent="0.35">
       <c r="A255" s="8">
         <v>253</v>
       </c>
@@ -31922,75 +31875,47 @@
       <c r="L255" s="9"/>
       <c r="M255" s="11"/>
     </row>
-    <row r="256" spans="1:13" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="8">
+    <row r="256" spans="1:13" ht="336" x14ac:dyDescent="0.35">
+      <c r="A256" s="2">
         <v>254</v>
       </c>
-      <c r="B256" s="9">
-        <v>43537</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D256" s="11" t="s">
-        <v>1062</v>
+      <c r="B256" s="88">
+        <v>43559</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>1096</v>
       </c>
       <c r="E256" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F256" s="11" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G256" s="11" t="s">
+      <c r="F256" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="G256" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="H256" s="8"/>
-      <c r="I256" s="12"/>
-      <c r="J256" s="11" t="s">
-        <v>1100</v>
-      </c>
-      <c r="K256" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="L256" s="9">
-        <v>43537</v>
-      </c>
-      <c r="M256" s="11"/>
-    </row>
-    <row r="257" spans="1:13" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A257" s="8">
+      <c r="J256" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K256" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L256" s="88">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="2">
         <v>255</v>
       </c>
-      <c r="B257" s="9">
-        <v>43537</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D257" s="11" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E257" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F257" s="11" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G257" s="11" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H257" s="8"/>
-      <c r="I257" s="12"/>
-      <c r="J257" s="11" t="s">
-        <v>1099</v>
-      </c>
-      <c r="K257" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="L257" s="9">
-        <v>43537</v>
-      </c>
-      <c r="M257" s="11"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="2">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:M251" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -32012,7 +31937,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -32027,20 +31952,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="90.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.26953125" style="1"/>
+    <col min="2" max="2" width="90.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.54296875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="85"/>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>989</v>
       </c>
@@ -32051,7 +31976,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -32062,7 +31987,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -32073,7 +31998,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -32084,7 +32009,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <v>4</v>
       </c>
@@ -32093,7 +32018,7 @@
       </c>
       <c r="C6" s="30"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
         <v>5</v>
       </c>
@@ -32104,7 +32029,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35">
         <v>6</v>
       </c>
@@ -32115,7 +32040,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
     </row>
   </sheetData>
@@ -32143,14 +32068,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
@@ -32161,12 +32086,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="D4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
@@ -32177,7 +32102,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
@@ -32188,7 +32113,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D7" s="13" t="s">
         <v>1005</v>
       </c>
@@ -32196,27 +32121,27 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F8" s="13" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F9" s="46" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F10" s="46" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F11" s="46" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F12" s="46" t="s">
         <v>466</v>
       </c>
@@ -32254,6 +32179,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -32460,15 +32394,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
@@ -32487,6 +32412,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F1DD169-1613-4852-8D49-4C3CB1FDBF80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32503,12 +32436,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>